--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED035037-19C6-4377-B117-7597AE82EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2255755B-9192-4A59-BF92-5A1D1F9DB0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
+    <workbookView xWindow="5580" yWindow="4425" windowWidth="28800" windowHeight="12645" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>QuestID</t>
   </si>
@@ -60,13 +60,39 @@
   </si>
   <si>
     <t>Notice</t>
+  </si>
+  <si>
+    <t>M0001</t>
+  </si>
+  <si>
+    <t>기본 훈련</t>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>찰리중사</t>
+  </si>
+  <si>
+    <t>Lv 3 이하 몬스터</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>{_x000D_
+  "OnAccept": "훈련병, 네가 여기 온 이유를 알려주지. 기본적인 무기와 스킬 사용법을 익히기 위해서야. *Lv 3 이하의 몬스터 5마리를 처치하고 돌아오도록. 실패는 용납되지 않는다."_x000D_
+}</t>
+  </si>
+  <si>
+    <t>플레이어를 훈련병이라 부름. 단호하고 엄한 말투 사용.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +101,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +132,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -102,11 +144,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562F8D9-5611-4BF4-8951-E6F12A422DC7}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -453,7 +496,7 @@
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="50.625" customWidth="1"/>
-    <col min="8" max="8" width="32.25" customWidth="1"/>
+    <col min="8" max="8" width="50.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -480,6 +523,32 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2255755B-9192-4A59-BF92-5A1D1F9DB0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB36B46-CCB9-42B1-A846-7174C4C84800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="4425" windowWidth="28800" windowHeight="12645" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>Notice</t>
   </si>
   <si>
-    <t>M0001</t>
+    <t>Q0001</t>
   </si>
   <si>
     <t>기본 훈련</t>
@@ -74,18 +74,19 @@
     <t>찰리중사</t>
   </si>
   <si>
-    <t>Lv 3 이하 몬스터</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>{_x000D_
-  "OnAccept": "훈련병, 네가 여기 온 이유를 알려주지. 기본적인 무기와 스킬 사용법을 익히기 위해서야. *Lv 3 이하의 몬스터 5마리를 처치하고 돌아오도록. 실패는 용납되지 않는다."_x000D_
+    <t>슬라임</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>플레이어를 훈련병이라 칭함.</t>
+  </si>
+  <si>
+    <t>{
+  "OnAccept": "훈련병, 네가 여기 온 건 우리 부대에 큰 도움이 될 거야. 기본부터 차근차근 배워보자.*네 첫 번째 임무는 주변 지역에 나타난 슬라임을 15마리 처치하는 거야. 이 작은 몬스터들도 얕볼 게 아니니 조심하고, 무기와 스킬 사용법을 잘 익혀봐."
 }</t>
-  </si>
-  <si>
-    <t>플레이어를 훈련병이라 부름. 단호하고 엄한 말투 사용.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -140,12 +141,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,7 +489,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -544,11 +548,11 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,10 +62,10 @@
     <t>Notice</t>
   </si>
   <si>
-    <t>Q0001</t>
-  </si>
-  <si>
-    <t>기본 훈련</t>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>기본 훈련: 몬스터 처치</t>
   </si>
   <si>
     <t>Fight</t>
@@ -74,26 +74,24 @@
     <t>찰리중사</t>
   </si>
   <si>
-    <t>슬라임</t>
+    <t>파이어보어</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>플레이어를 훈련병이라 칭함.</t>
-  </si>
-  <si>
-    <t>{
-  "OnAccept": "훈련병, 네가 여기 온 건 우리 부대에 큰 도움이 될 거야. 기본부터 차근차근 배워보자.*네 첫 번째 임무는 주변 지역에 나타난 슬라임을 15마리 처치하는 거야. 이 작은 몬스터들도 얕볼 게 아니니 조심하고, 무기와 스킬 사용법을 잘 익혀봐."
-}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>훈련병, 여기서 살아남으려면 기본이 중요하다. 네가 할 일은 간단하다. *파이어보어를 15마리 처치해와라. 이 작은 시험조차 통과하지 못한다면, 여기서 살아남을 수 없을 거다.</t>
+  </si>
+  <si>
+    <t>플레이어를 훈련병이라 부름. 단호한 말투 사용.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,18 +132,18 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -503,7 +501,7 @@
     <col min="8" max="8" width="50.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,34 +527,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" ht="115.5">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB36B46-CCB9-42B1-A846-7174C4C84800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A236254C-F578-4DB2-8B84-E429A5D38136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="4425" windowWidth="28800" windowHeight="12645" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
+    <workbookView xWindow="9450" yWindow="5400" windowWidth="28800" windowHeight="12645" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>QuestID</t>
   </si>
@@ -84,14 +84,38 @@
   </si>
   <si>
     <t>플레이어를 훈련병이라 부름. 단호한 말투 사용.</t>
+  </si>
+  <si>
+    <t>S0001-D01</t>
+  </si>
+  <si>
+    <t>찰리 중사에게의 전달물</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>미첼</t>
+  </si>
+  <si>
+    <t>찰리 중사</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>단정한 말투. 플레이어를 청년이라 부르며 요리가 취미이다.</t>
+  </si>
+  <si>
+    <t>청년, 잠시 시간을 내어줄 수 있겠나? 나의 남편 찰리 중사에게 이 편지를 전해주었으면 해.*편지를 찰리 중사에게 전달해주면, 내가 직접 만든 요리로 보답하겠어.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,18 +156,18 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -484,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562F8D9-5611-4BF4-8951-E6F12A422DC7}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,7 +525,7 @@
     <col min="8" max="8" width="50.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,35 +551,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="115.5">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A236254C-F578-4DB2-8B84-E429A5D38136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EC38D-B3F7-461A-8650-4BAFFCEB2E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="5400" windowWidth="28800" windowHeight="12645" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
+    <workbookView xWindow="6330" yWindow="6075" windowWidth="28800" windowHeight="12645" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>QuestID</t>
   </si>
@@ -104,18 +104,27 @@
     <t>1</t>
   </si>
   <si>
+    <t>청년, 잠시 시간을 내어줄 수 있겠나? 나의 남편 찰리 중사에게 이 편지를 전해주었으면 해.*편지를 찰리 중사에게 전달해주면, 내가 직접 만든 요리로 보답하겠어.</t>
+  </si>
+  <si>
     <t>단정한 말투. 플레이어를 청년이라 부르며 요리가 취미이다.</t>
   </si>
   <si>
-    <t>청년, 잠시 시간을 내어줄 수 있겠나? 나의 남편 찰리 중사에게 이 편지를 전해주었으면 해.*편지를 찰리 중사에게 전달해주면, 내가 직접 만든 요리로 보답하겠어.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>찰리 중사에게 전달할 물건</t>
+  </si>
+  <si>
+    <t>모험자님, 바쁜 찰리 중사에게 이 물컹물컹한 액체를 전달해주실 수 있나요?*물론이죠, 미첼님. 찰리 중사에게 안전하게 전달하겠습니다.</t>
+  </si>
+  <si>
+    <t>플레이어를 모험자라고 부름.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,18 +165,18 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562F8D9-5611-4BF4-8951-E6F12A422DC7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,7 +534,7 @@
     <col min="8" max="8" width="50.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,60 +560,87 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" ht="49.5">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EC38D-B3F7-461A-8650-4BAFFCEB2E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C83D3-41CF-4AB8-9397-DED8E83DA5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="6075" windowWidth="28800" windowHeight="12645" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
+    <workbookView xWindow="3915" yWindow="6825" windowWidth="28800" windowHeight="12645" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>QuestID</t>
   </si>
@@ -62,10 +62,10 @@
     <t>Notice</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>기본 훈련: 몬스터 처치</t>
+    <t>FM00010542</t>
+  </si>
+  <si>
+    <t>기초 훈련: 슬라임 처치</t>
   </si>
   <si>
     <t>Fight</t>
@@ -74,22 +74,52 @@
     <t>찰리중사</t>
   </si>
   <si>
+    <t>슬라임</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>훈련병, 네가 여기 온 이유를 알려주지. 우리는 강해져야 해. 먼저, 슬라임을 12마리 처치해와.*잘했다, 훈련병! 이제 넌 기초 훈련을 마쳤어.</t>
+  </si>
+  <si>
+    <t>연계되는 3개의 퀘스트를 생성해줘.</t>
+  </si>
+  <si>
+    <t>FM00010786</t>
+  </si>
+  <si>
+    <t>중급 훈련: 파이어보어 사냥</t>
+  </si>
+  <si>
     <t>파이어보어</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>훈련병, 여기서 살아남으려면 기본이 중요하다. 네가 할 일은 간단하다. *파이어보어를 15마리 처치해와라. 이 작은 시험조차 통과하지 못한다면, 여기서 살아남을 수 없을 거다.</t>
-  </si>
-  <si>
-    <t>플레이어를 훈련병이라 부름. 단호한 말투 사용.</t>
-  </si>
-  <si>
-    <t>S0001-D01</t>
-  </si>
-  <si>
-    <t>찰리 중사에게의 전달물</t>
+    <t>훈련병, 이제 너에게 조금 더 도전적인 임무를 줄 시간이야. 파이어보어를 15마리 처치해와.*훌륭해, 훈련병! 너의 실력이 눈에 띄게 향상되었어.</t>
+  </si>
+  <si>
+    <t>FM00010923</t>
+  </si>
+  <si>
+    <t>고급 훈련: 스텀프 제거 작전</t>
+  </si>
+  <si>
+    <t>스텀프</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>훈련병, 마지막 훈련이야. 스텀프를 18마리 처치하고 돌아와. 이건 진짜 시험이야.*대단해, 훈련병! 넌 이제 진정한 전사야.</t>
+  </si>
+  <si>
+    <t>DSM0001</t>
+  </si>
+  <si>
+    <t>찰리 중사에게 전달할 파랑 꽃</t>
   </si>
   <si>
     <t>Deliver</t>
@@ -98,25 +128,16 @@
     <t>미첼</t>
   </si>
   <si>
-    <t>찰리 중사</t>
+    <t>파랑 꽃</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>청년, 잠시 시간을 내어줄 수 있겠나? 나의 남편 찰리 중사에게 이 편지를 전해주었으면 해.*편지를 찰리 중사에게 전달해주면, 내가 직접 만든 요리로 보답하겠어.</t>
-  </si>
-  <si>
-    <t>단정한 말투. 플레이어를 청년이라 부르며 요리가 취미이다.</t>
-  </si>
-  <si>
-    <t>찰리 중사에게 전달할 물건</t>
-  </si>
-  <si>
-    <t>모험자님, 바쁜 찰리 중사에게 이 물컹물컹한 액체를 전달해주실 수 있나요?*물론이죠, 미첼님. 찰리 중사에게 안전하게 전달하겠습니다.</t>
-  </si>
-  <si>
-    <t>플레이어를 모험자라고 부름.</t>
+    <t>찰리 중사가 너무 바빠서 직접 전달할 수 없는 물건이 있어. *이 파랑 꽃을 찰리 중사에게 전달해 줄 수 있겠니?</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -517,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562F8D9-5611-4BF4-8951-E6F12A422DC7}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="49.5">
+    <row r="2">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -594,48 +615,74 @@
         <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>26</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>QuestID</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>GM0002</t>
+  </si>
+  <si>
+    <t>찰리 중사를 위한 파랑 꽃 구하기</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>찰리 중사에게 전달할 파랑 꽃을 어디서든 구해와야 해. *이 꽃을 찾아서 나에게 가져다주면 찰리 중사에게 전달할 수 있을 거야.</t>
   </si>
 </sst>
 </file>
@@ -538,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562F8D9-5611-4BF4-8951-E6F12A422DC7}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -685,6 +697,32 @@
         <v>33</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C83D3-41CF-4AB8-9397-DED8E83DA5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651E33C-C4C5-44D8-914D-99F35B330025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="6825" windowWidth="28800" windowHeight="12645" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>QuestID</t>
   </si>
@@ -62,102 +62,23 @@
     <t>Notice</t>
   </si>
   <si>
-    <t>FM00010542</t>
-  </si>
-  <si>
-    <t>기초 훈련: 슬라임 처치</t>
-  </si>
-  <si>
-    <t>Fight</t>
-  </si>
-  <si>
-    <t>찰리중사</t>
-  </si>
-  <si>
-    <t>슬라임</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>훈련병, 네가 여기 온 이유를 알려주지. 우리는 강해져야 해. 먼저, 슬라임을 12마리 처치해와.*잘했다, 훈련병! 이제 넌 기초 훈련을 마쳤어.</t>
-  </si>
-  <si>
-    <t>연계되는 3개의 퀘스트를 생성해줘.</t>
-  </si>
-  <si>
-    <t>FM00010786</t>
-  </si>
-  <si>
-    <t>중급 훈련: 파이어보어 사냥</t>
-  </si>
-  <si>
-    <t>파이어보어</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>훈련병, 이제 너에게 조금 더 도전적인 임무를 줄 시간이야. 파이어보어를 15마리 처치해와.*훌륭해, 훈련병! 너의 실력이 눈에 띄게 향상되었어.</t>
-  </si>
-  <si>
-    <t>FM00010923</t>
-  </si>
-  <si>
-    <t>고급 훈련: 스텀프 제거 작전</t>
-  </si>
-  <si>
-    <t>스텀프</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>훈련병, 마지막 훈련이야. 스텀프를 18마리 처치하고 돌아와. 이건 진짜 시험이야.*대단해, 훈련병! 넌 이제 진정한 전사야.</t>
-  </si>
-  <si>
-    <t>DSM0001</t>
-  </si>
-  <si>
-    <t>찰리 중사에게 전달할 파랑 꽃</t>
-  </si>
-  <si>
-    <t>Deliver</t>
-  </si>
-  <si>
-    <t>미첼</t>
-  </si>
-  <si>
-    <t>파랑 꽃</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>찰리 중사가 너무 바빠서 직접 전달할 수 없는 물건이 있어. *이 파랑 꽃을 찰리 중사에게 전달해 줄 수 있겠니?</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>GM0002</t>
-  </si>
-  <si>
-    <t>찰리 중사를 위한 파랑 꽃 구하기</t>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>찰리 중사에게 전달할 파랑 꽃을 어디서든 구해와야 해. *이 꽃을 찾아서 나에게 가져다주면 찰리 중사에게 전달할 수 있을 거야.</t>
+    <t>PromptCost</t>
+  </si>
+  <si>
+    <t>CompletionCost</t>
+  </si>
+  <si>
+    <t>TotalCost</t>
+  </si>
+  <si>
+    <t>GenerateTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +95,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +114,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -197,27 +131,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562F8D9-5611-4BF4-8951-E6F12A422DC7}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,9 +506,12 @@
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="50.625" customWidth="1"/>
     <col min="8" max="8" width="50.75" customWidth="1"/>
+    <col min="10" max="11" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,140 +536,27 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>33</v>
-      </c>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651E33C-C4C5-44D8-914D-99F35B330025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C69E65-8284-4C6D-9A81-94E6EB8BD128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
   </bookViews>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562F8D9-5611-4BF4-8951-E6F12A422DC7}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C69E65-8284-4C6D-9A81-94E6EB8BD128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E810568B-E8C7-4B91-BE60-9C0A7F81059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="189">
   <si>
     <t>QuestID</t>
   </si>
@@ -72,6 +72,570 @@
   </si>
   <si>
     <t>GenerateTime</t>
+  </si>
+  <si>
+    <t>CFS3</t>
+  </si>
+  <si>
+    <t>기초 전투 훈련</t>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>찰리중사</t>
+  </si>
+  <si>
+    <t>파랑슬라임 / 빨간달팽이</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>훈련병, 너의 첫 번째 임무다. 이곳 주변에 나타난 파랑슬라임과 빨간달팽이를 각각 5마리씩 처치해라.*좋아, 준비는 됐나? 이 작은 몬스터들조차 제대로 처리하지 못한다면 앞으로 큰일이다.*훌륭하다, 훈련병! 이제 너도 기본적인 전투는 문제없이 해낼 수 있겠군. 다음 훈련을 준비해라.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Token : 484 
+ Cost : 0.00484$</t>
+  </si>
+  <si>
+    <t>Token : 257 
+ Cost : 0.00771$</t>
+  </si>
+  <si>
+    <t>Token : 741 
+ Cost : 0.01255$</t>
+  </si>
+  <si>
+    <t>8.9S</t>
+  </si>
+  <si>
+    <t>MGS3</t>
+  </si>
+  <si>
+    <t>색다른 꽃을 찾아서</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>미첼</t>
+  </si>
+  <si>
+    <t>파랑 꽃 / 빨강 꽃</t>
+  </si>
+  <si>
+    <t>5 / 3</t>
+  </si>
+  <si>
+    <t>모험가님, 요즘 마을 근처에서 보기 드문 꽃들이 피었다고 해요. *저희 집 정원에 심을 파랑 꽃과 빨강 꽃을 좀 가져다 주시겠어요? 파랑 꽃은 5송이, 빨강 꽃은 3송이면 충분할 것 같아요. *정말 감사해요, 모험가님! 이 꽃들로 우리 집 정원이 더욱 아름다워질 거예요.</t>
+  </si>
+  <si>
+    <t>Token : 505 
+ Cost : 0.00505$</t>
+  </si>
+  <si>
+    <t>Token : 251 
+ Cost : 0.00753$</t>
+  </si>
+  <si>
+    <t>Token : 756 
+ Cost : 0.01258$</t>
+  </si>
+  <si>
+    <t>8.1S</t>
+  </si>
+  <si>
+    <t>RDS2345</t>
+  </si>
+  <si>
+    <t>리코의 희망 전달</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>리코</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>안녕, 모험가님! 저도 언젠가 당신처럼 멋진 모험가가 되고 싶어요.*제가 작은 부탁을 하나 드려도 될까요? 찰리중사님께 이 편지를 전해주실 수 있나요? 제 꿈을 담았어요.*정말요? 감사해요! 찰리중사님께서 받으시면 제 꿈에 한 발짝 더 다가갈 수 있을 거예요.*편지를 전달해주셨다니, 정말 감사해요! 이제 저도 당신처럼 멋진 모험가가 될 수 있을 거 같아요!</t>
+  </si>
+  <si>
+    <t>Token : 521 
+ Cost : 0.00521$</t>
+  </si>
+  <si>
+    <t>Token : 286 
+ Cost : 0.00858$</t>
+  </si>
+  <si>
+    <t>Token : 807 
+ Cost : 0.01379$</t>
+  </si>
+  <si>
+    <t>10.5S</t>
+  </si>
+  <si>
+    <t>MD1234</t>
+  </si>
+  <si>
+    <t>왕실의 전달물</t>
+  </si>
+  <si>
+    <t>메치리오</t>
+  </si>
+  <si>
+    <t>빨간달팽이/스텀프/파이어보어</t>
+  </si>
+  <si>
+    <t>20/30/40</t>
+  </si>
+  <si>
+    <t>제국의 안녕을 위해 당신의 힘이 필요합니다. 최근 몬스터들이 이유 없이 늘어나고 있어, 우리 제국의 안전이 위협받고 있습니다.*이번 임무는 빨간달팽이, 스텀프, 파이어보어를 각각 20마리, 30마리, 40마리 잡아서 그 증거를 나에게 가져오는 것입니다. 이 임무는 제국의 안정을 위해 매우 중요합니다.*성공적으로 임무를 완수하고 돌아왔군요. 당신의 용기와 헌신에 감사드립니다. 제국은 당신 같은 영웅을 결코 잊지 않을 것입니다.</t>
+  </si>
+  <si>
+    <t>Token : 562 
+ Cost : 0.00562$</t>
+  </si>
+  <si>
+    <t>Token : 318 
+ Cost : 0.00954$</t>
+  </si>
+  <si>
+    <t>Token : 880 
+ Cost : 0.01516$</t>
+  </si>
+  <si>
+    <t>10.3S</t>
+  </si>
+  <si>
+    <t>C+G+2743</t>
+  </si>
+  <si>
+    <t>국왕을 위한 재료 수집</t>
+  </si>
+  <si>
+    <t>클리드</t>
+  </si>
+  <si>
+    <t>파란잠자리 날개/등하초</t>
+  </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>메치리오 국왕의 건강이 최근 들어 많이 악화되었어. 나는 국왕의 비서로서, 그분의 건강을 위해 여러 가지 재료를 연구 중이야.*국왕을 위해 파란잠자리 날개 5개와 등하초 3개를 가져다 줄 수 있겠니? 이 재료들로 국왕의 건강을 위한 약을 만들 계획이거든.*정말 고마워! 이 재료들 덕분에 국왕의 건강을 위한 약을 만들 수 있을 것 같아. 국왕과 메치리오 국민 모두 너에게 감사할 거야.</t>
+  </si>
+  <si>
+    <t>Token : 514 
+ Cost : 0.00514$</t>
+  </si>
+  <si>
+    <t>Token : 305 
+ Cost : 0.00915$</t>
+  </si>
+  <si>
+    <t>Token : 819 
+ Cost : 0.01429$</t>
+  </si>
+  <si>
+    <t>9.7S</t>
+  </si>
+  <si>
+    <t>CFS1234</t>
+  </si>
+  <si>
+    <t>기초 훈련: 슬라임 처치</t>
+  </si>
+  <si>
+    <t>슬라임</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>훈련병, 네가 여기 온 이유를 알겠나? 우리는 너를 진정한 전사로 만들기 위해 여기 있다.*슬라임 15마리를 처치하고 돌아오게. 이것은 네 훈련의 첫 단계다.*잘했다, 훈련병! 이제 넌 다음 단계로 나아갈 준비가 되었다.</t>
+  </si>
+  <si>
+    <t>연계되는 3개의 퀘스트 생성.</t>
+  </si>
+  <si>
+    <t>Token : 681 
+ Cost : 0.00681$</t>
+  </si>
+  <si>
+    <t>Token : 665 
+ Cost : 0.01995$</t>
+  </si>
+  <si>
+    <t>Token : 1346 
+ Cost : 0.02676$</t>
+  </si>
+  <si>
+    <t>20S</t>
+  </si>
+  <si>
+    <t>CFP2345</t>
+  </si>
+  <si>
+    <t>중급 훈련: 파랑슬라임 처치</t>
+  </si>
+  <si>
+    <t>파랑슬라임</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>훈련병, 네가 보여준 용기는 칭찬할 만하다. 하지만 아직 갈 길이 멀다.*파랑슬라임 25마리를 처치하고 돌아오게. 네 실력을 한 단계 끌어올릴 시간이다.*훌륭하다, 훈련병! 네가 보여준 진전에 감탄했다. 다음 도전을 준비하게.</t>
+  </si>
+  <si>
+    <t>CFB3456</t>
+  </si>
+  <si>
+    <t>고급 훈련: 파이어보어 처치</t>
+  </si>
+  <si>
+    <t>파이어보어</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>훈련병, 이제 너는 진정한 시험에 직면하게 될 것이다. 준비가 되었나?*파이어보어 35마리를 처치하고 돌아오게. 이것은 네가 마주칠 가장 어려운 도전이 될 것이다.*대단하다, 훈련병! 네가 이룬 성과는 모두가 인정할 것이다. 이제 넌 진정한 전사다.</t>
+  </si>
+  <si>
+    <t>MGS123</t>
+  </si>
+  <si>
+    <t>미첼의 부탁</t>
+  </si>
+  <si>
+    <t>나뭇잎 가면</t>
+  </si>
+  <si>
+    <t>안녕하세요, 모험가님. 찰리중사의 아내, 미첼이에요. 요즘 숲에서 나뭇잎 가면을 찾기가 어려워졌어요.*나뭇잎 가면 5개를 가져다주시겠어요? 숲에서 쉽게 찾을 수 있을 거예요.*정말 감사해요! 이제 제가 만들고 싶었던 장식을 만들 수 있겠어요.</t>
+  </si>
+  <si>
+    <t>연계되는 2개의 퀘스트 생성. 각 Get/Deliver로 생성.</t>
+  </si>
+  <si>
+    <t>Token : 766 
+ Cost : 0.00766$</t>
+  </si>
+  <si>
+    <t>Token : 618 
+ Cost : 0.01854$</t>
+  </si>
+  <si>
+    <t>Token : 1384 
+ Cost : 0.02620$</t>
+  </si>
+  <si>
+    <t>16.9S</t>
+  </si>
+  <si>
+    <t>MDS456</t>
+  </si>
+  <si>
+    <t>리코에게 전달하기</t>
+  </si>
+  <si>
+    <t>모험가님, 방금 만든 장식을 리코에게 전해주실 수 있나요? 리코는 마을 북쪽에 살고 있어요.*리코에게 장식을 전달해주시면 큰 도움이 될 거예요.*리코에게 장식을 잘 전달해주셨다니 정말 다행이에요. 감사합니다!</t>
+  </si>
+  <si>
+    <t>MFS789</t>
+  </si>
+  <si>
+    <t>리코의 감사</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>오, 이건 미첼이 보낸 거군요. 정말 아름다운 장식이에요. 모험가님 덕분에 받을 수 있었어요.*이 장식을 받게 되어 정말 기쁩니다. 모험가님께 감사의 마음을 전합니다.*미첼에게도 제 감사의 인사를 전해주세요. 모험가님 덕분에 오늘 하루가 더욱 특별해졌어요.</t>
+  </si>
+  <si>
+    <t>SFM123</t>
+  </si>
+  <si>
+    <t>어둠의 서약을 찾아서</t>
+  </si>
+  <si>
+    <t>세리안</t>
+  </si>
+  <si>
+    <t>어둠의 추종자</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>엘리온 왕국이 위기에 처했어, 모험가여. 어둠의 서약을 풀리게 한 자들이 바로 어둠의 추종자들이야.*어둠의 추종자 10명을 처치해줘. 그들로부터 어떤 단서를 찾을 수 있을 거야.*잘 했어, 모험가여! 이제 어둠의 서약에 대한 단서를 찾을 수 있을 것 같아.</t>
+  </si>
+  <si>
+    <t>스토리를 설명할 수 있는 5개의 퀘스트 생성. 각 퀘스트 타입은 자유롭게 생성. 또 연계되는 스토리가 있으므로, 이야기를 이어갈 수 있도록 퀘스트 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1238 
+ Cost : 0.01238$</t>
+  </si>
+  <si>
+    <t>Token : 1175 
+ Cost : 0.03525$</t>
+  </si>
+  <si>
+    <t>Token : 2413 
+ Cost : 0.04763$</t>
+  </si>
+  <si>
+    <t>29.2S</t>
+  </si>
+  <si>
+    <t>SGD456</t>
+  </si>
+  <si>
+    <t>성스러운 씨앗의 흔적</t>
+  </si>
+  <si>
+    <t>성스러운 씨앗 조각</t>
+  </si>
+  <si>
+    <t>성역의 나무를 재건하기 위해선 성스러운 씨앗이 필요해. 하지만, 그 씨앗은 조각난 상태로 여기저기 흩어져 있어.*성스러운 씨앗 조각 5개를 찾아와 줘. 그것들이 모이면 새로운 희망이 될 거야.*고마워, 모험가여. 이제 우리에게도 희망이 보이기 시작했어.</t>
+  </si>
+  <si>
+    <t>SDD789</t>
+  </si>
+  <si>
+    <t>메시지의 전달</t>
+  </si>
+  <si>
+    <t>마법사 엘린</t>
+  </si>
+  <si>
+    <t>어둠의 서약에 대한 정보를 담은 메시지를 마법사 엘린에게 전달해줘야 해. 그녀는 이 정보를 통해 무언가를 알아낼 수 있을 거야.*마법사 엘린에게 메시지를 전달해 줘. 그녀는 우리의 오랜 동지야.*메시지를 전달했구나. 고마워, 모험가여. 이제 엘린이 무언가를 알아내길 기다려야겠어.</t>
+  </si>
+  <si>
+    <t>SFF999</t>
+  </si>
+  <si>
+    <t>어둠의 서약 파괴자</t>
+  </si>
+  <si>
+    <t>어둠의 파괴자</t>
+  </si>
+  <si>
+    <t>세리안으로부터 메시지를 받았어. 이제 어둠의 서약을 파괴할 수 있는 기회야.*어둠의 파괴자를 처치해줘. 그가 바로 이 모든 혼란의 원흉이야.*정말 대단해, 모험가여! 어둠의 파괴자를 처치함으로써 우리는 큰 위협으로부터 벗어날 수 있게 됐어.</t>
+  </si>
+  <si>
+    <t>SFD888</t>
+  </si>
+  <si>
+    <t>새로운 성역의 나무</t>
+  </si>
+  <si>
+    <t>성역의 나무</t>
+  </si>
+  <si>
+    <t>이제 성스러운 씨앗을 심을 시간이야. 성역의 나무가 다시 자라날 수 있도록 도와줘.*성역의 나무에 성스러운 씨앗을 심어줘. 그것이 자라나면 엘리온은 다시 평화를 되찾을 거야.*정말 멋진 일을 해냈어, 모험가여! 성역의 나무가 다시 자라나면서, 엘리온에도 다시 평화가 찾아올 거야.</t>
+  </si>
+  <si>
+    <t>MT1</t>
+  </si>
+  <si>
+    <t>지하 광산의 비밀</t>
+  </si>
+  <si>
+    <t>토마스</t>
+  </si>
+  <si>
+    <t>용의 눈물</t>
+  </si>
+  <si>
+    <t>광산 깊숙한 곳에서 용의 눈물이라 불리는 보석이 발견되었다네. 그 보석에는 강력한 힘이 담겨 있다고 전해져.*용의 눈물을 찾아줄 수 있겠나? 광산의 깊은 곳으로 가야 할 걸세.*아하, 용의 눈물을 찾아왔구나! 이제 이 보석의 비밀을 밝혀낼 수 있겠군.</t>
+  </si>
+  <si>
+    <t>스토리를 풀어낼 수 있는 퀘스트 생성. 각 퀘스트 타입은 자유. 최소 3개 이상 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1023 
+ Cost : 0.01023$</t>
+  </si>
+  <si>
+    <t>Token : 916 
+ Cost : 0.02748$</t>
+  </si>
+  <si>
+    <t>Token : 1939 
+ Cost : 0.03771$</t>
+  </si>
+  <si>
+    <t>20.4S</t>
+  </si>
+  <si>
+    <t>MT2</t>
+  </si>
+  <si>
+    <t>지하 광산의 몬스터</t>
+  </si>
+  <si>
+    <t>광산 몬스터</t>
+  </si>
+  <si>
+    <t>용의 눈물을 찾는 동안 광산의 몬스터들이 너를 방해할 걸세. 조심해야 한다네.*광산의 몬스터들을 처치해 줄 수 있겠나? 그들이 너의 탐색을 방해하지 못하게 말이야.*잘 해냈군! 이제 몬스터들이 너의 탐색을 방해하지 못할 걸세.</t>
+  </si>
+  <si>
+    <t>MT3</t>
+  </si>
+  <si>
+    <t>용의 눈물의 진실</t>
+  </si>
+  <si>
+    <t>연구자 엘린</t>
+  </si>
+  <si>
+    <t>용의 눈물을 찾아냈군. 이제 이 보석의 진실을 밝혀낼 때가 왔어.*이 보석을 연구자 엘린에게 가져다줘. 그녀라면 이 보석의 비밀을 풀 수 있을 거야.*연구자 엘린에게 보석을 전달했나? 이제 곧 진실이 밝혀지겠군.</t>
+  </si>
+  <si>
+    <t>EF1</t>
+  </si>
+  <si>
+    <t>보석의 비밀</t>
+  </si>
+  <si>
+    <t>이 보석을 토마스로부터 받았구나. 잠시만 기다려봐, 분석해볼게.*보석의 분석이 끝났어. 이 보석은 실제로 용의 눈물이 아니야. 하지만 매우 희귀한 보석이긴 해. 토마스에게 이 소식을 전해줘.*토마스에게 보석의 진실을 전달했어. 그는 분명히 실망할 거야. 하지만 네가 가져다준 보석 덕분에 새로운 발견을 했으니 감사하다고 전해.</t>
+  </si>
+  <si>
+    <t>SFM723</t>
+  </si>
+  <si>
+    <t>어둠의 기운을 찾아서</t>
+  </si>
+  <si>
+    <t>엘리온 왕국은 오랜 평화 끝에 갑작스러운 재앙에 둘러싸였어. 성역의 나무가 파괴되며 몬스터들이 차원을 넘어 우리의 세계로 침입했다. 네가 예언 속의 영웅인지 시험해볼 필요가 있어.*어둠의 추종자들을 처치하고 그들이 드리운 어둠의 기운을 조사해봐. 그들의 움직임이 말해주겠지.*잘했다! 이로써 네가 영웅이라는 첫번째 증명을 해냈다. 하지만 시련은 이제부터야.</t>
+  </si>
+  <si>
+    <t>스토리를 플레이어가 알 수 있도록 퀘스트 작성. 최소 5개 이상의 퀘스트를 만들고 각 퀘스트의 타입은 알아서 설정.</t>
+  </si>
+  <si>
+    <t>Token : 1279 
+ Cost : 0.01279$</t>
+  </si>
+  <si>
+    <t>Token : 1417 
+ Cost : 0.04251$</t>
+  </si>
+  <si>
+    <t>Token : 2696 
+ Cost : 0.05530$</t>
+  </si>
+  <si>
+    <t>36.8S</t>
+  </si>
+  <si>
+    <t>SDG515</t>
+  </si>
+  <si>
+    <t>성스러운 씨앗 찾기</t>
+  </si>
+  <si>
+    <t>성스러운 씨앗</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>어둠을 물리친 네 힘이 실제로 예언 속의 영웅과 같다면, 성스러운 씨앗을 찾아 새로운 성역의 나무를 심는 것이 가능할 거야.*왕국 곳곳에 남아있을 성스러운 씨앗을 찾아다녀봐. 다소 위험할 수 있으니 조심하길 바란다.*성스러운 씨앗을 찾았군! 이제 이 씨앗들로 새로운 시작을 준비할 수 있어. 잘 해냈어, 모험가.</t>
+  </si>
+  <si>
+    <t>SDD554</t>
+  </si>
+  <si>
+    <t>엘리온의 현자</t>
+  </si>
+  <si>
+    <t>성스러운 씨앗을 찾는 동안, 나는 어둠의 근원을 찾는 조사를 진행했어. 하지만 내 혼자서는 해결하기 힘든 문제들이 생겼지.*이 메시지를 엘리온의 현자에게 전해줘. 그는 어둠의 서약을 풀릴 수 있는 방법을 아는 유일한 사람이야.*메시지를 무사히 전달했구나. 현자가 무엇을 말할지, 그의 지혜가 우리의 다음 단계를 결정지을 거야.</t>
+  </si>
+  <si>
+    <t>SFF901</t>
+  </si>
+  <si>
+    <t>어둠의 근원과의 마주함</t>
+  </si>
+  <si>
+    <t>어둠의 예언자</t>
+  </si>
+  <si>
+    <t>세리안으로부터 네가 전달한 메시지를 받았다. 이제 어둠의 근원, 어둠의 예언자를 찾아 그를 물리쳐야 한다.*어둠의 예언자는 봉인된 고대 유적의 가장 깊은 곳에서 발견될 것이다. 그는 어둠의 서약을 풀리게 한 장본인이야.*어둠의 예언자를 물리쳤다니, 정말 대단해! 이제 엘리온 왕국에 평화가 다시 찾아올 것이다. 네가 진정한 영웅임이 증명되었어.</t>
+  </si>
+  <si>
+    <t>SFF480</t>
+  </si>
+  <si>
+    <t>새로운 시작</t>
+  </si>
+  <si>
+    <t>어둠의 예언자를 물리침으로써 어둠의 서약 문제를 해결했다. 이제 성스러운 씨앗으로 새로운 성역의 나무를 심어 엘리온에 새로운 희망을 심어줄 시간이야.*모든 것이 끝났다, 영웅이여. 너의 용기와 힘으로 엘리온은 다시 번영할 것이다.*정말 고맙다, 영웅이여. 네가 아니었다면 우리는 결코 이 위기를 극복하지 못했을 것이다. 엘리온 왕국의 모두가 너를 영원히 기억할 거야.</t>
+  </si>
+  <si>
+    <t>T0008</t>
+  </si>
+  <si>
+    <t>광산의 소문 탐색</t>
+  </si>
+  <si>
+    <t>용의 눈물 조사 보고서</t>
+  </si>
+  <si>
+    <t>여행자여, 최근 광산에서 놀라운 소문이 들려왔지. 말로만 듣던 '용의 눈물'이 발견되었다고 하니 말이야.*이 소문이 사실인지 확인해줄 수 있겠나? 광산 깊숙한 곳으로 가서 직접 조사해 보고해 줘. 하지만 조심해야 하네. 최근에 몬스터들이 유독 사나워져서 위험할 걸세.*무사히 돌아와서 조사 보고서를 전해주면 대가를 지불하겠네.</t>
+  </si>
+  <si>
+    <t>스토리를 플레이어가 알 수 있도록 퀘스트 작성. 최소 3개 이상의 퀘스트를 만들고 각 퀘스트 타입은 알아서 지정.</t>
+  </si>
+  <si>
+    <t>Token : 1098 
+ Cost : 0.01098$</t>
+  </si>
+  <si>
+    <t>Token : 861 
+ Cost : 0.02583$</t>
+  </si>
+  <si>
+    <t>Token : 1959 
+ Cost : 0.03681$</t>
+  </si>
+  <si>
+    <t>23.7S</t>
+  </si>
+  <si>
+    <t>TF002</t>
+  </si>
+  <si>
+    <t>광산의 위협 제거</t>
+  </si>
+  <si>
+    <t>검은 점멸거미/옹이진 둔더</t>
+  </si>
+  <si>
+    <t>10/5</t>
+  </si>
+  <si>
+    <t>그 사이 나는 조사 보고서를 검토해보았네. 안타깝게도 우리가 찾던 보석은 아니었지만, 광산의 안전을 위해서라도 몬스터들을 정리해야 할 것 같군.*광산 깊숙한 곳에서 활동하는 '검은 점멸거미'와 '옹이진 둔더'를 처리해줄 수 있겠나? 몬스터들 때문에 광부들이 제대로 작업을 못 하고 있으니 말이야.*이 몬스터들을 처리하고 돌아오면, 추가로 보상을 주겠네.</t>
+  </si>
+  <si>
+    <t>T0005</t>
+  </si>
+  <si>
+    <t>광산의 평화</t>
+  </si>
+  <si>
+    <t>믿을 수 있는 용사여, 고마워. 너 덕분에 광산은 이제 훨씬 더 안전해졌네. 용의 눈물을 찾지 못했지만, 네가 보여준 용기와 헌신으로 우리 모두는 소중한 것을 얻었어.*설령 소문이 사실이 아니었다 해도, 네 행동 하나하나가 이 지역 사람들에게 큰 힘이 됐음을 잊지 말게.*이제 훌륭히 임무를 마쳤으니, 너에게 약속한 보상을 드리겠네. 앞으로도 우리 지역의 평화를 위해 함께 싸워주길 바라네.</t>
   </si>
 </sst>
 </file>
@@ -142,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +718,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -491,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562F8D9-5611-4BF4-8951-E6F12A422DC7}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -504,10 +1071,10 @@
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="50.75" customWidth="1"/>
     <col min="10" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="27.25" customWidth="1"/>
     <col min="13" max="13" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -530,7 +1097,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -549,11 +1116,1069 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+    <row r="2" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="132" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" t="s">
+        <v>178</v>
+      </c>
+      <c r="L27" t="s">
+        <v>179</v>
+      </c>
+      <c r="M27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" t="s">
+        <v>179</v>
+      </c>
+      <c r="M28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E810568B-E8C7-4B91-BE60-9C0A7F81059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB2298-D1C3-487D-8350-E814D8E3B81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{17314F89-5D27-433D-AD0F-FB34A5D8E8EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1058,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562F8D9-5611-4BF4-8951-E6F12A422DC7}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1078,7 @@
     <col min="13" max="13" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,20 +1103,20 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1141,20 +1141,21 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1179,20 +1180,20 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1217,20 +1218,20 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="132" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1255,20 +1256,20 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1293,20 +1294,20 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>61</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>62</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1331,20 +1332,20 @@
       <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>71</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>72</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>73</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1369,20 +1370,20 @@
       <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>71</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>72</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>73</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1407,20 +1408,20 @@
       <c r="H9" t="s">
         <v>70</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>71</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>73</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1445,20 +1446,20 @@
       <c r="H10" t="s">
         <v>89</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>90</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>91</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>92</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1483,20 +1484,20 @@
       <c r="H11" t="s">
         <v>89</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>90</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>91</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>92</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1521,20 +1522,20 @@
       <c r="H12" t="s">
         <v>89</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>90</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>91</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>92</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1559,20 +1560,20 @@
       <c r="H13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>108</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>109</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>110</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -1597,20 +1598,20 @@
       <c r="H14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>108</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>109</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>110</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -1635,20 +1636,20 @@
       <c r="H15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>108</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>109</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>110</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -1673,20 +1674,20 @@
       <c r="H16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>108</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>109</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>110</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -1711,20 +1712,20 @@
       <c r="H17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>108</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>109</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>110</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1749,20 +1750,20 @@
       <c r="H18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>134</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>135</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>136</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -1787,20 +1788,20 @@
       <c r="H19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>134</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>135</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>136</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -1825,20 +1826,20 @@
       <c r="H20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>134</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>135</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>136</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -1863,20 +1864,20 @@
       <c r="H21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>134</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>135</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>136</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -1901,20 +1902,20 @@
       <c r="H22" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>153</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>154</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>155</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -1939,20 +1940,20 @@
       <c r="H23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>153</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>154</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>155</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -1977,20 +1978,20 @@
       <c r="H24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>153</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>154</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>155</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -2015,20 +2016,20 @@
       <c r="H25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>153</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>154</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>155</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>169</v>
       </c>
@@ -2053,20 +2054,20 @@
       <c r="H26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>153</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>154</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>155</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -2091,20 +2092,20 @@
       <c r="H27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>177</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>178</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>179</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>181</v>
       </c>
@@ -2129,20 +2130,20 @@
       <c r="H28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>177</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>178</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>179</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>186</v>
       </c>
@@ -2167,16 +2168,16 @@
       <c r="H29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>177</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>178</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>179</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>180</v>
       </c>
     </row>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DE3BB-BF76-4227-A3C2-347A8C5BF10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD32FEA0-C022-438A-9C75-F0D4E3E8684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,6 +72,51 @@
   </si>
   <si>
     <t>GenerateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+  </si>
+  <si>
+    <t>화염의 위협, 파이어보어 처치</t>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>미첼</t>
+  </si>
+  <si>
+    <t>파이어보어</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Token : 873 
+ Cost : 0.00873$</t>
+  </si>
+  <si>
+    <t>Token : 328 
+ Cost : 0.00984$</t>
+  </si>
+  <si>
+    <t>Token : 1201 
+ Cost : 0.01857$</t>
+  </si>
+  <si>
+    <t>13.3S</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "모험가님, 안녕하세요? 저는 찰리 중사의 아내 미첼이에요.*요즘 숲 속에서 파이어보어들이 난동을 부리고 있다고 해요.*이대로 두면 마을에까지 피해가 갈 수 있어요.*당신이라면 충분히 해낼 수 있을 것 같아요.*부탁드려도 될까요?",
+  "OnAccept": "감사합니다! 마을 사람들을 위해 용기를 내주셔서 정말 감사해요.",
+  "OnRefuse": "아, 그렇군요... 혹시 마음이 바뀌면 다시 말씀해주세요.",
+  "OnProcess": "아직 파이어보어를 다 처리하지 못했나요?*마을 사람들을 위해 조금만 더 힘내주세요."
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -161,13 +206,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -451,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -511,6 +559,44 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:14" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -3,22 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD32FEA0-C022-438A-9C75-F0D4E3E8684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -27,103 +21,104 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>QuestID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scripts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InputCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutputCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenerateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0001</t>
-  </si>
-  <si>
-    <t>화염의 위협, 파이어보어 처치</t>
-  </si>
-  <si>
-    <t>Fight</t>
-  </si>
-  <si>
-    <t>미첼</t>
-  </si>
-  <si>
-    <t>파이어보어</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Token : 873 
- Cost : 0.00873$</t>
-  </si>
-  <si>
-    <t>Token : 328 
- Cost : 0.00984$</t>
-  </si>
-  <si>
-    <t>Token : 1201 
- Cost : 0.01857$</t>
-  </si>
-  <si>
-    <t>13.3S</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "모험가님, 안녕하세요? 저는 찰리 중사의 아내 미첼이에요.*요즘 숲 속에서 파이어보어들이 난동을 부리고 있다고 해요.*이대로 두면 마을에까지 피해가 갈 수 있어요.*당신이라면 충분히 해낼 수 있을 것 같아요.*부탁드려도 될까요?",
-  "OnAccept": "감사합니다! 마을 사람들을 위해 용기를 내주셔서 정말 감사해요.",
-  "OnRefuse": "아, 그렇군요... 혹시 마음이 바뀌면 다시 말씀해주세요.",
-  "OnProcess": "아직 파이어보어를 다 처리하지 못했나요?*마을 사람들을 위해 조금만 더 힘내주세요."
+    <t xml:space="preserve">QuestID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">InputCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OutputCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GenerateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MFS001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파이어보어 처치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미첼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파이어보어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "OnStart": "이 지역을 너무나도 고통스럽게 만드는 파이어보어들이 다시 나타났어요.* 이곳의 평화를 되찾기 위해선 강력한 모험가님의 힘이 필요해요.* 파이어보어들은 우리 마을 근처 숲에서 주로 발견되고 있어요.* 그들이 휴식이나 먹이 활동을 할 때 특히 조심해야 해요.* 모험가님, 저희 마을을 위해 그 파이어보어들을 처치해 주시겠어요?",
+  "OnAccept": "고맙습니다! 저는 모험가님이 성공하리라 믿어요.",
+  "OnRefuse": "그렇군요, 무척이나 실망스럽습니다만, 모험가님의 결정을 존중할게요.",
+  "OnProcess": "파이어보어들이 아직도 우리 마을을 위협하고 있어요. 힘내세요!",
+  "OnClear": "정말 대단하세요! 이제 우리 마을도 다시 평화를 되찾을 수 있겠어요. 진심으로 감사드립니다."
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Token : 914 
+ Cost : 0.00914$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token : 423 
+ Cost : 0.01269$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token : 1337 
+ Cost : 0.02183$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,11 +221,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,44 +554,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="247.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t xml:space="preserve">QuestID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,6 +112,90 @@
   </si>
   <si>
     <t xml:space="preserve">17.3S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">베이스 캠프 주변의 변이체 청소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">찰리중령</t>
+  </si>
+  <si>
+    <t xml:space="preserve">변이체1호</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "OnStart": "이곳은 이제 막 건설하고 있는 베이스 캠프야. * 우리의 안전을 위해서는 주변의 변이체를 청소하는 것이 급선무지. * 네가 여기까지 온 걸 보면 어느 정도 싸울 줄 안다고 보는데, 어때? * 주변에 변이체1호가 10마리 정도 있는 것으로 확인됐어. * 이들을 모두 처치해줄 수 있겠어?",
+  "OnAccept": "좋아, 그럼 일을 시작해보자.",
+  "OnRefuse": "이런 중요한 일조차 거부한다면, 여기에 있을 이유가 없겠지.",
+  "OnProcess": "아직 변이체들이 남아 있는 것 같은데... 다시 확인해볼래?",
+  "OnClear": "변이체들을 모두 처리했군. 생각보다 믿을 만하잖아?"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연계되는 3개의 퀘스트 생성. 퀘스트 타입은 차례대로 전투, 얻어오기, 전투로 해줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token : 1331 
+ Cost : 0.01331$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token : 1109 
+ Cost : 0.03327$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token : 2440 
+ Cost : 0.04658$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">필요한 보급품 회수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">버려진 탄약 상자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "OnStart": "좋아, 변이체 청소는 잘 마치긴 했지만, 아직 해야 할 일이 남았어. * 이 베이스 캠프를 지키기 위해선 충분한 보급품이 필요해. * 내 정보에 의하면 서쪽 D1 구역에 버려진 탄약 상자가 있다고 해. * 탄약 상자 3개를 찾아다 줄 수 있겠어?",
+  "OnAccept": "확인했어. 믿고 기다리겠어.",
+  "OnRefuse": "이 정도 일도 못맡긴다면, 다른 무언가를 부탁할 수도 없겠지.",
+  "OnProcess": "탄약 상자, 찾고 있는 거 맞지? 아직 더 찾아야 한다고.",
+  "OnClear": "잘 되었군. 이 탄약들이면 일단은 우리도 숨통이 트이겠어."
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">베이스 캠프의 새로운 위협</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스크리머</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "OnStart": "보급품 회수도 잘 마쳤군. 하지만, 기뻐할 시간은 아직 이르다. * 최근 '스크리머'라는 새로운 종류의 변이체가 발견됐어. * 이 녀석들은 몸은 약하지만 매우 빠르고 시야도 넓어서 매복에 적합해. * 베이스 캠프 주변에 5마리가 출몰한 것으로 파악되니, 이들을 제거해줄 수 있겠어?",
+  "OnAccept": "네가 다시 한번 증명해주길 바라.",
+  "OnRefuse": "네가 해낼 수 없다면, 다른 방법을 찾아봐야겠어.",
+  "OnProcess": "스크리머들이 아직 돌아다니고 있어. 조심해야 해.",
+  "OnClear": "스크리머 제거 완료, 예상대로 잘 해냈어."
+}</t>
   </si>
 </sst>
 </file>
@@ -494,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
@@ -596,6 +680,121 @@
       </c>
     </row>
     <row r="4"/>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -3,133 +3,100 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143CC746-E435-4583-9084-0EABD9051D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">QuestID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">InputCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OutputCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GenerateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MFS001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">파이어보어 처치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미첼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">파이어보어</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "OnStart": "이 지역을 너무나도 고통스럽게 만드는 파이어보어들이 다시 나타났어요.* 이곳의 평화를 되찾기 위해선 강력한 모험가님의 힘이 필요해요.* 파이어보어들은 우리 마을 근처 숲에서 주로 발견되고 있어요.* 그들이 휴식이나 먹이 활동을 할 때 특히 조심해야 해요.* 모험가님, 저희 마을을 위해 그 파이어보어들을 처치해 주시겠어요?",
-  "OnAccept": "고맙습니다! 저는 모험가님이 성공하리라 믿어요.",
-  "OnRefuse": "그렇군요, 무척이나 실망스럽습니다만, 모험가님의 결정을 존중할게요.",
-  "OnProcess": "파이어보어들이 아직도 우리 마을을 위협하고 있어요. 힘내세요!",
-  "OnClear": "정말 대단하세요! 이제 우리 마을도 다시 평화를 되찾을 수 있겠어요. 진심으로 감사드립니다."
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Token : 914 
- Cost : 0.00914$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token : 423 
- Cost : 0.01269$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token : 1337 
- Cost : 0.02183$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">베이스 캠프 주변의 변이체 청소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">찰리중령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">변이체1호</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+  <si>
+    <t>QuestID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scripts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutputCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenerateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CM0001</t>
+  </si>
+  <si>
+    <t>베이스 캠프 주변의 변이체 청소</t>
+  </si>
+  <si>
+    <t>찰리중령</t>
+  </si>
+  <si>
+    <t>변이체1호</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>{
   "OnStart": "이곳은 이제 막 건설하고 있는 베이스 캠프야. * 우리의 안전을 위해서는 주변의 변이체를 청소하는 것이 급선무지. * 네가 여기까지 온 걸 보면 어느 정도 싸울 줄 안다고 보는데, 어때? * 주변에 변이체1호가 10마리 정도 있는 것으로 확인됐어. * 이들을 모두 처치해줄 수 있겠어?",
   "OnAccept": "좋아, 그럼 일을 시작해보자.",
   "OnRefuse": "이런 중요한 일조차 거부한다면, 여기에 있을 이유가 없겠지.",
@@ -138,40 +105,40 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">연계되는 3개의 퀘스트 생성. 퀘스트 타입은 차례대로 전투, 얻어오기, 전투로 해줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token : 1331 
+    <t>연계되는 3개의 퀘스트 생성. 퀘스트 타입은 차례대로 전투, 얻어오기, 전투로 해줘.</t>
+  </si>
+  <si>
+    <t>Token : 1331 
  Cost : 0.01331$</t>
   </si>
   <si>
-    <t xml:space="preserve">Token : 1109 
+    <t>Token : 1109 
  Cost : 0.03327$</t>
   </si>
   <si>
-    <t xml:space="preserve">Token : 2440 
+    <t>Token : 2440 
  Cost : 0.04658$</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">필요한 보급품 회수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">버려진 탄약 상자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>35.6S</t>
+  </si>
+  <si>
+    <t>CM0002</t>
+  </si>
+  <si>
+    <t>필요한 보급품 회수</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>버려진 탄약 상자</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>{
   "OnStart": "좋아, 변이체 청소는 잘 마치긴 했지만, 아직 해야 할 일이 남았어. * 이 베이스 캠프를 지키기 위해선 충분한 보급품이 필요해. * 내 정보에 의하면 서쪽 D1 구역에 버려진 탄약 상자가 있다고 해. * 탄약 상자 3개를 찾아다 줄 수 있겠어?",
   "OnAccept": "확인했어. 믿고 기다리겠어.",
   "OnRefuse": "이 정도 일도 못맡긴다면, 다른 무언가를 부탁할 수도 없겠지.",
@@ -180,16 +147,16 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">CM0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">베이스 캠프의 새로운 위협</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스크리머</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>CM0003</t>
+  </si>
+  <si>
+    <t>베이스 캠프의 새로운 위협</t>
+  </si>
+  <si>
+    <t>스크리머</t>
+  </si>
+  <si>
+    <t>{
   "OnStart": "보급품 회수도 잘 마쳤군. 하지만, 기뻐할 시간은 아직 이르다. * 최근 '스크리머'라는 새로운 종류의 변이체가 발견됐어. * 이 녀석들은 몸은 약하지만 매우 빠르고 시야도 넓어서 매복에 적합해. * 베이스 캠프 주변에 5마리가 출몰한 것으로 파악되니, 이들을 제거해줄 수 있겠어?",
   "OnAccept": "네가 다시 한번 증명해주길 바라.",
   "OnRefuse": "네가 해낼 수 없다면, 다른 방법을 찾아봐야겠어.",
@@ -197,12 +164,88 @@
   "OnClear": "스크리머 제거 완료, 예상대로 잘 해냈어."
 }</t>
   </si>
+  <si>
+    <t>RG1234</t>
+  </si>
+  <si>
+    <t>찰리 중령을 위한 방독면 필터 구하기</t>
+  </si>
+  <si>
+    <t>리아</t>
+  </si>
+  <si>
+    <t>방독면 필터</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "아, 언니! 정말 다행이야. 나 말이야, 정말 큰일 날 뻔했어.*찰리 중령이 사용하시던 방독면 필터를 청소하다가 망가뜨리고 말았거든.*서쪽 D1 구역에서 새 필터를 구할 수 있다고 들었는데... 혼자 가기엔 너무 위험해.*언니, 혹시 나 대신 방독면 필터를 구해다 줄 수 있을까?*중령님께서 안전하게 임무를 수행할 수 있도록 도와주고 싶어.",
+  "OnAccept": "정말? 고마워, 언니! 나 정말 다행이야. 빠르게 돌아와줘!",
+  "OnRefuse": "그렇구나... 언니도 분명 중요한 일이 많겠지. 미안해, 나 혼자 해볼게.",
+  "OnProcess": "언니, 방독면 필터 찾는 건 잘 되가? 안전하게 다녀와.",
+  "OnClear": "이건... 정말 방독면 필터야! 정말 고마워, 언니! 이제 중령님도 안전할 거야."
+}</t>
+  </si>
+  <si>
+    <t>아이템을 얻어온 뒤 전달하는 연계 퀘스트 생성. 찰리 중령의 방독면을 청소하다 망가트려 노심초사 하고 있다.</t>
+  </si>
+  <si>
+    <t>Token : 1097 
+ Cost : 0.01097$</t>
+  </si>
+  <si>
+    <t>Token : 1073 
+ Cost : 0.03219$</t>
+  </si>
+  <si>
+    <t>Token : 2170 
+ Cost : 0.04316$</t>
+  </si>
+  <si>
+    <t>45.6S</t>
+  </si>
+  <si>
+    <t>RC5678</t>
+  </si>
+  <si>
+    <t>찰리 중령에게 방독면 필터 전달하기</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "정말 고마워, 언니. 이 방독면 필터를 가지고 찰리 중령에게 직접 전달해 줄 수 있을까?*중령님께 내가 망가트린 걸 알려줄 용기가 나지 않아서...*언니가 전달해주면 중령님도 좀 더 이해해주시지 않을까 해서.*제발, 이 부탁만 더 들어줘. 내가 언니에게 정말 큰 은혜를 입을 것 같아.",
+  "OnAccept": "정말 고마워! 찰리 중령은 베이스 캠프 안에 있어. 조심해서 가줘.",
+  "OnRefuse": "그래, 언니도 바쁘겠지. 나 혼자 어떻게든 해볼게...",
+  "OnProcess": "아직 방독면 필터를 찰리 중령에게 전달하지 못했어? 시간이 없어, 언니!",
+  "OnClear": "아, 언니! 찰리 중령에게 필터를 전달했구나. 정말 고마워. 나도 용기를 내봐야겠어."
+}</t>
+  </si>
+  <si>
+    <t>RF9876</t>
+  </si>
+  <si>
+    <t>방독면 필터 전달 완료</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "그래, 리아가 뭔가를 망가뜨렸다며?*...필터를 새로 구해왔다고?*하아, 그 아이도 참, 날 생각해서 그랬겠지.*네가 대신 전해주다니, 고마워. 이제 임무에 지장 없겠어."
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,11 +348,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -577,11 +620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,163 +681,234 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G2" s="3"/>
+    <row r="2" spans="1:14" ht="264" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:14" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="297" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="297" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>23</v>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>34</v>
+    <row r="7" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143CC746-E435-4583-9084-0EABD9051D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA143AEA-639E-4A3B-A398-276079C60F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="4515" windowWidth="28800" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,6 +94,135 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>연계되는 3개의 퀘스트 생성. 퀘스트 타입은 차례대로 전투, 얻어오기, 전투로 해줘.</t>
+  </si>
+  <si>
+    <t>Token : 1331 
+ Cost : 0.01331$</t>
+  </si>
+  <si>
+    <t>Token : 1109 
+ Cost : 0.03327$</t>
+  </si>
+  <si>
+    <t>Token : 2440 
+ Cost : 0.04658$</t>
+  </si>
+  <si>
+    <t>35.6S</t>
+  </si>
+  <si>
+    <t>CM0002</t>
+  </si>
+  <si>
+    <t>필요한 보급품 회수</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>버려진 탄약 상자</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CM0003</t>
+  </si>
+  <si>
+    <t>베이스 캠프의 새로운 위협</t>
+  </si>
+  <si>
+    <t>스크리머</t>
+  </si>
+  <si>
+    <t>RG1234</t>
+  </si>
+  <si>
+    <t>찰리 중령을 위한 방독면 필터 구하기</t>
+  </si>
+  <si>
+    <t>리아</t>
+  </si>
+  <si>
+    <t>방독면 필터</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "아, 언니! 정말 다행이야. 나 말이야, 정말 큰일 날 뻔했어.*찰리 중령이 사용하시던 방독면 필터를 청소하다가 망가뜨리고 말았거든.*서쪽 D1 구역에서 새 필터를 구할 수 있다고 들었는데... 혼자 가기엔 너무 위험해.*언니, 혹시 나 대신 방독면 필터를 구해다 줄 수 있을까?*중령님께서 안전하게 임무를 수행할 수 있도록 도와주고 싶어.",
+  "OnAccept": "정말? 고마워, 언니! 나 정말 다행이야. 빠르게 돌아와줘!",
+  "OnRefuse": "그렇구나... 언니도 분명 중요한 일이 많겠지. 미안해, 나 혼자 해볼게.",
+  "OnProcess": "언니, 방독면 필터 찾는 건 잘 되가? 안전하게 다녀와.",
+  "OnClear": "이건... 정말 방독면 필터야! 정말 고마워, 언니! 이제 중령님도 안전할 거야."
+}</t>
+  </si>
+  <si>
+    <t>아이템을 얻어온 뒤 전달하는 연계 퀘스트 생성. 찰리 중령의 방독면을 청소하다 망가트려 노심초사 하고 있다.</t>
+  </si>
+  <si>
+    <t>Token : 1097 
+ Cost : 0.01097$</t>
+  </si>
+  <si>
+    <t>Token : 1073 
+ Cost : 0.03219$</t>
+  </si>
+  <si>
+    <t>Token : 2170 
+ Cost : 0.04316$</t>
+  </si>
+  <si>
+    <t>45.6S</t>
+  </si>
+  <si>
+    <t>RC5678</t>
+  </si>
+  <si>
+    <t>찰리 중령에게 방독면 필터 전달하기</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "정말 고마워, 언니. 이 방독면 필터를 가지고 찰리 중령에게 직접 전달해 줄 수 있을까?*중령님께 내가 망가트린 걸 알려줄 용기가 나지 않아서...*언니가 전달해주면 중령님도 좀 더 이해해주시지 않을까 해서.*제발, 이 부탁만 더 들어줘. 내가 언니에게 정말 큰 은혜를 입을 것 같아.",
+  "OnAccept": "정말 고마워! 찰리 중령은 베이스 캠프 안에 있어. 조심해서 가줘.",
+  "OnRefuse": "그래, 언니도 바쁘겠지. 나 혼자 어떻게든 해볼게...",
+  "OnProcess": "아직 방독면 필터를 찰리 중령에게 전달하지 못했어? 시간이 없어, 언니!",
+  "OnClear": "아, 언니! 찰리 중령에게 필터를 전달했구나. 정말 고마워. 나도 용기를 내봐야겠어."
+}</t>
+  </si>
+  <si>
+    <t>RF9876</t>
+  </si>
+  <si>
+    <t>방독면 필터 전달 완료</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "그래, 리아가 뭔가를 망가뜨렸다며?*...필터를 새로 구해왔다고?*하아, 그 아이도 참, 날 생각해서 그랬겠지.*네가 대신 전해주다니, 고마워. 이제 임무에 지장 없겠어."
+}</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "보급품 회수도 잘 마쳤군. 하지만, 기뻐할 시간은 아직 이르다. * 최근 '스크리머'라는 새로운 종류의 변이체가 발견됐어. * 이 녀석들은 몸은 약하지만 매우 빠르고 시야도 넓어서 매복에 적합해. * 베이스 캠프 주변에 5마리가 출몰한 것으로 파악되니, 이들을 제거해줄 수 있겠어?",
+  "OnAccept": "네가 다시 한번 증명해주길 바라.",
+  "OnRefuse": "네가 해낼 수 없다면, 다른 방법을 찾아봐야겠어.",
+  "OnProcess": "스크리머들이 아직 돌아다니고 있어. 조심해야 해.",
+  "OnClear": "스크리머 제거 완료, 예상대로 잘 해냈어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -103,39 +232,7 @@
   "OnProcess": "아직 변이체들이 남아 있는 것 같은데... 다시 확인해볼래?",
   "OnClear": "변이체들을 모두 처리했군. 생각보다 믿을 만하잖아?"
 }</t>
-  </si>
-  <si>
-    <t>연계되는 3개의 퀘스트 생성. 퀘스트 타입은 차례대로 전투, 얻어오기, 전투로 해줘.</t>
-  </si>
-  <si>
-    <t>Token : 1331 
- Cost : 0.01331$</t>
-  </si>
-  <si>
-    <t>Token : 1109 
- Cost : 0.03327$</t>
-  </si>
-  <si>
-    <t>Token : 2440 
- Cost : 0.04658$</t>
-  </si>
-  <si>
-    <t>35.6S</t>
-  </si>
-  <si>
-    <t>CM0002</t>
-  </si>
-  <si>
-    <t>필요한 보급품 회수</t>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>버려진 탄약 상자</t>
-  </si>
-  <si>
-    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -145,101 +242,65 @@
   "OnProcess": "탄약 상자, 찾고 있는 거 맞지? 아직 더 찾아야 한다고.",
   "OnClear": "잘 되었군. 이 탄약들이면 일단은 우리도 숨통이 트이겠어."
 }</t>
-  </si>
-  <si>
-    <t>CM0003</t>
-  </si>
-  <si>
-    <t>베이스 캠프의 새로운 위협</t>
-  </si>
-  <si>
-    <t>스크리머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계되는 3개의 퀘스트 생성. 퀘스트 타입은 차례대로 전투, 얻어오기, 전투로 해줘.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이체1호 제거 작전</t>
+  </si>
+  <si>
+    <t>Token : 1446 
+ Cost : 0.01446$</t>
+  </si>
+  <si>
+    <t>Token : 1140 
+ Cost : 0.03420$</t>
+  </si>
+  <si>
+    <t>Token : 2586 
+ Cost : 0.04866$</t>
+  </si>
+  <si>
+    <t>44.1S</t>
+  </si>
+  <si>
+    <t>버려진 탄약 상자 수집</t>
+  </si>
+  <si>
+    <t>스크리머 제거 작전</t>
   </si>
   <si>
     <t>{
-  "OnStart": "보급품 회수도 잘 마쳤군. 하지만, 기뻐할 시간은 아직 이르다. * 최근 '스크리머'라는 새로운 종류의 변이체가 발견됐어. * 이 녀석들은 몸은 약하지만 매우 빠르고 시야도 넓어서 매복에 적합해. * 베이스 캠프 주변에 5마리가 출몰한 것으로 파악되니, 이들을 제거해줄 수 있겠어?",
-  "OnAccept": "네가 다시 한번 증명해주길 바라.",
-  "OnRefuse": "네가 해낼 수 없다면, 다른 방법을 찾아봐야겠어.",
-  "OnProcess": "스크리머들이 아직 돌아다니고 있어. 조심해야 해.",
-  "OnClear": "스크리머 제거 완료, 예상대로 잘 해냈어."
+  "OnStart": "용병, 네가 여기 있는 이유를 알고 있겠지.*이 지역에는 아직도 변이체들이 서식하고 있어.*특히 변이체1호는 변이된지 얼마 안되어 위험도가 낮지만,*수가 많아서 문제야. 이대로 두면 우리의 안전을 보장할 수 없어.*10마리만 처리해줘. 이건 네가 할 수 있는 일이지?",
+  "OnAccept": "좋아, 그럼 빠르게 처리해주길 바란다.",
+  "OnRefuse": "용병이라면서 이런 간단한 일도 못 해? 다시 생각해봐.",
+  "OnProcess": "아직도 처리 못했나? 시간이 없다고.",
+  "OnClear": "잘했어, 용병. 이제 이 지역이 좀 더 안전해졌군."
 }</t>
-  </si>
-  <si>
-    <t>RG1234</t>
-  </si>
-  <si>
-    <t>찰리 중령을 위한 방독면 필터 구하기</t>
-  </si>
-  <si>
-    <t>리아</t>
-  </si>
-  <si>
-    <t>방독면 필터</t>
-  </si>
-  <si>
-    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-  "OnStart": "아, 언니! 정말 다행이야. 나 말이야, 정말 큰일 날 뻔했어.*찰리 중령이 사용하시던 방독면 필터를 청소하다가 망가뜨리고 말았거든.*서쪽 D1 구역에서 새 필터를 구할 수 있다고 들었는데... 혼자 가기엔 너무 위험해.*언니, 혹시 나 대신 방독면 필터를 구해다 줄 수 있을까?*중령님께서 안전하게 임무를 수행할 수 있도록 도와주고 싶어.",
-  "OnAccept": "정말? 고마워, 언니! 나 정말 다행이야. 빠르게 돌아와줘!",
-  "OnRefuse": "그렇구나... 언니도 분명 중요한 일이 많겠지. 미안해, 나 혼자 해볼게.",
-  "OnProcess": "언니, 방독면 필터 찾는 건 잘 되가? 안전하게 다녀와.",
-  "OnClear": "이건... 정말 방독면 필터야! 정말 고마워, 언니! 이제 중령님도 안전할 거야."
+  "OnStart": "이번 임무는 좀 다르다. 서쪽 D1 구역에 버려진 탄약 상자가 있다고 해.*우리에겐 그 탄약이 절실히 필요해. 변이체들과의 싸움에서 탄약은 생명과도 같으니까.*3개의 탄약 상자를 찾아와. 위험할 수 있으니 조심해야 해.*이건 너에게만 맡길 수 있는 일이야. 신뢰하니까 실망시키지 마.",
+  "OnAccept": "좋아, 조심히 다녀와. 기대하고 있겠다.",
+  "OnRefuse": "용병이라면서 이런 일조차 거부하다니, 실망이야.",
+  "OnProcess": "아직 탄약 상자를 찾지 못했나? 시간이 없어.",
+  "OnClear": "잘했어, 용병. 이 탄약 덕분에 우리는 더 오래 싸울 수 있을 거야."
 }</t>
-  </si>
-  <si>
-    <t>아이템을 얻어온 뒤 전달하는 연계 퀘스트 생성. 찰리 중령의 방독면을 청소하다 망가트려 노심초사 하고 있다.</t>
-  </si>
-  <si>
-    <t>Token : 1097 
- Cost : 0.01097$</t>
-  </si>
-  <si>
-    <t>Token : 1073 
- Cost : 0.03219$</t>
-  </si>
-  <si>
-    <t>Token : 2170 
- Cost : 0.04316$</t>
-  </si>
-  <si>
-    <t>45.6S</t>
-  </si>
-  <si>
-    <t>RC5678</t>
-  </si>
-  <si>
-    <t>찰리 중령에게 방독면 필터 전달하기</t>
-  </si>
-  <si>
-    <t>Deliver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-  "OnStart": "정말 고마워, 언니. 이 방독면 필터를 가지고 찰리 중령에게 직접 전달해 줄 수 있을까?*중령님께 내가 망가트린 걸 알려줄 용기가 나지 않아서...*언니가 전달해주면 중령님도 좀 더 이해해주시지 않을까 해서.*제발, 이 부탁만 더 들어줘. 내가 언니에게 정말 큰 은혜를 입을 것 같아.",
-  "OnAccept": "정말 고마워! 찰리 중령은 베이스 캠프 안에 있어. 조심해서 가줘.",
-  "OnRefuse": "그래, 언니도 바쁘겠지. 나 혼자 어떻게든 해볼게...",
-  "OnProcess": "아직 방독면 필터를 찰리 중령에게 전달하지 못했어? 시간이 없어, 언니!",
-  "OnClear": "아, 언니! 찰리 중령에게 필터를 전달했구나. 정말 고마워. 나도 용기를 내봐야겠어."
+  "OnStart": "이번 목표는 스크리머야. 몸은 약하지만 시야가 넓고 매우 빠르지.*이 녀석들 때문에 우리의 위치가 들킬 위험이 높아.*5마리만 제거해줘. 이건 네가 해낼 수 있는 일이야.*스크리머는 소리를 내며 다른 변이체들을 불러모으니 조심해야 해.*준비됐다면, 지금 바로 출발해.",
+  "OnAccept": "좋아, 조심하고. 스크리머들이 너를 노리고 있을 거야.",
+  "OnRefuse": "용병이라면서 이런 중요한 임무도 거부해? 다시 생각해.",
+  "OnProcess": "스크리머들이 아직도 남아있나? 빨리 처리해야 해.",
+  "OnClear": "잘했어, 용병. 이제 우리는 좀 더 안심하고 움직일 수 있겠어."
 }</t>
-  </si>
-  <si>
-    <t>RF9876</t>
-  </si>
-  <si>
-    <t>방독면 필터 전달 완료</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{
-  "OnClear": "그래, 리아가 뭔가를 망가뜨렸다며?*...필터를 새로 구해왔다고?*하아, 그 아이도 참, 날 생각해서 그랬겠지.*네가 대신 전해주다니, 고마워. 이제 임무에 지장 없겠어."
-}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -621,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,68 +762,68 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -771,142 +832,256 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="297" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="L5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="297" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
         <v>41</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>42</v>
       </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s">
-        <v>45</v>
+    </row>
+    <row r="8" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1EB760-91F5-49F6-A9AE-B4DE60AA5FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD676C11-E5D8-46A2-BC0E-B2B81DDBF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,6 +72,176 @@
   </si>
   <si>
     <t>GenerateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>찰리중령</t>
+  </si>
+  <si>
+    <t>변이체1호</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>버려진 탄약 상자 회수 작전</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>버려진 탄약 상자</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>스크리머</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CM0001</t>
+  </si>
+  <si>
+    <t>연계되는 3개의 퀘스트 생성. 각 퀘스트 타입은 전투,얻어오기,전투.</t>
+  </si>
+  <si>
+    <t>Token : 1393 
+ Cost : 0.01393$</t>
+  </si>
+  <si>
+    <t>CM0002</t>
+  </si>
+  <si>
+    <t>CM0003</t>
+  </si>
+  <si>
+    <t>베이스 캠프 주변의 변이체 청소</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "아, 드디어 왔나? 난 네가 여길 깨끗하게 청소해줄 사람이라고 들었다.*정체불명의 바이러스가 이 세상을 지옥으로 만들어 놨어. 바로 우리 발 아래, 이 베이스 캠프 주변도 예외는 아니지.*네가 만약 우리와 손을 잡고 싶다면, 기본적인 믿음부터 쌓아야 할 거야.*주변에 변이체1호가 몇 마리 보인다. 그 녀석들은 느리고 멍청해서 쉬운 편이야.*하지만 그들도 위험하니까 경계하는 걸 잊지 마.*네가 그들을 처리하고 돌아온다면, 우리 사이의 신뢰가 한층 더 쌓이겠지.*우리의 미래를 위해, 그리고 네가 여기서 살아남기 위해, 그 녀석들을 처리해 줘.",
+  "OnAccept": "좋아, 그럼 네가 우리에게 얼마나 도움이 될 수 있는지 보자고.",
+  "OnRefuse": "흥, 도움이 안 된다면 여길 떠나는 게 좋을 거야.",
+  "OnProcess": "변이체1호들을 다 처리했나? 아직 끝나지 않았다면 빨리 해치워.",
+  "OnClear": "잘했어. 이걸로 네가 우리 팀에 도움이 될 수 있다는 걸 증명했어."
+}</t>
+  </si>
+  <si>
+    <t>Token : 1463 
+ Cost : 0.04389$</t>
+  </si>
+  <si>
+    <t>Token : 2856 
+ Cost : 0.05782$</t>
+  </si>
+  <si>
+    <t>47.8S</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "네가 방금 보여준 실력, 정말 인상적이었어. 하지만 우리 앞에는 더 많은 도전이 기다리고 있지.*서쪽 D1 구역에 버려진 탄약 상자들이 있어. 우리에겐 그 탄약들이 절실히 필요하거든.*하지만 그 지역은 위험해. 변이체들만 있는 게 아니야.*그래도 네가 가져온다면, 우리는 그만큼 더 강해질 수 있어.*네가 가져올 수 있겠나?",
+  "OnAccept": "빠르고 조심스럽게 해. 우리가 기다리고 있을게.",
+  "OnRefuse": "알겠어, 너의 선택을 존중하지. 하지만 우리가 처한 상황을 다시 생각해봐.",
+  "OnProcess": "아직 탄약들을 찾지 못했나? 시간이 없어, 서둘러.",
+  "OnClear": "이걸로 우리는 한층 더 강해질 수 있어. 수고했어."
+}</t>
+  </si>
+  <si>
+    <t>스크리머 정리 작전</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "네가 우리에게 필요한 물자를 가져와 준 것에 대해 진심으로 고마워.*하지만 우리 앞에 놓인 문제는 여전히 많아. 특히 스크리머들 때문에 많은 문제를 겪고 있어.*그 녀석들은 시야가 넓고 매우 빠르기 때문에 우리에게 큰 위협이 되고 있거든.*네가 이전에 해냈던 것처럼 그들을 처리해 줄 수 있겠나?*이 작전이 성공한다면, 우리는 좀 더 안전하게 지역을 확장할 수 있을 거야.*우리의 미래를 위해, 한 번 더 네 힘을 보여줘.",
+  "OnAccept": "기대하고 있겠어. 조심하고, 스크리머들을 빠르게 처리해줘.",
+  "OnRefuse": "거절한다면, 너도 위험에 처할 거야. 다시 한번 생각해봐.",
+  "OnProcess": "스크리머들이 여전히 문제를 일으키고 있어. 얼마나 처리했나?",
+  "OnClear": "정말 대단해. 네 덕분에 우리는 더욱 안전해졌어."
+}</t>
+  </si>
+  <si>
+    <t>잃어버린 방독면 필터 찾기</t>
+  </si>
+  <si>
+    <t>리아</t>
+  </si>
+  <si>
+    <t>방독면 필터</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "언니, 잠깐 시간 괜찮아? *엄청나게 중요한 일인데, 정말 아무에게도 말 못 할 일이야. *아빠의 방독면 필터를... 망가뜨렸어. *아빠가 알게 되면 엄청나게 화를 낼 거야. *그래서 언니에게 부탁하고 싶은 게 있어. *서쪽 D1 구역에서 방독면 필터를 하나 구해 와 줄 수 있을까? *아빠에게 들키기 전에 빨리 해결해야 해.",
+  "OnAccept": "진짜? 도와줄 거야? 정말 고마워, 언니!",
+  "OnRefuse": "아... 그래. 언니도 바쁘니까... 다른 방법을 찾아볼게.",
+  "OnProcess": "아직 방독면 필터를 구하지 못한 거야? 아빠가 언제 방을 확인할지 몰라서 정말 불안해...",
+  "OnClear": "이거야! 정말 언니가 최고야! 이제 아빠 방독면을 괜찮게 만들 수 있을 거 같아."
+}</t>
+  </si>
+  <si>
+    <t>연계되는 퀘스트 생성. 청소 중에 아빠의 방독면을 망가트려 들킬까봐 노심초사 하고 있다. 방독면 필터를 얻어오는 퀘스트 하나, 방독면 필터를 전달하는 퀘스트 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1189 
+ Cost : 0.01189$</t>
+  </si>
+  <si>
+    <t>Token : 972 
+ Cost : 0.02916$</t>
+  </si>
+  <si>
+    <t>Token : 2161 
+ Cost : 0.04105$</t>
+  </si>
+  <si>
+    <t>37.4S</t>
+  </si>
+  <si>
+    <t>찰리 중령에게 방독면 필터 전달</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "언니가 방독면 필터를 찾아준 덕분에 거의 다 해결됐어. *이제 남은 건 아빠에게 이 필터를 전달하는 일이야. *근데 내가 직접 가서 줄 수가 없어... *아빠가 필터가 망가졌었다는 걸 알게 되면 정말 화를 낼 거야. *언니, 이걸 아빠인 찰리 중령에게 전달해 줄 수 있을까?",
+  "OnAccept": "언니가 해 준다니 정말 다행이야. 정말 고마워!",
+  "OnRefuse": "아... 그런가. 어떻게든 해야 하는데... 어렵네.",
+  "OnProcess": "아직 아빠한테 필터를 전달하지 못했어? 정말 빨리 해야 해...",
+  "OnClear": "언니 덕분에 아빠한테 안 들키고 필터를 전달할 수 있었어! 정말, 정말 고마워!"
+}</t>
+  </si>
+  <si>
+    <t>방독면 필터 전달 완료</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "방독면 필터를 전달해줘서 고맙군. 이 필터 덕분에 더 안전하게 임무를 수행할 수 있겠어."
+}</t>
+  </si>
+  <si>
+    <t>FJEIN7456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FJEIN7457</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FJEIN7458</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -161,13 +331,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -451,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -511,6 +684,234 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:14" ht="379.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="297" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD676C11-E5D8-46A2-BC0E-B2B81DDBF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109FCAB4-A679-4363-9915-99E9E203F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -244,12 +244,163 @@
     <t>FJEIN7458</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>서쪽 구역의 단서 찾기</t>
+  </si>
+  <si>
+    <t>연구일지</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이번 임무는, 우리 모두에게 중요할 수 있어.*서쪽 구역의 연구소에서... 무전이 끊어진 이유를 찾아야 해.*이건 단순한 사고가 아니야. 무언가... 큰일이 벌어진 거야.*연구소에서 작성된 연구 일지를 찾아와.*그 일지엔, 우리가 알아야 할 모든 정보가 들어있을 거야.*물론, 그 일지를 읽을 수 있는 사람은 많지 않겠지.*하지만 너라면, 할 수 있을 거라 믿어.*내 베이스 캠프에 위협이 될 수 있는 모든 것을 차단해야 해.",
+  "OnAccept": "그래, 이 임무를 수락해줘서 고맙다. 속히 돌아와.",
+  "OnRefuse": "실망이군. 하지만 너의 선택을 존중하지. 다시 생각이 바뀌면 찾아와.",
+  "OnProcess": "아직 연구 일지를 찾지 못했나? 시간이 없어.",
+  "OnClear": "훌륭해! 이 일지가 바로 필요한 것이었어. 이제 닉에게 가져가서 해독을 부탁해야겠어."
+}</t>
+  </si>
+  <si>
+    <t>연계되는 3개의 퀘스트 생성 . 퀘스트 타입은 스토리를 보고 판단해 만들어줘.</t>
+  </si>
+  <si>
+    <t>Token : 1650 
+ Cost : 0.01650$</t>
+  </si>
+  <si>
+    <t>Token : 1411 
+ Cost : 0.04233$</t>
+  </si>
+  <si>
+    <t>Token : 3061 
+ Cost : 0.05883$</t>
+  </si>
+  <si>
+    <t>51.6S</t>
+  </si>
+  <si>
+    <t>CN0002</t>
+  </si>
+  <si>
+    <t>암호화된 일지의 해독</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이 일지를 닉에게 가져가 줘. 그는 우리 캠프의 생존자 중 하나야.*군부대에서 암호 해독관으로 일하던 인재지.*이 일지가 무엇을 의미하는지, 그에게서 들을 수 있을 거야.*시간을 낭비하지 말고 바로 찾아가.*이 일은 우리 모두의 안녕과 직결된 문제일 수 있어.",
+  "OnAccept": "좋아, 닉에게 빠르게 이 일지를 전달해 줘.",
+  "OnRefuse": "너무 시간을 지체하면 안 돼. 다시 생각해보길 바래.",
+  "OnProcess": "닉을 찾지 못했나? 우리 캠프 내에서 그를 찾아봐.",
+  "OnClear": "일지를 닉에게 전달했군. 이제 그의 분석 결과를 기다려보자."
+}</t>
+  </si>
+  <si>
+    <t>CN0003</t>
+  </si>
+  <si>
+    <t>암호 일지의 해독 결과 받기</t>
+  </si>
+  <si>
+    <t>닉</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "연구 일지... 이건 충격적이야. 찰리 중령이 꼭 보아야 할 내용이 들어있어."
+}</t>
+  </si>
+  <si>
+    <t>CM0004</t>
+  </si>
+  <si>
+    <t>변이된 위협 제거하기</t>
+  </si>
+  <si>
+    <t>리자드럴</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "암호가 해독되었어. 그 내용이 말해주듯,*우리 캠프 근처에 강력한 변이체가 출몰한 것 같아.*이 몬스터는 리자드럴이라 불리는데, 매우 강한 맷집을 가지고 있어.*우리 모두의 안전을 위해, 너에게 이 몬스터의 제거를 부탁하고 싶어.*이건 너에게 쉽지 않은 임무겠지만, 너라면 할 수 있을 거야.*조심하고, 준비를 단단히 해서 돌아와라. 우리 모두를 위해서 말이야.",
+  "OnAccept": "너의 용기에 감사해. 무사히 돌아오길 바란다.",
+  "OnRefuse": "이해해. 하지만 이 몬스터는 반드시 제거해야 해. 다시 생각해보길 바라.",
+  "OnProcess": "리자드럴을 찾지 못했어? 우리 캠프의 안전을 위해 서둘러야 해.",
+  "OnClear": "대단해! 리자드럴을 제거하다니, 너의 용기와 힘에 감사드린다. 우리 모두에게 평화를 가져다 준 거야."
+}</t>
+  </si>
+  <si>
+    <t>닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 Target에 오류 발견. 
+수정 전 Target : 연구일지/닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1456320</t>
+  </si>
+  <si>
+    <t>잊혀진 가족의 기억</t>
+  </si>
+  <si>
+    <t>가족사진</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "오랜만에 마주하는 따뜻한 얼굴이군요.* 어쩌면, 당신은 내가 마지막으로 부탁할 수 있는 사람일지도 모르겠습니다.* 내 가족... 아니, 이젠 추억 속에서조차 잊혀져 가는 그들에게 남은 마지막 기억을 찾고자 해요. 동쪽 D1 구역, 제가 살던 집에서 가족사진을 찾아줄 수 있을까요?* 그 사진은 단순히 종이 한 장이 아닙니다.* 우리 가족이 함께 웃고 있는, 그 어떤 것으로도 대체할 수 없는 소중한 기억이 담긴 것이죠.* 아주 간단한 부탁이지만, 이 작은 부탁이 내게는 모든 것을 의미하답니다.* 부디 우리 가족의 마지막 기억을 되찾아 주세요.",
+  "OnAccept": "감사합니다. 저는 당신이 반드시 우리 가족의 사진을 찾아줄 것이라고 믿어 의심치 않습니다.",
+  "OnRefuse": "이해합니다... 이 부탁이 여간 무거운 것이 아니니까요. 하지만, 당신 마음이 변하면 언제든 찾아와주세요...",
+  "OnProcess": "아직 찾지 못했나요? 제발, 저에게 그것은 전부니까요...",
+  "OnClear": "이 사진... 세상에서 가장 소중한 기억이에요. 정말로 감사합니다."
+}</t>
+  </si>
+  <si>
+    <t>연계되는 퀘스트 생성. 가족 사진을 얻어오는 퀘스트 한개, 가족을 영면에 들게 하는 퀘스트 한개로 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1327 
+ Cost : 0.01327$</t>
+  </si>
+  <si>
+    <t>Token : 1166 
+ Cost : 0.03498$</t>
+  </si>
+  <si>
+    <t>Token : 2493 
+ Cost : 0.04825$</t>
+  </si>
+  <si>
+    <t>46.7S</t>
+  </si>
+  <si>
+    <t>C2481762</t>
+  </si>
+  <si>
+    <t>조용한 작별</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "내가 더 이상 부탁할 수 있는 것이 없다고 생각했는데... 하나가 더 있군요. 서쪽 구역에... 제 집에는 변이체로 변한 내 가족들이 있습니다.* 그들에겐 이제 평화가 필요해요. 변이된 그들은 더 이상 이 세상에서 고통받지 않아야 합니다.* 이건 과거의 나, 그리고 내 가족에 대한 마지막 예의일 거예요.* 내 가족들을 영면시켜주실 수 있겠어요? 그들이 이 세상에 더이상 아픔을 느끼지 않게 해주세요.* 당신이라면 할 수 있을 거라고 믿어 의심치 않습니다.* 당신의 도움으로 내 가족들도 마침내 참된 평화를 찾을 수 있을 거예요.* 부디 무사히 돌아오시길 바랍니다.",
+  "OnAccept": "정말로 감사드립니다. 이건 단순히 몬스터를 처리하는 일이 아닙니다. 인간의 마지막 예의이죠.",
+  "OnRefuse": "아, 그렇군요... 이해합니다. 이 일이 결코 쉬운 일은 아니니까요. 그럼에도 불구하고 변경하는 마음이 있다면... 언제든지 도움을 청해주세요.",
+  "OnProcess": "그들이... 아직도 그곳에 있군요. 당신의 안전을 바라며, 우리 가족에게 평화를 선물해 주세요.",
+  "OnClear": "이제 가족들도 평화롭게 잠들 수 있겠군요. 당신의 용기와 친절에 진심으로 감사드립니다."
+}</t>
+  </si>
+  <si>
+    <t>몬스터 수량 변경.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +445,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="에스코어 드림 4 Regular"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -331,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,6 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
@@ -624,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -644,9 +803,10 @@
     <col min="12" max="12" width="13.875" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="16" max="16" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,8 +843,11 @@
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="379.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -722,7 +885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="297" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="297" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -760,7 +923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="330" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -798,7 +961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="330" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -836,7 +999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -874,7 +1037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -910,6 +1073,240 @@
       </c>
       <c r="N7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="330" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109FCAB4-A679-4363-9915-99E9E203F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66163134-3AC9-4CE3-8D12-0E0CE848D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,6 +144,362 @@
     <t>47.8S</t>
   </si>
   <si>
+    <t>스크리머 정리 작전</t>
+  </si>
+  <si>
+    <t>잃어버린 방독면 필터 찾기</t>
+  </si>
+  <si>
+    <t>리아</t>
+  </si>
+  <si>
+    <t>방독면 필터</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>연계되는 퀘스트 생성. 청소 중에 아빠의 방독면을 망가트려 들킬까봐 노심초사 하고 있다. 방독면 필터를 얻어오는 퀘스트 하나, 방독면 필터를 전달하는 퀘스트 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1189 
+ Cost : 0.01189$</t>
+  </si>
+  <si>
+    <t>Token : 972 
+ Cost : 0.02916$</t>
+  </si>
+  <si>
+    <t>Token : 2161 
+ Cost : 0.04105$</t>
+  </si>
+  <si>
+    <t>37.4S</t>
+  </si>
+  <si>
+    <t>찰리 중령에게 방독면 필터 전달</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "언니가 방독면 필터를 찾아준 덕분에 거의 다 해결됐어. *이제 남은 건 아빠에게 이 필터를 전달하는 일이야. *근데 내가 직접 가서 줄 수가 없어... *아빠가 필터가 망가졌었다는 걸 알게 되면 정말 화를 낼 거야. *언니, 이걸 아빠인 찰리 중령에게 전달해 줄 수 있을까?",
+  "OnAccept": "언니가 해 준다니 정말 다행이야. 정말 고마워!",
+  "OnRefuse": "아... 그런가. 어떻게든 해야 하는데... 어렵네.",
+  "OnProcess": "아직 아빠한테 필터를 전달하지 못했어? 정말 빨리 해야 해...",
+  "OnClear": "언니 덕분에 아빠한테 안 들키고 필터를 전달할 수 있었어! 정말, 정말 고마워!"
+}</t>
+  </si>
+  <si>
+    <t>방독면 필터 전달 완료</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "방독면 필터를 전달해줘서 고맙군. 이 필터 덕분에 더 안전하게 임무를 수행할 수 있겠어."
+}</t>
+  </si>
+  <si>
+    <t>FJEIN7456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FJEIN7457</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FJEIN7458</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서쪽 구역의 단서 찾기</t>
+  </si>
+  <si>
+    <t>연구일지</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이번 임무는, 우리 모두에게 중요할 수 있어.*서쪽 구역의 연구소에서... 무전이 끊어진 이유를 찾아야 해.*이건 단순한 사고가 아니야. 무언가... 큰일이 벌어진 거야.*연구소에서 작성된 연구 일지를 찾아와.*그 일지엔, 우리가 알아야 할 모든 정보가 들어있을 거야.*물론, 그 일지를 읽을 수 있는 사람은 많지 않겠지.*하지만 너라면, 할 수 있을 거라 믿어.*내 베이스 캠프에 위협이 될 수 있는 모든 것을 차단해야 해.",
+  "OnAccept": "그래, 이 임무를 수락해줘서 고맙다. 속히 돌아와.",
+  "OnRefuse": "실망이군. 하지만 너의 선택을 존중하지. 다시 생각이 바뀌면 찾아와.",
+  "OnProcess": "아직 연구 일지를 찾지 못했나? 시간이 없어.",
+  "OnClear": "훌륭해! 이 일지가 바로 필요한 것이었어. 이제 닉에게 가져가서 해독을 부탁해야겠어."
+}</t>
+  </si>
+  <si>
+    <t>연계되는 3개의 퀘스트 생성 . 퀘스트 타입은 스토리를 보고 판단해 만들어줘.</t>
+  </si>
+  <si>
+    <t>Token : 1650 
+ Cost : 0.01650$</t>
+  </si>
+  <si>
+    <t>Token : 1411 
+ Cost : 0.04233$</t>
+  </si>
+  <si>
+    <t>Token : 3061 
+ Cost : 0.05883$</t>
+  </si>
+  <si>
+    <t>51.6S</t>
+  </si>
+  <si>
+    <t>CN0002</t>
+  </si>
+  <si>
+    <t>암호화된 일지의 해독</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이 일지를 닉에게 가져가 줘. 그는 우리 캠프의 생존자 중 하나야.*군부대에서 암호 해독관으로 일하던 인재지.*이 일지가 무엇을 의미하는지, 그에게서 들을 수 있을 거야.*시간을 낭비하지 말고 바로 찾아가.*이 일은 우리 모두의 안녕과 직결된 문제일 수 있어.",
+  "OnAccept": "좋아, 닉에게 빠르게 이 일지를 전달해 줘.",
+  "OnRefuse": "너무 시간을 지체하면 안 돼. 다시 생각해보길 바래.",
+  "OnProcess": "닉을 찾지 못했나? 우리 캠프 내에서 그를 찾아봐.",
+  "OnClear": "일지를 닉에게 전달했군. 이제 그의 분석 결과를 기다려보자."
+}</t>
+  </si>
+  <si>
+    <t>CN0003</t>
+  </si>
+  <si>
+    <t>암호 일지의 해독 결과 받기</t>
+  </si>
+  <si>
+    <t>닉</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "연구 일지... 이건 충격적이야. 찰리 중령이 꼭 보아야 할 내용이 들어있어."
+}</t>
+  </si>
+  <si>
+    <t>CM0004</t>
+  </si>
+  <si>
+    <t>변이된 위협 제거하기</t>
+  </si>
+  <si>
+    <t>리자드럴</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "암호가 해독되었어. 그 내용이 말해주듯,*우리 캠프 근처에 강력한 변이체가 출몰한 것 같아.*이 몬스터는 리자드럴이라 불리는데, 매우 강한 맷집을 가지고 있어.*우리 모두의 안전을 위해, 너에게 이 몬스터의 제거를 부탁하고 싶어.*이건 너에게 쉽지 않은 임무겠지만, 너라면 할 수 있을 거야.*조심하고, 준비를 단단히 해서 돌아와라. 우리 모두를 위해서 말이야.",
+  "OnAccept": "너의 용기에 감사해. 무사히 돌아오길 바란다.",
+  "OnRefuse": "이해해. 하지만 이 몬스터는 반드시 제거해야 해. 다시 생각해보길 바라.",
+  "OnProcess": "리자드럴을 찾지 못했어? 우리 캠프의 안전을 위해 서둘러야 해.",
+  "OnClear": "대단해! 리자드럴을 제거하다니, 너의 용기와 힘에 감사드린다. 우리 모두에게 평화를 가져다 준 거야."
+}</t>
+  </si>
+  <si>
+    <t>닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 Target에 오류 발견. 
+수정 전 Target : 연구일지/닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1456320</t>
+  </si>
+  <si>
+    <t>잊혀진 가족의 기억</t>
+  </si>
+  <si>
+    <t>가족사진</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "오랜만에 마주하는 따뜻한 얼굴이군요.* 어쩌면, 당신은 내가 마지막으로 부탁할 수 있는 사람일지도 모르겠습니다.* 내 가족... 아니, 이젠 추억 속에서조차 잊혀져 가는 그들에게 남은 마지막 기억을 찾고자 해요. 동쪽 D1 구역, 제가 살던 집에서 가족사진을 찾아줄 수 있을까요?* 그 사진은 단순히 종이 한 장이 아닙니다.* 우리 가족이 함께 웃고 있는, 그 어떤 것으로도 대체할 수 없는 소중한 기억이 담긴 것이죠.* 아주 간단한 부탁이지만, 이 작은 부탁이 내게는 모든 것을 의미하답니다.* 부디 우리 가족의 마지막 기억을 되찾아 주세요.",
+  "OnAccept": "감사합니다. 저는 당신이 반드시 우리 가족의 사진을 찾아줄 것이라고 믿어 의심치 않습니다.",
+  "OnRefuse": "이해합니다... 이 부탁이 여간 무거운 것이 아니니까요. 하지만, 당신 마음이 변하면 언제든 찾아와주세요...",
+  "OnProcess": "아직 찾지 못했나요? 제발, 저에게 그것은 전부니까요...",
+  "OnClear": "이 사진... 세상에서 가장 소중한 기억이에요. 정말로 감사합니다."
+}</t>
+  </si>
+  <si>
+    <t>연계되는 퀘스트 생성. 가족 사진을 얻어오는 퀘스트 한개, 가족을 영면에 들게 하는 퀘스트 한개로 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1327 
+ Cost : 0.01327$</t>
+  </si>
+  <si>
+    <t>Token : 1166 
+ Cost : 0.03498$</t>
+  </si>
+  <si>
+    <t>Token : 2493 
+ Cost : 0.04825$</t>
+  </si>
+  <si>
+    <t>46.7S</t>
+  </si>
+  <si>
+    <t>C2481762</t>
+  </si>
+  <si>
+    <t>조용한 작별</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "내가 더 이상 부탁할 수 있는 것이 없다고 생각했는데... 하나가 더 있군요. 서쪽 구역에... 제 집에는 변이체로 변한 내 가족들이 있습니다.* 그들에겐 이제 평화가 필요해요. 변이된 그들은 더 이상 이 세상에서 고통받지 않아야 합니다.* 이건 과거의 나, 그리고 내 가족에 대한 마지막 예의일 거예요.* 내 가족들을 영면시켜주실 수 있겠어요? 그들이 이 세상에 더이상 아픔을 느끼지 않게 해주세요.* 당신이라면 할 수 있을 거라고 믿어 의심치 않습니다.* 당신의 도움으로 내 가족들도 마침내 참된 평화를 찾을 수 있을 거예요.* 부디 무사히 돌아오시길 바랍니다.",
+  "OnAccept": "정말로 감사드립니다. 이건 단순히 몬스터를 처리하는 일이 아닙니다. 인간의 마지막 예의이죠.",
+  "OnRefuse": "아, 그렇군요... 이해합니다. 이 일이 결코 쉬운 일은 아니니까요. 그럼에도 불구하고 변경하는 마음이 있다면... 언제든지 도움을 청해주세요.",
+  "OnProcess": "그들이... 아직도 그곳에 있군요. 당신의 안전을 바라며, 우리 가족에게 평화를 선물해 주세요.",
+  "OnClear": "이제 가족들도 평화롭게 잠들 수 있겠군요. 당신의 용기와 친절에 진심으로 감사드립니다."
+}</t>
+  </si>
+  <si>
+    <t>몬스터 수량 변경.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이체 청소: 군부대의 길</t>
+  </si>
+  <si>
+    <t>스크리머 / 부머</t>
+  </si>
+  <si>
+    <t>5 / 3</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "안녕하십니까? 여러모로 도와주셔서 진심으로 감사드립니다.*이제 본격적으로 군부대에 필요한 물품들을 모으려 하는데, 한 가지 큰 문제가 있습니다.*우리 부대로 가는 길에 변이체들이 우글거려서 안전한 운반 작업이 불가능한 상태입니다.*특히 스크리머와 부머는 매우 위험해서 우리 부대 사람들만으로는 해결하기 어려워요.*그래서 변이체를 정리해 주실 수 있으신지 여쭙고 싶습니다.*안전한 길을 확보해주신다면, 우리 부대의 물품 조달에 큰 도움이 될 것입니다.*당신의 도움을 기다리겠습니다.",
+  "OnAccept": "정말 감사합니다! 스크리머 5마리와 부머 3마리를 처치해 주세요. 조심하세요.",
+  "OnRefuse": "거절하시는군요... 안전한 길을 확보하는 것이 이토록 어려운 일인 줄은 몰랐습니다. 혹시 마음이 바뀌시면 언제든지 도움을 청해주세요.",
+  "OnProcess": "아직 스크리머와 부머가 주변을 어슬렁거리고 있습니다. 모두 처치하셨나요?",
+  "OnClear": "변이체를 모두 정리해주셨군요! 이제 우리 부대로의 길이 훨씬 안전해졌습니다. 정말 감사합니다. 당신 덕분에 중요한 일들을 진행할 수 있게 되었어요."
+}</t>
+  </si>
+  <si>
+    <t>Token : 832 
+ Cost : 0.00832$</t>
+  </si>
+  <si>
+    <t>Token : 612 
+ Cost : 0.01836$</t>
+  </si>
+  <si>
+    <t>Token : 1444 
+ Cost : 0.02668$</t>
+  </si>
+  <si>
+    <t>31.2S</t>
+  </si>
+  <si>
+    <t>퀘스트 생성을 요청할 때 전송한 스토리는 퀘스트의 본래 목적을 숨겨야 하지만 생성된 퀘스트는 본래 목적을 숨기지 않았다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 일기를 찾아서</t>
+  </si>
+  <si>
+    <t>연계되는 퀘스트 생성. 생성할 퀘스트의 타입은 Deliver, Fight, Get으로 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1265 
+ Cost : 0.01265$</t>
+  </si>
+  <si>
+    <t>Token : 1716 
+ Cost : 0.05148$</t>
+  </si>
+  <si>
+    <t>Token : 2981 
+ Cost : 0.06413$</t>
+  </si>
+  <si>
+    <t>62.1S</t>
+  </si>
+  <si>
+    <t>리아에게의 안전한 귀환</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "아빠가 내 일기를 읽고 걱정했다는 걸 알아. 그래도 이걸 직접 전해줘서 고마워. 다음부턴 더 조심할게."
+}</t>
+  </si>
+  <si>
+    <t>위협 제거: 변이체 소탕</t>
+  </si>
+  <si>
+    <t>변이체1호/부머</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>서쪽 D1 구역의 비상약품상자 회수</t>
+  </si>
+  <si>
+    <t>비상약품상자</t>
+  </si>
+  <si>
+    <t>문단 분리 오류 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "마지막으로 너에게 부탁할 임무가 하나 더 있어. 서쪽 D1 구역에 비상약품상자가 있어.* 그 지역은 변이체들의 활동이 잦아진 곳인데, 상자 안에는 우리 베이스 캠프에서 필요한 중요한 의료용품들이 들어 있어.* 너에게 그 상자를 찾아와달라고 부탁하고 싶어.* 변이체들에게 조심하면서도 신속히 움직여주면 좋겠어*. 안전하게 상자를 회수해 우리 베이스 캠프로 가져오면, 큰 도움이 될 거야.",
+  "OnAccept": "좋아, 그 지역을 잘 안다면 빨리 움직여. 기다리고 있겠어.",
+  "OnRefuse": "이 임무는 우리 모두에게 중요해. 다시 한번 생각해보길 바라.",
+  "OnProcess": "비상약품상자를 찾았나? 시간이 중요해. 서둘러야 해.",
+  "OnClear": "비상약품상자를 안전하게 가져와줘서 고마워. 이제 베이스 캠프의 안전과 건강을 위한 준비가 더 잘될 것 같아."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "최근 베이스 캠프 주변을 순찰 중, 나는 우연히 리아가 적은 일기를 발견했어.*이 일기는 리아가 최근 우리 베이스 캠프 밖으로 몰래 나갔음을 알려주고 있으니, 크게 걱정이 되는군.*리아에게 자유는 중요하지만, 그녀가 외부 환경에서 어떤 위험에 처할지 모른다는 점이 나를 두렵게 해.*너에게 이 일기를 리아에게 대신 전해주길 바란다.*이 일로 리아가 앞으로 더 주의를 기울이길 바라며, 무엇보다 안전하게 돌아오기를.*마지막으로, 이 모험에서 너도 조심하길 바란다. 베이스 캠프 주변엔 위험한 변이체들이 돌아다니니까.*리아가 외출 환경의 위험을 인지할 수 있도록 너의 행동으로 보여줘.",
+  "OnAccept": "그래, 이 일기를 리아에게 잘 전해주도록.",
+  "OnRefuse": "내 말을 신중하게 다시 생각해 보길 바라.",
+  "OnProcess": "리아에게 일기를 전달했나? 시간이 없으니 서둘러야 해.",
+  "OnClear": "일기를 리아에게 전달해줘서 고마워. 너의 도움이 큰 의미가 있었어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 문맥상 맞지 않는 문장 제거.
+함께 주변 청소와 물자를 가져다 달라는 부탁도 전해줘.
+-&gt; 리아에게 부탁을 전달하는 것이 아님.
+거절 시 문장 수정.
+-&gt; 진정해 ~ (제거)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문단 분리 오류 발생
+1. OnAccept 의 문법 오류 수정.
+       * 잘됐어 제거.
+2. OnStart 의 문법 오류 수정.
+       * 변이체 1호와 부머라는 "의" 변이체들이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "바로 진행할 수 있는 다른 중요한 임무가 있어.* 베이스 캠프 주변에 변이체1호와 부머라는 변이체들이 출현했어. 이 녀석들이 주변의 안전을 위협하고 있지.* 너에게 이 변이체들을 제거해 줄 것을 요청하마. 변이체1호 3마리와 부머 2마리만 해치워 주면 될 거야.* 이 임무는 베이스 캠프의 안전을 확보하는 데 큰 도움이 될 거고, 리아 같은 이들이 외부로 나갔을 때의 위험을 줄여 줄 거야. 임무 완료 후엔 나에게 돌아오라고.",
+  "OnAccept": "빠르게 움직여. 변이체들이 더 늘어나기 전에 처리해야 해.",
+  "OnRefuse": "정말로 거절하겠어? 베이스 캠프의 안전이 걸린 문제야.",
+  "OnProcess": "변이체 소탕은 어떻게 되가고 있나? 시간이 얼마 남지 않았어.",
+  "OnClear": "변이체 소탕 임무를 완료해줘서 고마워. 이제 베이스 캠프는 좀 더 안전해졌어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   "OnStart": "네가 방금 보여준 실력, 정말 인상적이었어. 하지만 우리 앞에는 더 많은 도전이 기다리고 있지.*서쪽 D1 구역에 버려진 탄약 상자들이 있어. 우리에겐 그 탄약들이 절실히 필요하거든.*하지만 그 지역은 위험해. 변이체들만 있는 게 아니야.*그래도 네가 가져온다면, 우리는 그만큼 더 강해질 수 있어.*네가 가져올 수 있겠나?",
   "OnAccept": "빠르고 조심스럽게 해. 우리가 기다리고 있을게.",
@@ -151,9 +507,7 @@
   "OnProcess": "아직 탄약들을 찾지 못했나? 시간이 없어, 서둘러.",
   "OnClear": "이걸로 우리는 한층 더 강해질 수 있어. 수고했어."
 }</t>
-  </si>
-  <si>
-    <t>스크리머 정리 작전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -163,18 +517,7 @@
   "OnProcess": "스크리머들이 여전히 문제를 일으키고 있어. 얼마나 처리했나?",
   "OnClear": "정말 대단해. 네 덕분에 우리는 더욱 안전해졌어."
 }</t>
-  </si>
-  <si>
-    <t>잃어버린 방독면 필터 찾기</t>
-  </si>
-  <si>
-    <t>리아</t>
-  </si>
-  <si>
-    <t>방독면 필터</t>
-  </si>
-  <si>
-    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -184,215 +527,21 @@
   "OnProcess": "아직 방독면 필터를 구하지 못한 거야? 아빠가 언제 방을 확인할지 몰라서 정말 불안해...",
   "OnClear": "이거야! 정말 언니가 최고야! 이제 아빠 방독면을 괜찮게 만들 수 있을 거 같아."
 }</t>
-  </si>
-  <si>
-    <t>연계되는 퀘스트 생성. 청소 중에 아빠의 방독면을 망가트려 들킬까봐 노심초사 하고 있다. 방독면 필터를 얻어오는 퀘스트 하나, 방독면 필터를 전달하는 퀘스트 생성.</t>
-  </si>
-  <si>
-    <t>Token : 1189 
- Cost : 0.01189$</t>
-  </si>
-  <si>
-    <t>Token : 972 
- Cost : 0.02916$</t>
-  </si>
-  <si>
-    <t>Token : 2161 
- Cost : 0.04105$</t>
-  </si>
-  <si>
-    <t>37.4S</t>
-  </si>
-  <si>
-    <t>찰리 중령에게 방독면 필터 전달</t>
-  </si>
-  <si>
-    <t>Deliver</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "언니가 방독면 필터를 찾아준 덕분에 거의 다 해결됐어. *이제 남은 건 아빠에게 이 필터를 전달하는 일이야. *근데 내가 직접 가서 줄 수가 없어... *아빠가 필터가 망가졌었다는 걸 알게 되면 정말 화를 낼 거야. *언니, 이걸 아빠인 찰리 중령에게 전달해 줄 수 있을까?",
-  "OnAccept": "언니가 해 준다니 정말 다행이야. 정말 고마워!",
-  "OnRefuse": "아... 그런가. 어떻게든 해야 하는데... 어렵네.",
-  "OnProcess": "아직 아빠한테 필터를 전달하지 못했어? 정말 빨리 해야 해...",
-  "OnClear": "언니 덕분에 아빠한테 안 들키고 필터를 전달할 수 있었어! 정말, 정말 고마워!"
-}</t>
-  </si>
-  <si>
-    <t>방독면 필터 전달 완료</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{
-  "OnClear": "방독면 필터를 전달해줘서 고맙군. 이 필터 덕분에 더 안전하게 임무를 수행할 수 있겠어."
-}</t>
-  </si>
-  <si>
-    <t>FJEIN7456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FJEIN7457</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FJEIN7458</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서쪽 구역의 단서 찾기</t>
-  </si>
-  <si>
-    <t>연구일지</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "이번 임무는, 우리 모두에게 중요할 수 있어.*서쪽 구역의 연구소에서... 무전이 끊어진 이유를 찾아야 해.*이건 단순한 사고가 아니야. 무언가... 큰일이 벌어진 거야.*연구소에서 작성된 연구 일지를 찾아와.*그 일지엔, 우리가 알아야 할 모든 정보가 들어있을 거야.*물론, 그 일지를 읽을 수 있는 사람은 많지 않겠지.*하지만 너라면, 할 수 있을 거라 믿어.*내 베이스 캠프에 위협이 될 수 있는 모든 것을 차단해야 해.",
-  "OnAccept": "그래, 이 임무를 수락해줘서 고맙다. 속히 돌아와.",
-  "OnRefuse": "실망이군. 하지만 너의 선택을 존중하지. 다시 생각이 바뀌면 찾아와.",
-  "OnProcess": "아직 연구 일지를 찾지 못했나? 시간이 없어.",
-  "OnClear": "훌륭해! 이 일지가 바로 필요한 것이었어. 이제 닉에게 가져가서 해독을 부탁해야겠어."
-}</t>
-  </si>
-  <si>
-    <t>연계되는 3개의 퀘스트 생성 . 퀘스트 타입은 스토리를 보고 판단해 만들어줘.</t>
-  </si>
-  <si>
-    <t>Token : 1650 
- Cost : 0.01650$</t>
-  </si>
-  <si>
-    <t>Token : 1411 
- Cost : 0.04233$</t>
-  </si>
-  <si>
-    <t>Token : 3061 
- Cost : 0.05883$</t>
-  </si>
-  <si>
-    <t>51.6S</t>
-  </si>
-  <si>
-    <t>CN0002</t>
-  </si>
-  <si>
-    <t>암호화된 일지의 해독</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "이 일지를 닉에게 가져가 줘. 그는 우리 캠프의 생존자 중 하나야.*군부대에서 암호 해독관으로 일하던 인재지.*이 일지가 무엇을 의미하는지, 그에게서 들을 수 있을 거야.*시간을 낭비하지 말고 바로 찾아가.*이 일은 우리 모두의 안녕과 직결된 문제일 수 있어.",
-  "OnAccept": "좋아, 닉에게 빠르게 이 일지를 전달해 줘.",
-  "OnRefuse": "너무 시간을 지체하면 안 돼. 다시 생각해보길 바래.",
-  "OnProcess": "닉을 찾지 못했나? 우리 캠프 내에서 그를 찾아봐.",
-  "OnClear": "일지를 닉에게 전달했군. 이제 그의 분석 결과를 기다려보자."
-}</t>
-  </si>
-  <si>
-    <t>CN0003</t>
-  </si>
-  <si>
-    <t>암호 일지의 해독 결과 받기</t>
-  </si>
-  <si>
-    <t>닉</t>
-  </si>
-  <si>
-    <t>{
-  "OnClear": "연구 일지... 이건 충격적이야. 찰리 중령이 꼭 보아야 할 내용이 들어있어."
-}</t>
-  </si>
-  <si>
-    <t>CM0004</t>
-  </si>
-  <si>
-    <t>변이된 위협 제거하기</t>
-  </si>
-  <si>
-    <t>리자드럴</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "암호가 해독되었어. 그 내용이 말해주듯,*우리 캠프 근처에 강력한 변이체가 출몰한 것 같아.*이 몬스터는 리자드럴이라 불리는데, 매우 강한 맷집을 가지고 있어.*우리 모두의 안전을 위해, 너에게 이 몬스터의 제거를 부탁하고 싶어.*이건 너에게 쉽지 않은 임무겠지만, 너라면 할 수 있을 거야.*조심하고, 준비를 단단히 해서 돌아와라. 우리 모두를 위해서 말이야.",
-  "OnAccept": "너의 용기에 감사해. 무사히 돌아오길 바란다.",
-  "OnRefuse": "이해해. 하지만 이 몬스터는 반드시 제거해야 해. 다시 생각해보길 바라.",
-  "OnProcess": "리자드럴을 찾지 못했어? 우리 캠프의 안전을 위해 서둘러야 해.",
-  "OnClear": "대단해! 리자드럴을 제거하다니, 너의 용기와 힘에 감사드린다. 우리 모두에게 평화를 가져다 준 거야."
-}</t>
-  </si>
-  <si>
-    <t>닉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정된 Target에 오류 발견. 
-수정 전 Target : 연구일지/닉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1456320</t>
-  </si>
-  <si>
-    <t>잊혀진 가족의 기억</t>
-  </si>
-  <si>
-    <t>가족사진</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "오랜만에 마주하는 따뜻한 얼굴이군요.* 어쩌면, 당신은 내가 마지막으로 부탁할 수 있는 사람일지도 모르겠습니다.* 내 가족... 아니, 이젠 추억 속에서조차 잊혀져 가는 그들에게 남은 마지막 기억을 찾고자 해요. 동쪽 D1 구역, 제가 살던 집에서 가족사진을 찾아줄 수 있을까요?* 그 사진은 단순히 종이 한 장이 아닙니다.* 우리 가족이 함께 웃고 있는, 그 어떤 것으로도 대체할 수 없는 소중한 기억이 담긴 것이죠.* 아주 간단한 부탁이지만, 이 작은 부탁이 내게는 모든 것을 의미하답니다.* 부디 우리 가족의 마지막 기억을 되찾아 주세요.",
-  "OnAccept": "감사합니다. 저는 당신이 반드시 우리 가족의 사진을 찾아줄 것이라고 믿어 의심치 않습니다.",
-  "OnRefuse": "이해합니다... 이 부탁이 여간 무거운 것이 아니니까요. 하지만, 당신 마음이 변하면 언제든 찾아와주세요...",
-  "OnProcess": "아직 찾지 못했나요? 제발, 저에게 그것은 전부니까요...",
-  "OnClear": "이 사진... 세상에서 가장 소중한 기억이에요. 정말로 감사합니다."
-}</t>
-  </si>
-  <si>
-    <t>연계되는 퀘스트 생성. 가족 사진을 얻어오는 퀘스트 한개, 가족을 영면에 들게 하는 퀘스트 한개로 생성.</t>
-  </si>
-  <si>
-    <t>Token : 1327 
- Cost : 0.01327$</t>
-  </si>
-  <si>
-    <t>Token : 1166 
- Cost : 0.03498$</t>
-  </si>
-  <si>
-    <t>Token : 2493 
- Cost : 0.04825$</t>
-  </si>
-  <si>
-    <t>46.7S</t>
-  </si>
-  <si>
-    <t>C2481762</t>
-  </si>
-  <si>
-    <t>조용한 작별</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "내가 더 이상 부탁할 수 있는 것이 없다고 생각했는데... 하나가 더 있군요. 서쪽 구역에... 제 집에는 변이체로 변한 내 가족들이 있습니다.* 그들에겐 이제 평화가 필요해요. 변이된 그들은 더 이상 이 세상에서 고통받지 않아야 합니다.* 이건 과거의 나, 그리고 내 가족에 대한 마지막 예의일 거예요.* 내 가족들을 영면시켜주실 수 있겠어요? 그들이 이 세상에 더이상 아픔을 느끼지 않게 해주세요.* 당신이라면 할 수 있을 거라고 믿어 의심치 않습니다.* 당신의 도움으로 내 가족들도 마침내 참된 평화를 찾을 수 있을 거예요.* 부디 무사히 돌아오시길 바랍니다.",
-  "OnAccept": "정말로 감사드립니다. 이건 단순히 몬스터를 처리하는 일이 아닙니다. 인간의 마지막 예의이죠.",
-  "OnRefuse": "아, 그렇군요... 이해합니다. 이 일이 결코 쉬운 일은 아니니까요. 그럼에도 불구하고 변경하는 마음이 있다면... 언제든지 도움을 청해주세요.",
-  "OnProcess": "그들이... 아직도 그곳에 있군요. 당신의 안전을 바라며, 우리 가족에게 평화를 선물해 주세요.",
-  "OnClear": "이제 가족들도 평화롭게 잠들 수 있겠군요. 당신의 용기와 친절에 진심으로 감사드립니다."
-}</t>
-  </si>
-  <si>
-    <t>몬스터 수량 변경.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSM01</t>
+  </si>
+  <si>
+    <t>CSM02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSM03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSM04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="379.5" x14ac:dyDescent="0.3">
@@ -905,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -928,7 +1077,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -943,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -963,116 +1112,116 @@
     </row>
     <row r="5" spans="1:16" ht="330" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
@@ -1080,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1089,115 +1238,115 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="L8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" t="s">
-        <v>62</v>
-      </c>
       <c r="P8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>59</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>59</v>
-      </c>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="330" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1206,80 +1355,80 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>59</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="L12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>82</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -1288,25 +1437,227 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
         <v>89</v>
       </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="F14" t="s">
         <v>90</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="396" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="330" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66163134-3AC9-4CE3-8D12-0E0CE848D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2DAB6C-5E6B-4D4E-96A3-4C6A6CDBFF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="214">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -542,6 +542,398 @@
   </si>
   <si>
     <t>CSM04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1234567</t>
+  </si>
+  <si>
+    <t>잃어버린 추억 찾기</t>
+  </si>
+  <si>
+    <t>곰인형/결혼반지</t>
+  </si>
+  <si>
+    <t>연계 퀘스트 생성. Get, Deliver로 퀘스트 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1117 
+ Cost : 0.03351$</t>
+  </si>
+  <si>
+    <t>Token : 2444 
+ Cost : 0.04678$</t>
+  </si>
+  <si>
+    <t>38.8S</t>
+  </si>
+  <si>
+    <t>D7654321</t>
+  </si>
+  <si>
+    <t>중령에게 반지를</t>
+  </si>
+  <si>
+    <t>F9876543</t>
+  </si>
+  <si>
+    <t>중령의 감사</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "이 결혼 반지를 찾아와 준 걸로 리아에게 좋은 기억을 되찾아 줄 수 있을 것 같구나. 고맙다."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문맥상 어울리지 않는 "이제 나와의 신뢰는 굳건해질 거야" 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "언니, 저... 정말 부탁하나만 들어줄 수 있어?*저희 베이스 캠프로 도망치는 길에, 저는 제가 가장 소중하게 여기던 두 가지를 잃어버렸어.*하나는 어머니께서 저한테 주신 곰인형이고, 다른 하나는 아빠가 어머니께 줬던 결혼 반지야.*어머니는 이미... 하지만 그 반지와 곰인형만큼은 꼭 다시 찾고 싶어.*곰인형은 서쪽 D1 구역에서, 결혼반지는 동쪽 D1 구역에서 잃어버렸어.*부디 찾아줄 수 있겠니? 나에게는 그것들이 전부야.",
+  "OnAccept": "정말? 고마워, 언니! 빨리 돌아오길 바랄게.",
+  "OnRefuse": "알겠어... 누군가에게 이런 걸 부탁하는 게 쉽지 않네.",
+  "OnProcess": "아직 찾지 못했구나... 부탁한 건, 서쪽 D1 구역의 곰인형과 동쪽 D1 구역의 결혼반지야.",
+  "OnClear": "이게 정말...! 언니, 정말로 고맙다! 이제 어머니와 아빠의 기억을 제대로 간직할 수 있을 것 같아."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 말투가 아닌 찰리 중령의 말투를 사용.
+OnClear 스크립트 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "언니, 곰인형과 결혼반지를 찾아줘서 정말로 고마워.*이번에는... 아빠한테 결혼반지를 전해줄 수 있겠니?*아빠는 찰리 중령이야. 베이스 캠프의 지휘관이지.*아빠는 지금 플레이어를 크게 신용하지 않고 있어서 좀 까칠할 수도 있어.*하지만 이 반지를 보면 분명 감동받을 거야. 내가 언니를 믿어서 부탁하는 거니까, 부탁해.",
+  "OnAccept": "아빠한테 잘 전달해줘. 언니가 도와줘서 든든해!",
+  "OnRefuse": "그럴 줄 알았어... 아무튼 고마웠어, 언니.",
+  "OnProcess": "아빠한테 아직 결혼반지를 전달하지 못했구나. 아빠는 베이스 캠프의 지휘관실에 있어.",
+  "OnClear": "고마워 언니! 덕분에 한시름 놓을 수 있게 되었어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM0003412345</t>
+  </si>
+  <si>
+    <t>잃어버린 해독기 찾기</t>
+  </si>
+  <si>
+    <t>암호해독기</t>
+  </si>
+  <si>
+    <t>연계 퀘스트 생성. 퀘스트 타입은 Get, Fight. 존댓말 사용.</t>
+  </si>
+  <si>
+    <t>Token : 1440 
+ Cost : 0.01440$</t>
+  </si>
+  <si>
+    <t>Token : 975 
+ Cost : 0.02925$</t>
+  </si>
+  <si>
+    <t>Token : 2415 
+ Cost : 0.04365$</t>
+  </si>
+  <si>
+    <t>42.3S</t>
+  </si>
+  <si>
+    <t>CM0003789012</t>
+  </si>
+  <si>
+    <t>스캐빈저와의 첫 조우</t>
+  </si>
+  <si>
+    <t>스캐빈저</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "해독기 덕분에 스캐빈저에 대한 정보를 해독할 수 있었어요.*하지만 이론만으로는 충분한 대비가 어렵죠.*스캐빈저의 실제 습성을 관찰할 필요가 있습니다.*이번엔 스캐빈저를 직접 마주하고, 카메라를 단 상태로 전투를 요청드립니다.*스캐빈저의 행동 패턴을 분석할 수 있게 될 거예요.*위험한 임무지만, 당신이라면 할 수 있을 겁니다.*준비가 되시면 스캐빈저를 찾아서 전투를 시작해 주세요.",
+  "OnAccept": "신중을 기해 주세요. 스캐빈저는 예상외로 빠르고 위험할 수 있습니다.",
+  "OnRefuse": "아직 준비가 덜 되셨나요? 충분히 이해합니다. 하지만 준비가 되면 다시 말씀해주세요.",
+  "OnProcess": "스캐빈저와의 전투, 어떻게 되고 있나요? 조심하세요.",
+  "OnClear": "전투 데이터를 잘 취합해둘게요. 이 자료는 큰 도움이 될 겁니다. 정말 감사드려요."
+}</t>
+  </si>
+  <si>
+    <t>OnStart의 어색한 문구 수정. 존댓말 사용 요구 불이행.
+-&gt; "아, 바로 당신이라면 부탁할게 있어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "여러 일 때문에 바쁘시겠지만 부탁할게 있어요.*연구소에서 구한 암호 일지, 기억하시죠?*해석하다 보니 스캐빈저에 대한 정보가 나왔어요.*하지만 정보가 부족해서 완전히 해석할 수가 없습니다.*연구 일지에 따르면, 연구소 서쪽 구역에 해독에 필요한 해독기가 있다고 해요.*이 해독기를 찾아주실 수 있나요?*이 정보가 정확하다면, 스캐빈저에 대한 이해를 높일 수 있을 겁니다.",
+  "OnAccept": "감사합니다. 서쪽 구역에 조심히 가 보세요. 여러 위험이 도사리고 있을 테니까요.",
+  "OnRefuse": "그렇군요, 이해합니다. 하지만 만약 마음이 바뀌면 언제든지 도와주세요.",
+  "OnProcess": "아직 해독기를 찾지 못하셨군요. 서쪽 구역을 잘 살펴보세요.",
+  "OnClear": "이게 바로 그 해독기군요! 정말 대단해요. 이제 남은 정보를 완전히 해석할 수 있을 거예요."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV파일</t>
+  </si>
+  <si>
+    <t>릭커</t>
+  </si>
+  <si>
+    <t>폭탄</t>
+  </si>
+  <si>
+    <t>변이체의 원인 찾기</t>
+  </si>
+  <si>
+    <t>부머/스캐빈저</t>
+  </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "최근 변이체가 늘어만 가고 있어.*이 문제를 해결하기 위해선 원인을 뿌리뽑아야 해.*주변에 변이체가 자주 목격된다는 보고가 있어.*네가 그 근처를 조사해주길 바라.*부머와 스캐빈저, 두 종류의 변이체를 살펴봐.*적어도 5마리의 부머와 3마리의 스캐빈저를 처리해줘.*주의해, 이들은 상당히 위험하니까.",
+  "OnAccept": "알겠어, 부디 조심해.",
+  "OnRefuse": "아직 준비가 안 됐다면, 언제든지 나중에 말해줘.",
+  "OnProcess": "아직 부머와 스캐빈저를 제대로 처리하지 못한 것 같군. 조사가 끝나면 바로 보고해.",
+  "OnClear": "수고했어. 이제 이 정보를 바탕으로 다음 단계를 준비할 수 있겠어."
+}</t>
+  </si>
+  <si>
+    <t>Token : 1122 
+ Cost : 0.01122$</t>
+  </si>
+  <si>
+    <t>Token : 418 
+ Cost : 0.01254$</t>
+  </si>
+  <si>
+    <t>Token : 1540 
+ Cost : 0.02376$</t>
+  </si>
+  <si>
+    <t>17S</t>
+  </si>
+  <si>
+    <t>지나간 그림자, 남겨진 단서</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "변이체를 소탕해준 건 잘했어. 하지만 그 과정에서 네가 말한 거대한 물체의 존재가 나를 꽤나 걱정하게 만들고 있어.*CCTV 파일을 통해서라도 그 정체가 무엇인지 확인해보려고 해.*주변 지역의 CCTV를 확인해볼 필요가 있어. 우리의 통신 장비로는 접근하기 힘든 상태야.*세 곳의 CCTV에서 파일을 모아와. 그 안에 분명 무언가 단서가 있을 거야.*어떤 위험이 도사리고 있는지, 아니면 우리가 놓친 중요한 정보가 있는지 확인해봐야 해.*시간이 얼마 없어. 가능한 빠르게 움직여줘. 나는 여기서 기다리겠어.*조심하고, 꼭 필요한 파일만 가져와. 불필요한 정보는 우리에게 방해만 될 거야.",
+  "OnAccept": "좋아, 그 정보가 우리에게 많은 걸 가르쳐줄 거야. 빠르게 움직여.",
+  "OnRefuse": "이해해. 하지만 네 결정이 우리 모두에게 어떤 결과를 가져올지 생각해봐.",
+  "OnProcess": "CCTV 파일은 모두 모아왔나? 그 안에 답이 있을 거야.",
+  "OnClear": "이 파일들이 우리에게 필요한 답을 주길 바라. 고마워."
+}</t>
+  </si>
+  <si>
+    <t>Token : 1120 
+ Cost : 0.01120$</t>
+  </si>
+  <si>
+    <t>Token : 540 
+ Cost : 0.01620$</t>
+  </si>
+  <si>
+    <t>Token : 1660 
+ Cost : 0.02740$</t>
+  </si>
+  <si>
+    <t>22.4S</t>
+  </si>
+  <si>
+    <t>찰리 중령의 요청: CCTV 자료 전달</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이 CCTV 영상들을 자세히 봤어. 우리가 최근 들었던 그 무전과 연결된 걸까?*실제로 우리 기지 근처에서 어떤 새로운 변이체의 활동이 포착됐다는 보고가 있었어.*이 자료들을 닉에게 전해줄래? 그는 과거 군부대에서 암호 해독을 담당했었지. 분명히 도움이 될 거야.*영상에 나온 변이체에 대한 정보를 최대한 빨리 알아내야 해. 우리의 안전이 달린 문제니까.*닉은 캠프 내에서 쉽게 찾을 수 있을 거야. 그가 이 자료를 확인하고 뭔가 알아낼 수 있기를 바란다.*시간이 얼마 없어. 빨리 움직여줘. 닉이 이 자료를 보고 뭔가 알아내길 바라.*너의 도움으로 더 큰 위기를 막을 수 있을 거라 믿어.",
+  "OnAccept": "잘 했어. 신속하게 움직이는 건 지금 우리에게 가장 중요한 일이니까.",
+  "OnRefuse": "이건 우리 모두의 안전을 위한 일이야. 다시 한번 생각해보게.",
+  "OnProcess": "CCTV 자료를 닉에게 전달했나? 우리에게는 시간이 없어.",
+  "OnClear": "자료를 닉에게 전달했군. 이제 그 결과를 기다릴 때야. 고마워."
+}</t>
+  </si>
+  <si>
+    <t>Token : 1203 
+ Cost : 0.01203$</t>
+  </si>
+  <si>
+    <t>Token : 749 
+ Cost : 0.02247$</t>
+  </si>
+  <si>
+    <t>Token : 1952 
+ Cost : 0.03450$</t>
+  </si>
+  <si>
+    <t>닉의 분석: 변이체의 실체</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "찰리 중령에게 받은 자료를 바탕으로, 이 변이체가 실제로 우리가 무전에서 들었던 새로운 종류라는 걸 확인했어. 이 정보는 우리가 앞으로 나아가는 데 큰 도움이 될 거야. 수고했어."
+}</t>
+  </si>
+  <si>
+    <t>변이체 릭커 처치 명령</t>
+  </si>
+  <si>
+    <t>Token : 1088 
+ Cost : 0.01088$</t>
+  </si>
+  <si>
+    <t>Token : 553 
+ Cost : 0.01659$</t>
+  </si>
+  <si>
+    <t>Token : 1641 
+ Cost : 0.02747$</t>
+  </si>
+  <si>
+    <t>21.5S</t>
+  </si>
+  <si>
+    <t>연구소 폭파를 위한 준비</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "변이체 제거는 단기적인 해결책에 불과해. 우린 더 근본적인 조치를 취해야만 해.*연구소... 그곳이 모든 문제의 원흉이야. 그곳을 파괴하면, 변이체의 확산도 막을 수 있겠지.*폭탄을 구해와야 해. 동쪽 D1 구역에 폭탄이 숨겨져 있다는 정보를 입수했어.*넌 이미 여러 번 우리를 위험에서 구해냈지. 이번에도 너에게 부탁하고 싶어.*시간이 없어. 빠르게 움직여야 해. 폭탄을 얻어 우리가 연구소를 폭파할 준비를 할 수 있도록 도와줘.*이번 임무는 쉽지 않겠지만, 네가 아니면 누구도 할 수 없는 일이야. 우리 모두를 위해 부탁해.*조심히 다녀와. 그리고 무엇보다, 너 자신을 보호해.",
+  "OnAccept": "좋아, 빠르게 움직여. 시간이 없어. 폭탄을 구해서 돌아오는 걸 기다리겠어.",
+  "OnRefuse": "이해해. 하지만 우리는 다른 선택지가 없어. 다시 생각해보고 준비가 되면 말해줘.",
+  "OnProcess": "아직 폭탄을 구하지 못했나? 동쪽 D1 구역에 있어. 서둘러줘.",
+  "OnClear": "폭탄을 구해왔군. 잘했어. 이제 우리는 다음 단계로 나아갈 준비가 됐어."
+}</t>
+  </si>
+  <si>
+    <t>Token : 1111 
+ Cost : 0.01111$</t>
+  </si>
+  <si>
+    <t>Token : 593 
+ Cost : 0.01779$</t>
+  </si>
+  <si>
+    <t>Token : 1704 
+ Cost : 0.02890$</t>
+  </si>
+  <si>
+    <t>25.2S</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "닉이 넘겨준 CCTV 분석 결과를 보니, 그 변이체가 우리의 안전을 심각하게 위협하고 있어.*이 릭커라 불리는 변이체, 오른손의 공격은 상당히 치명적이야. 이대로 둘 수만은 없어.*내 명령이다. 릭커를 찾아 처치하고 돌아오도록.*이번 작전은 단순한 사냥이 아니라, 우리 모두를 위한 필수적인 작업이야.*조심하고, 최선을 다해. 네가 얼마나 뛰어난지 잘 알고 있으니, 분명 이 임무도 해낼 거야.*모두의 안전을 위해, 실패는 용납할 수 없어. 무사히 돌아와.*가서 그 괴물을 끝장내고 오도록.",
+  "OnAccept": "그래, 그 결정을 내린 것을 환영한다. 조심하고, 무사히 돌아와.",
+  "OnRefuse": "모두의 안녕을 위해 너의 힘이 필요한데, 이런 결정이 유감이다.",
+  "OnProcess": "릭커를 아직 못 찾았나? 시간이 없어, 우리 모두의 안전을 위해 서둘러야 해.",
+  "OnClear": "릭커를 처치했다고? 잘 했어, 정말 자랑스럽다. 이제 우리 모두 좀 더 안심할 수 있겠어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 NPC의 이름을 포함하여 삭제.
+리아, 닉이 넘겨준 … 여기서 리아 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 고양이를 위한 치료제 찾기</t>
+  </si>
+  <si>
+    <t>항생제</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "어서 오십시오. 제게 중요한 부탁이 있어요.*리아 중령의 딸, 리아가 최근에 저에게 자신이 키우는 고양이에 대해 걱정을 털어놓았습니다.*불쌍한 녀석이 감기에 걸려 상태가 좋지 않다고 해요.*이 지역에서는 치료할 약을 구하기가 쉽지 않지만, 서쪽 D1 구역에서 항생제를 찾을 수 있을 겁니다.*리아도 저도 이 상황에서 별 도움이 되지 못해 마음이 무겁습니다.*당신이라면 그 약을 찾아낼 수 있을 것 같습니다. 리아의 고양이를 위해 항생제를 얻어 올 수 있겠습니까?*부탁드립니다.",
+  "OnAccept": "감사합니다. 서쪽 D1 구역에서 약을 찾아주세요.",
+  "OnRefuse": "그렇군요, 이해합니다. 혹시 마음이 바뀌면 다시 말씀해주세요.",
+  "OnProcess": "항생제를 찾으셨나요? 리아의 고양이가 기다리고 있어요.",
+  "OnClear": "이 약으로 고양이가 꼭 나아주기를 바랍니다. 고생 많으셨습니다."
+}</t>
+  </si>
+  <si>
+    <t>연계 퀘스트 생성. 퀘스트 타입은 Get, Deliver.</t>
+  </si>
+  <si>
+    <t>Token : 1376 
+ Cost : 0.01376$</t>
+  </si>
+  <si>
+    <t>Token : 974 
+ Cost : 0.02922$</t>
+  </si>
+  <si>
+    <t>Token : 2350 
+ Cost : 0.04298$</t>
+  </si>
+  <si>
+    <t>38.4S</t>
+  </si>
+  <si>
+    <t>리아에게 약 전달하기</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "지금 당신이 가지고 있는 약을 리아에게 전달해주시겠습니까?*리아가 당신에게 직접 고마움을 전할 수 있을 겁니다.*당신이 직접 전해준다면 리아도 분명히 기뻐할 겁니다.*고양이를 위해 어려운 일을 맡아준 당신에게 리아가 얼마나 고마워할지 상상이 됩니다.*부디 리아에게 약을 전달해주십시오.",
+  "OnAccept": "리아를 찾아 약을 전달해주셔서 감사합니다. 리아는 이 캠프 안에 있을 겁니다.",
+  "OnRefuse": "아, 알겠습니다. 그렇게 결정하셨다면...",
+  "OnProcess": "리아에게 아직 약을 전달하지 않으셨나요? 시간이 없습니다.",
+  "OnClear": "정말 고맙습니다. 이제 리아의 고양이도 빨리 나을 수 있을 겁니다."
+}</t>
+  </si>
+  <si>
+    <t>리아의 감사 인사 받기</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "고맙습니다, 언니! 고양이가 더욱 건강해질 수 있을 거에요. 당신 덕분이에요!"
+}</t>
+  </si>
+  <si>
+    <t>리아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 타겟 설정 오류. Deliver 퀘스트는 TargetNPC만 생성해야 하지만 "항생제"라는 아이템 까지 타겟에 포함시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS007</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,6 +1042,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
@@ -932,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1553,9 +1948,6 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
       <c r="F16" t="s">
         <v>47</v>
       </c>
@@ -1658,6 +2050,547 @@
       </c>
       <c r="P18" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="363" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" t="s">
+        <v>129</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M22" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="297" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" t="s">
+        <v>163</v>
+      </c>
+      <c r="N24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="396" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" t="s">
+        <v>169</v>
+      </c>
+      <c r="N25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="396" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" t="s">
+        <v>174</v>
+      </c>
+      <c r="M27" t="s">
+        <v>175</v>
+      </c>
+      <c r="N27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="379.5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" t="s">
+        <v>179</v>
+      </c>
+      <c r="L28" t="s">
+        <v>180</v>
+      </c>
+      <c r="M28" t="s">
+        <v>181</v>
+      </c>
+      <c r="N28" t="s">
+        <v>182</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>185</v>
+      </c>
+      <c r="L29" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" t="s">
+        <v>195</v>
+      </c>
+      <c r="L30" t="s">
+        <v>196</v>
+      </c>
+      <c r="M30" t="s">
+        <v>197</v>
+      </c>
+      <c r="N30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="297" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" t="s">
+        <v>195</v>
+      </c>
+      <c r="L31" t="s">
+        <v>196</v>
+      </c>
+      <c r="M31" t="s">
+        <v>197</v>
+      </c>
+      <c r="N31" t="s">
+        <v>198</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" t="s">
+        <v>196</v>
+      </c>
+      <c r="M32" t="s">
+        <v>197</v>
+      </c>
+      <c r="N32" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/QuestTable.xlsx
+++ b/Assets/_ExcelData/QuestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2DAB6C-5E6B-4D4E-96A3-4C6A6CDBFF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D293B8-0AE2-40E8-98EA-E174334E5CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="270">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,13 +87,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>버려진 탄약 상자 회수 작전</t>
-  </si>
-  <si>
     <t>Get</t>
-  </si>
-  <si>
-    <t>버려진 탄약 상자</t>
   </si>
   <si>
     <t>5</t>
@@ -121,7 +115,775 @@
     <t>CM0003</t>
   </si>
   <si>
+    <t>Token : 1463 
+ Cost : 0.04389$</t>
+  </si>
+  <si>
+    <t>Token : 2856 
+ Cost : 0.05782$</t>
+  </si>
+  <si>
+    <t>47.8S</t>
+  </si>
+  <si>
+    <t>리아</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>연계되는 퀘스트 생성. 청소 중에 아빠의 방독면을 망가트려 들킬까봐 노심초사 하고 있다. 방독면 필터를 얻어오는 퀘스트 하나, 방독면 필터를 전달하는 퀘스트 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1189 
+ Cost : 0.01189$</t>
+  </si>
+  <si>
+    <t>Token : 972 
+ Cost : 0.02916$</t>
+  </si>
+  <si>
+    <t>Token : 2161 
+ Cost : 0.04105$</t>
+  </si>
+  <si>
+    <t>37.4S</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FJEIN7456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FJEIN7457</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FJEIN7458</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서쪽 구역의 단서 찾기</t>
+  </si>
+  <si>
+    <t>연구일지</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이번 임무는, 우리 모두에게 중요할 수 있어.*서쪽 구역의 연구소에서... 무전이 끊어진 이유를 찾아야 해.*이건 단순한 사고가 아니야. 무언가... 큰일이 벌어진 거야.*연구소에서 작성된 연구 일지를 찾아와.*그 일지엔, 우리가 알아야 할 모든 정보가 들어있을 거야.*물론, 그 일지를 읽을 수 있는 사람은 많지 않겠지.*하지만 너라면, 할 수 있을 거라 믿어.*내 베이스 캠프에 위협이 될 수 있는 모든 것을 차단해야 해.",
+  "OnAccept": "그래, 이 임무를 수락해줘서 고맙다. 속히 돌아와.",
+  "OnRefuse": "실망이군. 하지만 너의 선택을 존중하지. 다시 생각이 바뀌면 찾아와.",
+  "OnProcess": "아직 연구 일지를 찾지 못했나? 시간이 없어.",
+  "OnClear": "훌륭해! 이 일지가 바로 필요한 것이었어. 이제 닉에게 가져가서 해독을 부탁해야겠어."
+}</t>
+  </si>
+  <si>
+    <t>연계되는 3개의 퀘스트 생성 . 퀘스트 타입은 스토리를 보고 판단해 만들어줘.</t>
+  </si>
+  <si>
+    <t>Token : 1650 
+ Cost : 0.01650$</t>
+  </si>
+  <si>
+    <t>Token : 1411 
+ Cost : 0.04233$</t>
+  </si>
+  <si>
+    <t>Token : 3061 
+ Cost : 0.05883$</t>
+  </si>
+  <si>
+    <t>51.6S</t>
+  </si>
+  <si>
+    <t>CN0002</t>
+  </si>
+  <si>
+    <t>암호화된 일지의 해독</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이 일지를 닉에게 가져가 줘. 그는 우리 캠프의 생존자 중 하나야.*군부대에서 암호 해독관으로 일하던 인재지.*이 일지가 무엇을 의미하는지, 그에게서 들을 수 있을 거야.*시간을 낭비하지 말고 바로 찾아가.*이 일은 우리 모두의 안녕과 직결된 문제일 수 있어.",
+  "OnAccept": "좋아, 닉에게 빠르게 이 일지를 전달해 줘.",
+  "OnRefuse": "너무 시간을 지체하면 안 돼. 다시 생각해보길 바래.",
+  "OnProcess": "닉을 찾지 못했나? 우리 캠프 내에서 그를 찾아봐.",
+  "OnClear": "일지를 닉에게 전달했군. 이제 그의 분석 결과를 기다려보자."
+}</t>
+  </si>
+  <si>
+    <t>CN0003</t>
+  </si>
+  <si>
+    <t>암호 일지의 해독 결과 받기</t>
+  </si>
+  <si>
+    <t>닉</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "연구 일지... 이건 충격적이야. 찰리 중령이 꼭 보아야 할 내용이 들어있어."
+}</t>
+  </si>
+  <si>
+    <t>CM0004</t>
+  </si>
+  <si>
+    <t>변이된 위협 제거하기</t>
+  </si>
+  <si>
+    <t>리자드럴</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "암호가 해독되었어. 그 내용이 말해주듯,*우리 캠프 근처에 강력한 변이체가 출몰한 것 같아.*이 몬스터는 리자드럴이라 불리는데, 매우 강한 맷집을 가지고 있어.*우리 모두의 안전을 위해, 너에게 이 몬스터의 제거를 부탁하고 싶어.*이건 너에게 쉽지 않은 임무겠지만, 너라면 할 수 있을 거야.*조심하고, 준비를 단단히 해서 돌아와라. 우리 모두를 위해서 말이야.",
+  "OnAccept": "너의 용기에 감사해. 무사히 돌아오길 바란다.",
+  "OnRefuse": "이해해. 하지만 이 몬스터는 반드시 제거해야 해. 다시 생각해보길 바라.",
+  "OnProcess": "리자드럴을 찾지 못했어? 우리 캠프의 안전을 위해 서둘러야 해.",
+  "OnClear": "대단해! 리자드럴을 제거하다니, 너의 용기와 힘에 감사드린다. 우리 모두에게 평화를 가져다 준 거야."
+}</t>
+  </si>
+  <si>
+    <t>닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 Target에 오류 발견. 
+수정 전 Target : 연구일지/닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1456320</t>
+  </si>
+  <si>
+    <t>잊혀진 가족의 기억</t>
+  </si>
+  <si>
+    <t>가족사진</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "오랜만에 마주하는 따뜻한 얼굴이군요.* 어쩌면, 당신은 내가 마지막으로 부탁할 수 있는 사람일지도 모르겠습니다.* 내 가족... 아니, 이젠 추억 속에서조차 잊혀져 가는 그들에게 남은 마지막 기억을 찾고자 해요. 동쪽 D1 구역, 제가 살던 집에서 가족사진을 찾아줄 수 있을까요?* 그 사진은 단순히 종이 한 장이 아닙니다.* 우리 가족이 함께 웃고 있는, 그 어떤 것으로도 대체할 수 없는 소중한 기억이 담긴 것이죠.* 아주 간단한 부탁이지만, 이 작은 부탁이 내게는 모든 것을 의미하답니다.* 부디 우리 가족의 마지막 기억을 되찾아 주세요.",
+  "OnAccept": "감사합니다. 저는 당신이 반드시 우리 가족의 사진을 찾아줄 것이라고 믿어 의심치 않습니다.",
+  "OnRefuse": "이해합니다... 이 부탁이 여간 무거운 것이 아니니까요. 하지만, 당신 마음이 변하면 언제든 찾아와주세요...",
+  "OnProcess": "아직 찾지 못했나요? 제발, 저에게 그것은 전부니까요...",
+  "OnClear": "이 사진... 세상에서 가장 소중한 기억이에요. 정말로 감사합니다."
+}</t>
+  </si>
+  <si>
+    <t>연계되는 퀘스트 생성. 가족 사진을 얻어오는 퀘스트 한개, 가족을 영면에 들게 하는 퀘스트 한개로 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1327 
+ Cost : 0.01327$</t>
+  </si>
+  <si>
+    <t>Token : 1166 
+ Cost : 0.03498$</t>
+  </si>
+  <si>
+    <t>Token : 2493 
+ Cost : 0.04825$</t>
+  </si>
+  <si>
+    <t>46.7S</t>
+  </si>
+  <si>
+    <t>C2481762</t>
+  </si>
+  <si>
+    <t>조용한 작별</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "내가 더 이상 부탁할 수 있는 것이 없다고 생각했는데... 하나가 더 있군요. 서쪽 구역에... 제 집에는 변이체로 변한 내 가족들이 있습니다.* 그들에겐 이제 평화가 필요해요. 변이된 그들은 더 이상 이 세상에서 고통받지 않아야 합니다.* 이건 과거의 나, 그리고 내 가족에 대한 마지막 예의일 거예요.* 내 가족들을 영면시켜주실 수 있겠어요? 그들이 이 세상에 더이상 아픔을 느끼지 않게 해주세요.* 당신이라면 할 수 있을 거라고 믿어 의심치 않습니다.* 당신의 도움으로 내 가족들도 마침내 참된 평화를 찾을 수 있을 거예요.* 부디 무사히 돌아오시길 바랍니다.",
+  "OnAccept": "정말로 감사드립니다. 이건 단순히 몬스터를 처리하는 일이 아닙니다. 인간의 마지막 예의이죠.",
+  "OnRefuse": "아, 그렇군요... 이해합니다. 이 일이 결코 쉬운 일은 아니니까요. 그럼에도 불구하고 변경하는 마음이 있다면... 언제든지 도움을 청해주세요.",
+  "OnProcess": "그들이... 아직도 그곳에 있군요. 당신의 안전을 바라며, 우리 가족에게 평화를 선물해 주세요.",
+  "OnClear": "이제 가족들도 평화롭게 잠들 수 있겠군요. 당신의 용기와 친절에 진심으로 감사드립니다."
+}</t>
+  </si>
+  <si>
+    <t>몬스터 수량 변경.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크리머 / 부머</t>
+  </si>
+  <si>
+    <t>5 / 3</t>
+  </si>
+  <si>
+    <t>Token : 832 
+ Cost : 0.00832$</t>
+  </si>
+  <si>
+    <t>Token : 612 
+ Cost : 0.01836$</t>
+  </si>
+  <si>
+    <t>31.2S</t>
+  </si>
+  <si>
+    <t>퀘스트 생성을 요청할 때 전송한 스토리는 퀘스트의 본래 목적을 숨겨야 하지만 생성된 퀘스트는 본래 목적을 숨기지 않았다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 일기를 찾아서</t>
+  </si>
+  <si>
+    <t>연계되는 퀘스트 생성. 생성할 퀘스트의 타입은 Deliver, Fight, Get으로 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1265 
+ Cost : 0.01265$</t>
+  </si>
+  <si>
+    <t>Token : 1716 
+ Cost : 0.05148$</t>
+  </si>
+  <si>
+    <t>Token : 2981 
+ Cost : 0.06413$</t>
+  </si>
+  <si>
+    <t>62.1S</t>
+  </si>
+  <si>
+    <t>리아에게의 안전한 귀환</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "아빠가 내 일기를 읽고 걱정했다는 걸 알아. 그래도 이걸 직접 전해줘서 고마워. 다음부턴 더 조심할게."
+}</t>
+  </si>
+  <si>
+    <t>위협 제거: 변이체 소탕</t>
+  </si>
+  <si>
+    <t>변이체1호/부머</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>서쪽 D1 구역의 비상약품상자 회수</t>
+  </si>
+  <si>
+    <t>비상약품상자</t>
+  </si>
+  <si>
+    <t>문단 분리 오류 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "마지막으로 너에게 부탁할 임무가 하나 더 있어. 서쪽 D1 구역에 비상약품상자가 있어.* 그 지역은 변이체들의 활동이 잦아진 곳인데, 상자 안에는 우리 베이스 캠프에서 필요한 중요한 의료용품들이 들어 있어.* 너에게 그 상자를 찾아와달라고 부탁하고 싶어.* 변이체들에게 조심하면서도 신속히 움직여주면 좋겠어*. 안전하게 상자를 회수해 우리 베이스 캠프로 가져오면, 큰 도움이 될 거야.",
+  "OnAccept": "좋아, 그 지역을 잘 안다면 빨리 움직여. 기다리고 있겠어.",
+  "OnRefuse": "이 임무는 우리 모두에게 중요해. 다시 한번 생각해보길 바라.",
+  "OnProcess": "비상약품상자를 찾았나? 시간이 중요해. 서둘러야 해.",
+  "OnClear": "비상약품상자를 안전하게 가져와줘서 고마워. 이제 베이스 캠프의 안전과 건강을 위한 준비가 더 잘될 것 같아."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "최근 베이스 캠프 주변을 순찰 중, 나는 우연히 리아가 적은 일기를 발견했어.*이 일기는 리아가 최근 우리 베이스 캠프 밖으로 몰래 나갔음을 알려주고 있으니, 크게 걱정이 되는군.*리아에게 자유는 중요하지만, 그녀가 외부 환경에서 어떤 위험에 처할지 모른다는 점이 나를 두렵게 해.*너에게 이 일기를 리아에게 대신 전해주길 바란다.*이 일로 리아가 앞으로 더 주의를 기울이길 바라며, 무엇보다 안전하게 돌아오기를.*마지막으로, 이 모험에서 너도 조심하길 바란다. 베이스 캠프 주변엔 위험한 변이체들이 돌아다니니까.*리아가 외출 환경의 위험을 인지할 수 있도록 너의 행동으로 보여줘.",
+  "OnAccept": "그래, 이 일기를 리아에게 잘 전해주도록.",
+  "OnRefuse": "내 말을 신중하게 다시 생각해 보길 바라.",
+  "OnProcess": "리아에게 일기를 전달했나? 시간이 없으니 서둘러야 해.",
+  "OnClear": "일기를 리아에게 전달해줘서 고마워. 너의 도움이 큰 의미가 있었어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 문맥상 맞지 않는 문장 제거.
+함께 주변 청소와 물자를 가져다 달라는 부탁도 전해줘.
+-&gt; 리아에게 부탁을 전달하는 것이 아님.
+거절 시 문장 수정.
+-&gt; 진정해 ~ (제거)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문단 분리 오류 발생
+1. OnAccept 의 문법 오류 수정.
+       * 잘됐어 제거.
+2. OnStart 의 문법 오류 수정.
+       * 변이체 1호와 부머라는 "의" 변이체들이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "바로 진행할 수 있는 다른 중요한 임무가 있어.* 베이스 캠프 주변에 변이체1호와 부머라는 변이체들이 출현했어. 이 녀석들이 주변의 안전을 위협하고 있지.* 너에게 이 변이체들을 제거해 줄 것을 요청하마. 변이체1호 3마리와 부머 2마리만 해치워 주면 될 거야.* 이 임무는 베이스 캠프의 안전을 확보하는 데 큰 도움이 될 거고, 리아 같은 이들이 외부로 나갔을 때의 위험을 줄여 줄 거야. 임무 완료 후엔 나에게 돌아오라고.",
+  "OnAccept": "빠르게 움직여. 변이체들이 더 늘어나기 전에 처리해야 해.",
+  "OnRefuse": "정말로 거절하겠어? 베이스 캠프의 안전이 걸린 문제야.",
+  "OnProcess": "변이체 소탕은 어떻게 되가고 있나? 시간이 얼마 남지 않았어.",
+  "OnClear": "변이체 소탕 임무를 완료해줘서 고마워. 이제 베이스 캠프는 좀 더 안전해졌어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "네가 방금 보여준 실력, 정말 인상적이었어. 하지만 우리 앞에는 더 많은 도전이 기다리고 있지.*서쪽 D1 구역에 버려진 탄약 상자들이 있어. 우리에겐 그 탄약들이 절실히 필요하거든.*하지만 그 지역은 위험해. 변이체들만 있는 게 아니야.*그래도 네가 가져온다면, 우리는 그만큼 더 강해질 수 있어.*네가 가져올 수 있겠나?",
+  "OnAccept": "빠르고 조심스럽게 해. 우리가 기다리고 있을게.",
+  "OnRefuse": "알겠어, 너의 선택을 존중하지. 하지만 우리가 처한 상황을 다시 생각해봐.",
+  "OnProcess": "아직 탄약들을 찾지 못했나? 시간이 없어, 서둘러.",
+  "OnClear": "이걸로 우리는 한층 더 강해질 수 있어. 수고했어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "네가 우리에게 필요한 물자를 가져와 준 것에 대해 진심으로 고마워.*하지만 우리 앞에 놓인 문제는 여전히 많아. 특히 스크리머들 때문에 많은 문제를 겪고 있어.*그 녀석들은 시야가 넓고 매우 빠르기 때문에 우리에게 큰 위협이 되고 있거든.*네가 이전에 해냈던 것처럼 그들을 처리해 줄 수 있겠나?*이 작전이 성공한다면, 우리는 좀 더 안전하게 지역을 확장할 수 있을 거야.*우리의 미래를 위해, 한 번 더 네 힘을 보여줘.",
+  "OnAccept": "기대하고 있겠어. 조심하고, 스크리머들을 빠르게 처리해줘.",
+  "OnRefuse": "거절한다면, 너도 위험에 처할 거야. 다시 한번 생각해봐.",
+  "OnProcess": "스크리머들이 여전히 문제를 일으키고 있어. 얼마나 처리했나?",
+  "OnClear": "정말 대단해. 네 덕분에 우리는 더욱 안전해졌어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "언니, 잠깐 시간 괜찮아? *엄청나게 중요한 일인데, 정말 아무에게도 말 못 할 일이야. *아빠의 방독면 필터를... 망가뜨렸어. *아빠가 알게 되면 엄청나게 화를 낼 거야. *그래서 언니에게 부탁하고 싶은 게 있어. *서쪽 D1 구역에서 방독면 필터를 하나 구해 와 줄 수 있을까? *아빠에게 들키기 전에 빨리 해결해야 해.",
+  "OnAccept": "진짜? 도와줄 거야? 정말 고마워, 언니!",
+  "OnRefuse": "아... 그래. 언니도 바쁘니까... 다른 방법을 찾아볼게.",
+  "OnProcess": "아직 방독면 필터를 구하지 못한 거야? 아빠가 언제 방을 확인할지 몰라서 정말 불안해...",
+  "OnClear": "이거야! 정말 언니가 최고야! 이제 아빠 방독면을 괜찮게 만들 수 있을 거 같아."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSM01</t>
+  </si>
+  <si>
+    <t>CSM02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSM03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSM04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1234567</t>
+  </si>
+  <si>
+    <t>잃어버린 추억 찾기</t>
+  </si>
+  <si>
+    <t>곰인형/결혼반지</t>
+  </si>
+  <si>
+    <t>연계 퀘스트 생성. Get, Deliver로 퀘스트 생성.</t>
+  </si>
+  <si>
+    <t>Token : 1117 
+ Cost : 0.03351$</t>
+  </si>
+  <si>
+    <t>Token : 2444 
+ Cost : 0.04678$</t>
+  </si>
+  <si>
+    <t>38.8S</t>
+  </si>
+  <si>
+    <t>D7654321</t>
+  </si>
+  <si>
+    <t>중령에게 반지를</t>
+  </si>
+  <si>
+    <t>F9876543</t>
+  </si>
+  <si>
+    <t>중령의 감사</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "이 결혼 반지를 찾아와 준 걸로 리아에게 좋은 기억을 되찾아 줄 수 있을 것 같구나. 고맙다."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문맥상 어울리지 않는 "이제 나와의 신뢰는 굳건해질 거야" 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "언니, 저... 정말 부탁하나만 들어줄 수 있어?*저희 베이스 캠프로 도망치는 길에, 저는 제가 가장 소중하게 여기던 두 가지를 잃어버렸어.*하나는 어머니께서 저한테 주신 곰인형이고, 다른 하나는 아빠가 어머니께 줬던 결혼 반지야.*어머니는 이미... 하지만 그 반지와 곰인형만큼은 꼭 다시 찾고 싶어.*곰인형은 서쪽 D1 구역에서, 결혼반지는 동쪽 D1 구역에서 잃어버렸어.*부디 찾아줄 수 있겠니? 나에게는 그것들이 전부야.",
+  "OnAccept": "정말? 고마워, 언니! 빨리 돌아오길 바랄게.",
+  "OnRefuse": "알겠어... 누군가에게 이런 걸 부탁하는 게 쉽지 않네.",
+  "OnProcess": "아직 찾지 못했구나... 부탁한 건, 서쪽 D1 구역의 곰인형과 동쪽 D1 구역의 결혼반지야.",
+  "OnClear": "이게 정말...! 언니, 정말로 고맙다! 이제 어머니와 아빠의 기억을 제대로 간직할 수 있을 것 같아."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 말투가 아닌 찰리 중령의 말투를 사용.
+OnClear 스크립트 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "언니, 곰인형과 결혼반지를 찾아줘서 정말로 고마워.*이번에는... 아빠한테 결혼반지를 전해줄 수 있겠니?*아빠는 찰리 중령이야. 베이스 캠프의 지휘관이지.*아빠는 지금 플레이어를 크게 신용하지 않고 있어서 좀 까칠할 수도 있어.*하지만 이 반지를 보면 분명 감동받을 거야. 내가 언니를 믿어서 부탁하는 거니까, 부탁해.",
+  "OnAccept": "아빠한테 잘 전달해줘. 언니가 도와줘서 든든해!",
+  "OnRefuse": "그럴 줄 알았어... 아무튼 고마웠어, 언니.",
+  "OnProcess": "아빠한테 아직 결혼반지를 전달하지 못했구나. 아빠는 베이스 캠프의 지휘관실에 있어.",
+  "OnClear": "고마워 언니! 덕분에 한시름 놓을 수 있게 되었어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM0003412345</t>
+  </si>
+  <si>
+    <t>잃어버린 해독기 찾기</t>
+  </si>
+  <si>
+    <t>암호해독기</t>
+  </si>
+  <si>
+    <t>연계 퀘스트 생성. 퀘스트 타입은 Get, Fight. 존댓말 사용.</t>
+  </si>
+  <si>
+    <t>Token : 1440 
+ Cost : 0.01440$</t>
+  </si>
+  <si>
+    <t>Token : 975 
+ Cost : 0.02925$</t>
+  </si>
+  <si>
+    <t>Token : 2415 
+ Cost : 0.04365$</t>
+  </si>
+  <si>
+    <t>42.3S</t>
+  </si>
+  <si>
+    <t>CM0003789012</t>
+  </si>
+  <si>
+    <t>스캐빈저와의 첫 조우</t>
+  </si>
+  <si>
+    <t>스캐빈저</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "해독기 덕분에 스캐빈저에 대한 정보를 해독할 수 있었어요.*하지만 이론만으로는 충분한 대비가 어렵죠.*스캐빈저의 실제 습성을 관찰할 필요가 있습니다.*이번엔 스캐빈저를 직접 마주하고, 카메라를 단 상태로 전투를 요청드립니다.*스캐빈저의 행동 패턴을 분석할 수 있게 될 거예요.*위험한 임무지만, 당신이라면 할 수 있을 겁니다.*준비가 되시면 스캐빈저를 찾아서 전투를 시작해 주세요.",
+  "OnAccept": "신중을 기해 주세요. 스캐빈저는 예상외로 빠르고 위험할 수 있습니다.",
+  "OnRefuse": "아직 준비가 덜 되셨나요? 충분히 이해합니다. 하지만 준비가 되면 다시 말씀해주세요.",
+  "OnProcess": "스캐빈저와의 전투, 어떻게 되고 있나요? 조심하세요.",
+  "OnClear": "전투 데이터를 잘 취합해둘게요. 이 자료는 큰 도움이 될 겁니다. 정말 감사드려요."
+}</t>
+  </si>
+  <si>
+    <t>OnStart의 어색한 문구 수정. 존댓말 사용 요구 불이행.
+-&gt; "아, 바로 당신이라면 부탁할게 있어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "여러 일 때문에 바쁘시겠지만 부탁할게 있어요.*연구소에서 구한 암호 일지, 기억하시죠?*해석하다 보니 스캐빈저에 대한 정보가 나왔어요.*하지만 정보가 부족해서 완전히 해석할 수가 없습니다.*연구 일지에 따르면, 연구소 서쪽 구역에 해독에 필요한 해독기가 있다고 해요.*이 해독기를 찾아주실 수 있나요?*이 정보가 정확하다면, 스캐빈저에 대한 이해를 높일 수 있을 겁니다.",
+  "OnAccept": "감사합니다. 서쪽 구역에 조심히 가 보세요. 여러 위험이 도사리고 있을 테니까요.",
+  "OnRefuse": "그렇군요, 이해합니다. 하지만 만약 마음이 바뀌면 언제든지 도와주세요.",
+  "OnProcess": "아직 해독기를 찾지 못하셨군요. 서쪽 구역을 잘 살펴보세요.",
+  "OnClear": "이게 바로 그 해독기군요! 정말 대단해요. 이제 남은 정보를 완전히 해석할 수 있을 거예요."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV파일</t>
+  </si>
+  <si>
+    <t>릭커</t>
+  </si>
+  <si>
+    <t>폭탄</t>
+  </si>
+  <si>
+    <t>변이체의 원인 찾기</t>
+  </si>
+  <si>
+    <t>부머/스캐빈저</t>
+  </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "최근 변이체가 늘어만 가고 있어.*이 문제를 해결하기 위해선 원인을 뿌리뽑아야 해.*주변에 변이체가 자주 목격된다는 보고가 있어.*네가 그 근처를 조사해주길 바라.*부머와 스캐빈저, 두 종류의 변이체를 살펴봐.*적어도 5마리의 부머와 3마리의 스캐빈저를 처리해줘.*주의해, 이들은 상당히 위험하니까.",
+  "OnAccept": "알겠어, 부디 조심해.",
+  "OnRefuse": "아직 준비가 안 됐다면, 언제든지 나중에 말해줘.",
+  "OnProcess": "아직 부머와 스캐빈저를 제대로 처리하지 못한 것 같군. 조사가 끝나면 바로 보고해.",
+  "OnClear": "수고했어. 이제 이 정보를 바탕으로 다음 단계를 준비할 수 있겠어."
+}</t>
+  </si>
+  <si>
+    <t>Token : 1122 
+ Cost : 0.01122$</t>
+  </si>
+  <si>
+    <t>Token : 418 
+ Cost : 0.01254$</t>
+  </si>
+  <si>
+    <t>Token : 1540 
+ Cost : 0.02376$</t>
+  </si>
+  <si>
+    <t>17S</t>
+  </si>
+  <si>
+    <t>지나간 그림자, 남겨진 단서</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "변이체를 소탕해준 건 잘했어. 하지만 그 과정에서 네가 말한 거대한 물체의 존재가 나를 꽤나 걱정하게 만들고 있어.*CCTV 파일을 통해서라도 그 정체가 무엇인지 확인해보려고 해.*주변 지역의 CCTV를 확인해볼 필요가 있어. 우리의 통신 장비로는 접근하기 힘든 상태야.*세 곳의 CCTV에서 파일을 모아와. 그 안에 분명 무언가 단서가 있을 거야.*어떤 위험이 도사리고 있는지, 아니면 우리가 놓친 중요한 정보가 있는지 확인해봐야 해.*시간이 얼마 없어. 가능한 빠르게 움직여줘. 나는 여기서 기다리겠어.*조심하고, 꼭 필요한 파일만 가져와. 불필요한 정보는 우리에게 방해만 될 거야.",
+  "OnAccept": "좋아, 그 정보가 우리에게 많은 걸 가르쳐줄 거야. 빠르게 움직여.",
+  "OnRefuse": "이해해. 하지만 네 결정이 우리 모두에게 어떤 결과를 가져올지 생각해봐.",
+  "OnProcess": "CCTV 파일은 모두 모아왔나? 그 안에 답이 있을 거야.",
+  "OnClear": "이 파일들이 우리에게 필요한 답을 주길 바라. 고마워."
+}</t>
+  </si>
+  <si>
+    <t>Token : 1120 
+ Cost : 0.01120$</t>
+  </si>
+  <si>
+    <t>Token : 540 
+ Cost : 0.01620$</t>
+  </si>
+  <si>
+    <t>Token : 1660 
+ Cost : 0.02740$</t>
+  </si>
+  <si>
+    <t>22.4S</t>
+  </si>
+  <si>
+    <t>찰리 중령의 요청: CCTV 자료 전달</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이 CCTV 영상들을 자세히 봤어. 우리가 최근 들었던 그 무전과 연결된 걸까?*실제로 우리 기지 근처에서 어떤 새로운 변이체의 활동이 포착됐다는 보고가 있었어.*이 자료들을 닉에게 전해줄래? 그는 과거 군부대에서 암호 해독을 담당했었지. 분명히 도움이 될 거야.*영상에 나온 변이체에 대한 정보를 최대한 빨리 알아내야 해. 우리의 안전이 달린 문제니까.*닉은 캠프 내에서 쉽게 찾을 수 있을 거야. 그가 이 자료를 확인하고 뭔가 알아낼 수 있기를 바란다.*시간이 얼마 없어. 빨리 움직여줘. 닉이 이 자료를 보고 뭔가 알아내길 바라.*너의 도움으로 더 큰 위기를 막을 수 있을 거라 믿어.",
+  "OnAccept": "잘 했어. 신속하게 움직이는 건 지금 우리에게 가장 중요한 일이니까.",
+  "OnRefuse": "이건 우리 모두의 안전을 위한 일이야. 다시 한번 생각해보게.",
+  "OnProcess": "CCTV 자료를 닉에게 전달했나? 우리에게는 시간이 없어.",
+  "OnClear": "자료를 닉에게 전달했군. 이제 그 결과를 기다릴 때야. 고마워."
+}</t>
+  </si>
+  <si>
+    <t>Token : 1203 
+ Cost : 0.01203$</t>
+  </si>
+  <si>
+    <t>Token : 749 
+ Cost : 0.02247$</t>
+  </si>
+  <si>
+    <t>Token : 1952 
+ Cost : 0.03450$</t>
+  </si>
+  <si>
+    <t>닉의 분석: 변이체의 실체</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "찰리 중령에게 받은 자료를 바탕으로, 이 변이체가 실제로 우리가 무전에서 들었던 새로운 종류라는 걸 확인했어. 이 정보는 우리가 앞으로 나아가는 데 큰 도움이 될 거야. 수고했어."
+}</t>
+  </si>
+  <si>
+    <t>변이체 릭커 처치 명령</t>
+  </si>
+  <si>
+    <t>Token : 1088 
+ Cost : 0.01088$</t>
+  </si>
+  <si>
+    <t>Token : 553 
+ Cost : 0.01659$</t>
+  </si>
+  <si>
+    <t>Token : 1641 
+ Cost : 0.02747$</t>
+  </si>
+  <si>
+    <t>21.5S</t>
+  </si>
+  <si>
+    <t>연구소 폭파를 위한 준비</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "변이체 제거는 단기적인 해결책에 불과해. 우린 더 근본적인 조치를 취해야만 해.*연구소... 그곳이 모든 문제의 원흉이야. 그곳을 파괴하면, 변이체의 확산도 막을 수 있겠지.*폭탄을 구해와야 해. 동쪽 D1 구역에 폭탄이 숨겨져 있다는 정보를 입수했어.*넌 이미 여러 번 우리를 위험에서 구해냈지. 이번에도 너에게 부탁하고 싶어.*시간이 없어. 빠르게 움직여야 해. 폭탄을 얻어 우리가 연구소를 폭파할 준비를 할 수 있도록 도와줘.*이번 임무는 쉽지 않겠지만, 네가 아니면 누구도 할 수 없는 일이야. 우리 모두를 위해 부탁해.*조심히 다녀와. 그리고 무엇보다, 너 자신을 보호해.",
+  "OnAccept": "좋아, 빠르게 움직여. 시간이 없어. 폭탄을 구해서 돌아오는 걸 기다리겠어.",
+  "OnRefuse": "이해해. 하지만 우리는 다른 선택지가 없어. 다시 생각해보고 준비가 되면 말해줘.",
+  "OnProcess": "아직 폭탄을 구하지 못했나? 동쪽 D1 구역에 있어. 서둘러줘.",
+  "OnClear": "폭탄을 구해왔군. 잘했어. 이제 우리는 다음 단계로 나아갈 준비가 됐어."
+}</t>
+  </si>
+  <si>
+    <t>Token : 1111 
+ Cost : 0.01111$</t>
+  </si>
+  <si>
+    <t>Token : 593 
+ Cost : 0.01779$</t>
+  </si>
+  <si>
+    <t>Token : 1704 
+ Cost : 0.02890$</t>
+  </si>
+  <si>
+    <t>25.2S</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "닉이 넘겨준 CCTV 분석 결과를 보니, 그 변이체가 우리의 안전을 심각하게 위협하고 있어.*이 릭커라 불리는 변이체, 오른손의 공격은 상당히 치명적이야. 이대로 둘 수만은 없어.*내 명령이다. 릭커를 찾아 처치하고 돌아오도록.*이번 작전은 단순한 사냥이 아니라, 우리 모두를 위한 필수적인 작업이야.*조심하고, 최선을 다해. 네가 얼마나 뛰어난지 잘 알고 있으니, 분명 이 임무도 해낼 거야.*모두의 안전을 위해, 실패는 용납할 수 없어. 무사히 돌아와.*가서 그 괴물을 끝장내고 오도록.",
+  "OnAccept": "그래, 그 결정을 내린 것을 환영한다. 조심하고, 무사히 돌아와.",
+  "OnRefuse": "모두의 안녕을 위해 너의 힘이 필요한데, 이런 결정이 유감이다.",
+  "OnProcess": "릭커를 아직 못 찾았나? 시간이 없어, 우리 모두의 안전을 위해 서둘러야 해.",
+  "OnClear": "릭커를 처치했다고? 잘 했어, 정말 자랑스럽다. 이제 우리 모두 좀 더 안심할 수 있겠어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 NPC의 이름을 포함하여 삭제.
+리아, 닉이 넘겨준 … 여기서 리아 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리아의 고양이를 위한 치료제 찾기</t>
+  </si>
+  <si>
+    <t>항생제</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "어서 오십시오. 제게 중요한 부탁이 있어요.*리아 중령의 딸, 리아가 최근에 저에게 자신이 키우는 고양이에 대해 걱정을 털어놓았습니다.*불쌍한 녀석이 감기에 걸려 상태가 좋지 않다고 해요.*이 지역에서는 치료할 약을 구하기가 쉽지 않지만, 서쪽 D1 구역에서 항생제를 찾을 수 있을 겁니다.*리아도 저도 이 상황에서 별 도움이 되지 못해 마음이 무겁습니다.*당신이라면 그 약을 찾아낼 수 있을 것 같습니다. 리아의 고양이를 위해 항생제를 얻어 올 수 있겠습니까?*부탁드립니다.",
+  "OnAccept": "감사합니다. 서쪽 D1 구역에서 약을 찾아주세요.",
+  "OnRefuse": "그렇군요, 이해합니다. 혹시 마음이 바뀌면 다시 말씀해주세요.",
+  "OnProcess": "항생제를 찾으셨나요? 리아의 고양이가 기다리고 있어요.",
+  "OnClear": "이 약으로 고양이가 꼭 나아주기를 바랍니다. 고생 많으셨습니다."
+}</t>
+  </si>
+  <si>
+    <t>연계 퀘스트 생성. 퀘스트 타입은 Get, Deliver.</t>
+  </si>
+  <si>
+    <t>Token : 1376 
+ Cost : 0.01376$</t>
+  </si>
+  <si>
+    <t>Token : 974 
+ Cost : 0.02922$</t>
+  </si>
+  <si>
+    <t>Token : 2350 
+ Cost : 0.04298$</t>
+  </si>
+  <si>
+    <t>38.4S</t>
+  </si>
+  <si>
+    <t>리아에게 약 전달하기</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "지금 당신이 가지고 있는 약을 리아에게 전달해주시겠습니까?*리아가 당신에게 직접 고마움을 전할 수 있을 겁니다.*당신이 직접 전해준다면 리아도 분명히 기뻐할 겁니다.*고양이를 위해 어려운 일을 맡아준 당신에게 리아가 얼마나 고마워할지 상상이 됩니다.*부디 리아에게 약을 전달해주십시오.",
+  "OnAccept": "리아를 찾아 약을 전달해주셔서 감사합니다. 리아는 이 캠프 안에 있을 겁니다.",
+  "OnRefuse": "아, 알겠습니다. 그렇게 결정하셨다면...",
+  "OnProcess": "리아에게 아직 약을 전달하지 않으셨나요? 시간이 없습니다.",
+  "OnClear": "정말 고맙습니다. 이제 리아의 고양이도 빨리 나을 수 있을 겁니다."
+}</t>
+  </si>
+  <si>
+    <t>리아의 감사 인사 받기</t>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "고맙습니다, 언니! 고양이가 더욱 건강해질 수 있을 거에요. 당신 덕분이에요!"
+}</t>
+  </si>
+  <si>
+    <t>리아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 타겟 설정 오류. Deliver 퀘스트는 TargetNPC만 생성해야 하지만 "항생제"라는 아이템 까지 타겟에 포함시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계되는 3개의 퀘스트 생성. 각 퀘스트 타입은 전투,얻어오기,전투.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>베이스 캠프 주변의 변이체 청소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이체1호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -131,56 +893,40 @@
   "OnProcess": "변이체1호들을 다 처리했나? 아직 끝나지 않았다면 빨리 해치워.",
   "OnClear": "잘했어. 이걸로 네가 우리 팀에 도움이 될 수 있다는 걸 증명했어."
 }</t>
-  </si>
-  <si>
-    <t>Token : 1463 
- Cost : 0.04389$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버려진 탄약 상자 회수 작전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버려진 탄약 상자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크리머 정리 작전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Token : 2856 
  Cost : 0.05782$</t>
-  </si>
-  <si>
-    <t>47.8S</t>
-  </si>
-  <si>
-    <t>스크리머 정리 작전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계되는 퀘스트 생성. 청소 중에 아빠의 방독면을 망가트려 들킬까봐 노심초사 하고 있다. 방독면 필터를 얻어오는 퀘스트 하나, 방독면 필터를 전달하는 퀘스트 생성.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>잃어버린 방독면 필터 찾기</t>
-  </si>
-  <si>
-    <t>리아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>방독면 필터</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>연계되는 퀘스트 생성. 청소 중에 아빠의 방독면을 망가트려 들킬까봐 노심초사 하고 있다. 방독면 필터를 얻어오는 퀘스트 하나, 방독면 필터를 전달하는 퀘스트 생성.</t>
-  </si>
-  <si>
-    <t>Token : 1189 
- Cost : 0.01189$</t>
-  </si>
-  <si>
-    <t>Token : 972 
- Cost : 0.02916$</t>
-  </si>
-  <si>
-    <t>Token : 2161 
- Cost : 0.04105$</t>
-  </si>
-  <si>
-    <t>37.4S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>찰리 중령에게 방독면 필터 전달</t>
-  </si>
-  <si>
-    <t>Deliver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -190,192 +936,21 @@
   "OnProcess": "아직 아빠한테 필터를 전달하지 못했어? 정말 빨리 해야 해...",
   "OnClear": "언니 덕분에 아빠한테 안 들키고 필터를 전달할 수 있었어! 정말, 정말 고마워!"
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>방독면 필터 전달 완료</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
   "OnClear": "방독면 필터를 전달해줘서 고맙군. 이 필터 덕분에 더 안전하게 임무를 수행할 수 있겠어."
 }</t>
-  </si>
-  <si>
-    <t>FJEIN7456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FJEIN7457</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FJEIN7458</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서쪽 구역의 단서 찾기</t>
-  </si>
-  <si>
-    <t>연구일지</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "이번 임무는, 우리 모두에게 중요할 수 있어.*서쪽 구역의 연구소에서... 무전이 끊어진 이유를 찾아야 해.*이건 단순한 사고가 아니야. 무언가... 큰일이 벌어진 거야.*연구소에서 작성된 연구 일지를 찾아와.*그 일지엔, 우리가 알아야 할 모든 정보가 들어있을 거야.*물론, 그 일지를 읽을 수 있는 사람은 많지 않겠지.*하지만 너라면, 할 수 있을 거라 믿어.*내 베이스 캠프에 위협이 될 수 있는 모든 것을 차단해야 해.",
-  "OnAccept": "그래, 이 임무를 수락해줘서 고맙다. 속히 돌아와.",
-  "OnRefuse": "실망이군. 하지만 너의 선택을 존중하지. 다시 생각이 바뀌면 찾아와.",
-  "OnProcess": "아직 연구 일지를 찾지 못했나? 시간이 없어.",
-  "OnClear": "훌륭해! 이 일지가 바로 필요한 것이었어. 이제 닉에게 가져가서 해독을 부탁해야겠어."
-}</t>
-  </si>
-  <si>
-    <t>연계되는 3개의 퀘스트 생성 . 퀘스트 타입은 스토리를 보고 판단해 만들어줘.</t>
-  </si>
-  <si>
-    <t>Token : 1650 
- Cost : 0.01650$</t>
-  </si>
-  <si>
-    <t>Token : 1411 
- Cost : 0.04233$</t>
-  </si>
-  <si>
-    <t>Token : 3061 
- Cost : 0.05883$</t>
-  </si>
-  <si>
-    <t>51.6S</t>
-  </si>
-  <si>
-    <t>CN0002</t>
-  </si>
-  <si>
-    <t>암호화된 일지의 해독</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "이 일지를 닉에게 가져가 줘. 그는 우리 캠프의 생존자 중 하나야.*군부대에서 암호 해독관으로 일하던 인재지.*이 일지가 무엇을 의미하는지, 그에게서 들을 수 있을 거야.*시간을 낭비하지 말고 바로 찾아가.*이 일은 우리 모두의 안녕과 직결된 문제일 수 있어.",
-  "OnAccept": "좋아, 닉에게 빠르게 이 일지를 전달해 줘.",
-  "OnRefuse": "너무 시간을 지체하면 안 돼. 다시 생각해보길 바래.",
-  "OnProcess": "닉을 찾지 못했나? 우리 캠프 내에서 그를 찾아봐.",
-  "OnClear": "일지를 닉에게 전달했군. 이제 그의 분석 결과를 기다려보자."
-}</t>
-  </si>
-  <si>
-    <t>CN0003</t>
-  </si>
-  <si>
-    <t>암호 일지의 해독 결과 받기</t>
-  </si>
-  <si>
-    <t>닉</t>
-  </si>
-  <si>
-    <t>{
-  "OnClear": "연구 일지... 이건 충격적이야. 찰리 중령이 꼭 보아야 할 내용이 들어있어."
-}</t>
-  </si>
-  <si>
-    <t>CM0004</t>
-  </si>
-  <si>
-    <t>변이된 위협 제거하기</t>
-  </si>
-  <si>
-    <t>리자드럴</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "암호가 해독되었어. 그 내용이 말해주듯,*우리 캠프 근처에 강력한 변이체가 출몰한 것 같아.*이 몬스터는 리자드럴이라 불리는데, 매우 강한 맷집을 가지고 있어.*우리 모두의 안전을 위해, 너에게 이 몬스터의 제거를 부탁하고 싶어.*이건 너에게 쉽지 않은 임무겠지만, 너라면 할 수 있을 거야.*조심하고, 준비를 단단히 해서 돌아와라. 우리 모두를 위해서 말이야.",
-  "OnAccept": "너의 용기에 감사해. 무사히 돌아오길 바란다.",
-  "OnRefuse": "이해해. 하지만 이 몬스터는 반드시 제거해야 해. 다시 생각해보길 바라.",
-  "OnProcess": "리자드럴을 찾지 못했어? 우리 캠프의 안전을 위해 서둘러야 해.",
-  "OnClear": "대단해! 리자드럴을 제거하다니, 너의 용기와 힘에 감사드린다. 우리 모두에게 평화를 가져다 준 거야."
-}</t>
-  </si>
-  <si>
-    <t>닉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정된 Target에 오류 발견. 
-수정 전 Target : 연구일지/닉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1456320</t>
-  </si>
-  <si>
-    <t>잊혀진 가족의 기억</t>
-  </si>
-  <si>
-    <t>가족사진</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "오랜만에 마주하는 따뜻한 얼굴이군요.* 어쩌면, 당신은 내가 마지막으로 부탁할 수 있는 사람일지도 모르겠습니다.* 내 가족... 아니, 이젠 추억 속에서조차 잊혀져 가는 그들에게 남은 마지막 기억을 찾고자 해요. 동쪽 D1 구역, 제가 살던 집에서 가족사진을 찾아줄 수 있을까요?* 그 사진은 단순히 종이 한 장이 아닙니다.* 우리 가족이 함께 웃고 있는, 그 어떤 것으로도 대체할 수 없는 소중한 기억이 담긴 것이죠.* 아주 간단한 부탁이지만, 이 작은 부탁이 내게는 모든 것을 의미하답니다.* 부디 우리 가족의 마지막 기억을 되찾아 주세요.",
-  "OnAccept": "감사합니다. 저는 당신이 반드시 우리 가족의 사진을 찾아줄 것이라고 믿어 의심치 않습니다.",
-  "OnRefuse": "이해합니다... 이 부탁이 여간 무거운 것이 아니니까요. 하지만, 당신 마음이 변하면 언제든 찾아와주세요...",
-  "OnProcess": "아직 찾지 못했나요? 제발, 저에게 그것은 전부니까요...",
-  "OnClear": "이 사진... 세상에서 가장 소중한 기억이에요. 정말로 감사합니다."
-}</t>
-  </si>
-  <si>
-    <t>연계되는 퀘스트 생성. 가족 사진을 얻어오는 퀘스트 한개, 가족을 영면에 들게 하는 퀘스트 한개로 생성.</t>
-  </si>
-  <si>
-    <t>Token : 1327 
- Cost : 0.01327$</t>
-  </si>
-  <si>
-    <t>Token : 1166 
- Cost : 0.03498$</t>
-  </si>
-  <si>
-    <t>Token : 2493 
- Cost : 0.04825$</t>
-  </si>
-  <si>
-    <t>46.7S</t>
-  </si>
-  <si>
-    <t>C2481762</t>
-  </si>
-  <si>
-    <t>조용한 작별</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "내가 더 이상 부탁할 수 있는 것이 없다고 생각했는데... 하나가 더 있군요. 서쪽 구역에... 제 집에는 변이체로 변한 내 가족들이 있습니다.* 그들에겐 이제 평화가 필요해요. 변이된 그들은 더 이상 이 세상에서 고통받지 않아야 합니다.* 이건 과거의 나, 그리고 내 가족에 대한 마지막 예의일 거예요.* 내 가족들을 영면시켜주실 수 있겠어요? 그들이 이 세상에 더이상 아픔을 느끼지 않게 해주세요.* 당신이라면 할 수 있을 거라고 믿어 의심치 않습니다.* 당신의 도움으로 내 가족들도 마침내 참된 평화를 찾을 수 있을 거예요.* 부디 무사히 돌아오시길 바랍니다.",
-  "OnAccept": "정말로 감사드립니다. 이건 단순히 몬스터를 처리하는 일이 아닙니다. 인간의 마지막 예의이죠.",
-  "OnRefuse": "아, 그렇군요... 이해합니다. 이 일이 결코 쉬운 일은 아니니까요. 그럼에도 불구하고 변경하는 마음이 있다면... 언제든지 도움을 청해주세요.",
-  "OnProcess": "그들이... 아직도 그곳에 있군요. 당신의 안전을 바라며, 우리 가족에게 평화를 선물해 주세요.",
-  "OnClear": "이제 가족들도 평화롭게 잠들 수 있겠군요. 당신의 용기와 친절에 진심으로 감사드립니다."
-}</t>
-  </si>
-  <si>
-    <t>몬스터 수량 변경.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>변이체 청소: 군부대의 길</t>
-  </si>
-  <si>
-    <t>스크리머 / 부머</t>
-  </si>
-  <si>
-    <t>5 / 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -385,555 +960,273 @@
   "OnProcess": "아직 스크리머와 부머가 주변을 어슬렁거리고 있습니다. 모두 처치하셨나요?",
   "OnClear": "변이체를 모두 정리해주셨군요! 이제 우리 부대로의 길이 훨씬 안전해졌습니다. 정말 감사합니다. 당신 덕분에 중요한 일들을 진행할 수 있게 되었어요."
 }</t>
-  </si>
-  <si>
-    <t>Token : 832 
- Cost : 0.00832$</t>
-  </si>
-  <si>
-    <t>Token : 612 
- Cost : 0.01836$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Token : 1444 
  Cost : 0.02668$</t>
-  </si>
-  <si>
-    <t>31.2S</t>
-  </si>
-  <si>
-    <t>퀘스트 생성을 요청할 때 전송한 스토리는 퀘스트의 본래 목적을 숨겨야 하지만 생성된 퀘스트는 본래 목적을 숨기지 않았다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리아의 일기를 찾아서</t>
-  </si>
-  <si>
-    <t>연계되는 퀘스트 생성. 생성할 퀘스트의 타입은 Deliver, Fight, Get으로 생성.</t>
-  </si>
-  <si>
-    <t>Token : 1265 
- Cost : 0.01265$</t>
-  </si>
-  <si>
-    <t>Token : 1716 
- Cost : 0.05148$</t>
-  </si>
-  <si>
-    <t>Token : 2981 
- Cost : 0.06413$</t>
-  </si>
-  <si>
-    <t>62.1S</t>
-  </si>
-  <si>
-    <t>리아에게의 안전한 귀환</t>
-  </si>
-  <si>
-    <t>{
-  "OnClear": "아빠가 내 일기를 읽고 걱정했다는 걸 알아. 그래도 이걸 직접 전해줘서 고마워. 다음부턴 더 조심할게."
-}</t>
-  </si>
-  <si>
-    <t>위협 제거: 변이체 소탕</t>
-  </si>
-  <si>
-    <t>변이체1호/부머</t>
-  </si>
-  <si>
-    <t>3/2</t>
-  </si>
-  <si>
-    <t>서쪽 D1 구역의 비상약품상자 회수</t>
-  </si>
-  <si>
-    <t>비상약품상자</t>
-  </si>
-  <si>
-    <t>문단 분리 오류 발생</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "마지막으로 너에게 부탁할 임무가 하나 더 있어. 서쪽 D1 구역에 비상약품상자가 있어.* 그 지역은 변이체들의 활동이 잦아진 곳인데, 상자 안에는 우리 베이스 캠프에서 필요한 중요한 의료용품들이 들어 있어.* 너에게 그 상자를 찾아와달라고 부탁하고 싶어.* 변이체들에게 조심하면서도 신속히 움직여주면 좋겠어*. 안전하게 상자를 회수해 우리 베이스 캠프로 가져오면, 큰 도움이 될 거야.",
-  "OnAccept": "좋아, 그 지역을 잘 안다면 빨리 움직여. 기다리고 있겠어.",
-  "OnRefuse": "이 임무는 우리 모두에게 중요해. 다시 한번 생각해보길 바라.",
-  "OnProcess": "비상약품상자를 찾았나? 시간이 중요해. 서둘러야 해.",
-  "OnClear": "비상약품상자를 안전하게 가져와줘서 고마워. 이제 베이스 캠프의 안전과 건강을 위한 준비가 더 잘될 것 같아."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "최근 베이스 캠프 주변을 순찰 중, 나는 우연히 리아가 적은 일기를 발견했어.*이 일기는 리아가 최근 우리 베이스 캠프 밖으로 몰래 나갔음을 알려주고 있으니, 크게 걱정이 되는군.*리아에게 자유는 중요하지만, 그녀가 외부 환경에서 어떤 위험에 처할지 모른다는 점이 나를 두렵게 해.*너에게 이 일기를 리아에게 대신 전해주길 바란다.*이 일로 리아가 앞으로 더 주의를 기울이길 바라며, 무엇보다 안전하게 돌아오기를.*마지막으로, 이 모험에서 너도 조심하길 바란다. 베이스 캠프 주변엔 위험한 변이체들이 돌아다니니까.*리아가 외출 환경의 위험을 인지할 수 있도록 너의 행동으로 보여줘.",
-  "OnAccept": "그래, 이 일기를 리아에게 잘 전해주도록.",
-  "OnRefuse": "내 말을 신중하게 다시 생각해 보길 바라.",
-  "OnProcess": "리아에게 일기를 전달했나? 시간이 없으니 서둘러야 해.",
-  "OnClear": "일기를 리아에게 전달해줘서 고마워. 너의 도움이 큰 의미가 있었어."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 문맥상 맞지 않는 문장 제거.
-함께 주변 청소와 물자를 가져다 달라는 부탁도 전해줘.
--&gt; 리아에게 부탁을 전달하는 것이 아님.
-거절 시 문장 수정.
--&gt; 진정해 ~ (제거)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문단 분리 오류 발생
-1. OnAccept 의 문법 오류 수정.
-       * 잘됐어 제거.
-2. OnStart 의 문법 오류 수정.
-       * 변이체 1호와 부머라는 "의" 변이체들이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "바로 진행할 수 있는 다른 중요한 임무가 있어.* 베이스 캠프 주변에 변이체1호와 부머라는 변이체들이 출현했어. 이 녀석들이 주변의 안전을 위협하고 있지.* 너에게 이 변이체들을 제거해 줄 것을 요청하마. 변이체1호 3마리와 부머 2마리만 해치워 주면 될 거야.* 이 임무는 베이스 캠프의 안전을 확보하는 데 큰 도움이 될 거고, 리아 같은 이들이 외부로 나갔을 때의 위험을 줄여 줄 거야. 임무 완료 후엔 나에게 돌아오라고.",
-  "OnAccept": "빠르게 움직여. 변이체들이 더 늘어나기 전에 처리해야 해.",
-  "OnRefuse": "정말로 거절하겠어? 베이스 캠프의 안전이 걸린 문제야.",
-  "OnProcess": "변이체 소탕은 어떻게 되가고 있나? 시간이 얼마 남지 않았어.",
-  "OnClear": "변이체 소탕 임무를 완료해줘서 고마워. 이제 베이스 캠프는 좀 더 안전해졌어."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "네가 방금 보여준 실력, 정말 인상적이었어. 하지만 우리 앞에는 더 많은 도전이 기다리고 있지.*서쪽 D1 구역에 버려진 탄약 상자들이 있어. 우리에겐 그 탄약들이 절실히 필요하거든.*하지만 그 지역은 위험해. 변이체들만 있는 게 아니야.*그래도 네가 가져온다면, 우리는 그만큼 더 강해질 수 있어.*네가 가져올 수 있겠나?",
-  "OnAccept": "빠르고 조심스럽게 해. 우리가 기다리고 있을게.",
-  "OnRefuse": "알겠어, 너의 선택을 존중하지. 하지만 우리가 처한 상황을 다시 생각해봐.",
-  "OnProcess": "아직 탄약들을 찾지 못했나? 시간이 없어, 서둘러.",
-  "OnClear": "이걸로 우리는 한층 더 강해질 수 있어. 수고했어."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "네가 우리에게 필요한 물자를 가져와 준 것에 대해 진심으로 고마워.*하지만 우리 앞에 놓인 문제는 여전히 많아. 특히 스크리머들 때문에 많은 문제를 겪고 있어.*그 녀석들은 시야가 넓고 매우 빠르기 때문에 우리에게 큰 위협이 되고 있거든.*네가 이전에 해냈던 것처럼 그들을 처리해 줄 수 있겠나?*이 작전이 성공한다면, 우리는 좀 더 안전하게 지역을 확장할 수 있을 거야.*우리의 미래를 위해, 한 번 더 네 힘을 보여줘.",
-  "OnAccept": "기대하고 있겠어. 조심하고, 스크리머들을 빠르게 처리해줘.",
-  "OnRefuse": "거절한다면, 너도 위험에 처할 거야. 다시 한번 생각해봐.",
-  "OnProcess": "스크리머들이 여전히 문제를 일으키고 있어. 얼마나 처리했나?",
-  "OnClear": "정말 대단해. 네 덕분에 우리는 더욱 안전해졌어."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "언니, 잠깐 시간 괜찮아? *엄청나게 중요한 일인데, 정말 아무에게도 말 못 할 일이야. *아빠의 방독면 필터를... 망가뜨렸어. *아빠가 알게 되면 엄청나게 화를 낼 거야. *그래서 언니에게 부탁하고 싶은 게 있어. *서쪽 D1 구역에서 방독면 필터를 하나 구해 와 줄 수 있을까? *아빠에게 들키기 전에 빨리 해결해야 해.",
-  "OnAccept": "진짜? 도와줄 거야? 정말 고마워, 언니!",
-  "OnRefuse": "아... 그래. 언니도 바쁘니까... 다른 방법을 찾아볼게.",
-  "OnProcess": "아직 방독면 필터를 구하지 못한 거야? 아빠가 언제 방을 확인할지 몰라서 정말 불안해...",
-  "OnClear": "이거야! 정말 언니가 최고야! 이제 아빠 방독면을 괜찮게 만들 수 있을 거 같아."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSM01</t>
-  </si>
-  <si>
-    <t>CSM02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSM03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSM04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1234567</t>
-  </si>
-  <si>
-    <t>잃어버린 추억 찾기</t>
-  </si>
-  <si>
-    <t>곰인형/결혼반지</t>
-  </si>
-  <si>
-    <t>연계 퀘스트 생성. Get, Deliver로 퀘스트 생성.</t>
-  </si>
-  <si>
-    <t>Token : 1117 
- Cost : 0.03351$</t>
-  </si>
-  <si>
-    <t>Token : 2444 
- Cost : 0.04678$</t>
-  </si>
-  <si>
-    <t>38.8S</t>
-  </si>
-  <si>
-    <t>D7654321</t>
-  </si>
-  <si>
-    <t>중령에게 반지를</t>
-  </si>
-  <si>
-    <t>F9876543</t>
-  </si>
-  <si>
-    <t>중령의 감사</t>
-  </si>
-  <si>
-    <t>{
-  "OnClear": "이 결혼 반지를 찾아와 준 걸로 리아에게 좋은 기억을 되찾아 줄 수 있을 것 같구나. 고맙다."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문맥상 어울리지 않는 "이제 나와의 신뢰는 굳건해질 거야" 제거</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "언니, 저... 정말 부탁하나만 들어줄 수 있어?*저희 베이스 캠프로 도망치는 길에, 저는 제가 가장 소중하게 여기던 두 가지를 잃어버렸어.*하나는 어머니께서 저한테 주신 곰인형이고, 다른 하나는 아빠가 어머니께 줬던 결혼 반지야.*어머니는 이미... 하지만 그 반지와 곰인형만큼은 꼭 다시 찾고 싶어.*곰인형은 서쪽 D1 구역에서, 결혼반지는 동쪽 D1 구역에서 잃어버렸어.*부디 찾아줄 수 있겠니? 나에게는 그것들이 전부야.",
-  "OnAccept": "정말? 고마워, 언니! 빨리 돌아오길 바랄게.",
-  "OnRefuse": "알겠어... 누군가에게 이런 걸 부탁하는 게 쉽지 않네.",
-  "OnProcess": "아직 찾지 못했구나... 부탁한 건, 서쪽 D1 구역의 곰인형과 동쪽 D1 구역의 결혼반지야.",
-  "OnClear": "이게 정말...! 언니, 정말로 고맙다! 이제 어머니와 아빠의 기억을 제대로 간직할 수 있을 것 같아."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리아의 말투가 아닌 찰리 중령의 말투를 사용.
-OnClear 스크립트 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "언니, 곰인형과 결혼반지를 찾아줘서 정말로 고마워.*이번에는... 아빠한테 결혼반지를 전해줄 수 있겠니?*아빠는 찰리 중령이야. 베이스 캠프의 지휘관이지.*아빠는 지금 플레이어를 크게 신용하지 않고 있어서 좀 까칠할 수도 있어.*하지만 이 반지를 보면 분명 감동받을 거야. 내가 언니를 믿어서 부탁하는 거니까, 부탁해.",
-  "OnAccept": "아빠한테 잘 전달해줘. 언니가 도와줘서 든든해!",
-  "OnRefuse": "그럴 줄 알았어... 아무튼 고마웠어, 언니.",
-  "OnProcess": "아빠한테 아직 결혼반지를 전달하지 못했구나. 아빠는 베이스 캠프의 지휘관실에 있어.",
-  "OnClear": "고마워 언니! 덕분에 한시름 놓을 수 있게 되었어."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM0003412345</t>
-  </si>
-  <si>
-    <t>잃어버린 해독기 찾기</t>
-  </si>
-  <si>
-    <t>암호해독기</t>
-  </si>
-  <si>
-    <t>연계 퀘스트 생성. 퀘스트 타입은 Get, Fight. 존댓말 사용.</t>
-  </si>
-  <si>
-    <t>Token : 1440 
- Cost : 0.01440$</t>
-  </si>
-  <si>
-    <t>Token : 975 
- Cost : 0.02925$</t>
-  </si>
-  <si>
-    <t>Token : 2415 
- Cost : 0.04365$</t>
-  </si>
-  <si>
-    <t>42.3S</t>
-  </si>
-  <si>
-    <t>CM0003789012</t>
-  </si>
-  <si>
-    <t>스캐빈저와의 첫 조우</t>
-  </si>
-  <si>
-    <t>스캐빈저</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "해독기 덕분에 스캐빈저에 대한 정보를 해독할 수 있었어요.*하지만 이론만으로는 충분한 대비가 어렵죠.*스캐빈저의 실제 습성을 관찰할 필요가 있습니다.*이번엔 스캐빈저를 직접 마주하고, 카메라를 단 상태로 전투를 요청드립니다.*스캐빈저의 행동 패턴을 분석할 수 있게 될 거예요.*위험한 임무지만, 당신이라면 할 수 있을 겁니다.*준비가 되시면 스캐빈저를 찾아서 전투를 시작해 주세요.",
-  "OnAccept": "신중을 기해 주세요. 스캐빈저는 예상외로 빠르고 위험할 수 있습니다.",
-  "OnRefuse": "아직 준비가 덜 되셨나요? 충분히 이해합니다. 하지만 준비가 되면 다시 말씀해주세요.",
-  "OnProcess": "스캐빈저와의 전투, 어떻게 되고 있나요? 조심하세요.",
-  "OnClear": "전투 데이터를 잘 취합해둘게요. 이 자료는 큰 도움이 될 겁니다. 정말 감사드려요."
-}</t>
-  </si>
-  <si>
-    <t>OnStart의 어색한 문구 수정. 존댓말 사용 요구 불이행.
--&gt; "아, 바로 당신이라면 부탁할게 있어"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "여러 일 때문에 바쁘시겠지만 부탁할게 있어요.*연구소에서 구한 암호 일지, 기억하시죠?*해석하다 보니 스캐빈저에 대한 정보가 나왔어요.*하지만 정보가 부족해서 완전히 해석할 수가 없습니다.*연구 일지에 따르면, 연구소 서쪽 구역에 해독에 필요한 해독기가 있다고 해요.*이 해독기를 찾아주실 수 있나요?*이 정보가 정확하다면, 스캐빈저에 대한 이해를 높일 수 있을 겁니다.",
-  "OnAccept": "감사합니다. 서쪽 구역에 조심히 가 보세요. 여러 위험이 도사리고 있을 테니까요.",
-  "OnRefuse": "그렇군요, 이해합니다. 하지만 만약 마음이 바뀌면 언제든지 도와주세요.",
-  "OnProcess": "아직 해독기를 찾지 못하셨군요. 서쪽 구역을 잘 살펴보세요.",
-  "OnClear": "이게 바로 그 해독기군요! 정말 대단해요. 이제 남은 정보를 완전히 해석할 수 있을 거예요."
-}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/5</t>
+  </si>
+  <si>
+    <t>6개의 연계되는 퀘스트 생성. 각 퀘스트 타입은 Fight,Get, Deliver, Finsih, Fight, Get 으로 생성. Deliver퀘스트 뒤에는 Finish퀘스트를 넣어야 해.</t>
+  </si>
+  <si>
+    <t>Token : 1717 
+ Cost : 0.01717$</t>
+  </si>
+  <si>
+    <t>Token : 2483 
+ Cost : 0.07449$</t>
+  </si>
+  <si>
+    <t>Token : 4200 
+ Cost : 0.09166$</t>
+  </si>
+  <si>
+    <t>83.3S</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>CM0005</t>
+  </si>
+  <si>
+    <t>CM0006</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "변이체들이 계속해서 우리 영토 내로 밀려들고 있어. * 이번 일의 원인을 파악하지 않으면, 상황은 더욱 악화될 것이다. * 내가 이번 작전을 진두지휘하기로 했다. * 네가 주변을 정찰하고 변이체들의 특이 사항을 파악해줬으면 한다. * 특히, 연구소 부근에서는 거대한 물체의 흔적이 발견되었다고 하니, 그 부분에 주목해주길 바란다. * CCTV 정보를 모아와서, 우리가 뭘 상대하고 있는지 정확히 파악할 필요가 있다. * 너라면 충분히 해낼 수 있을 것이라 믿는다.",
+  "OnAccept": "좋아, 이 작전에 네가 함께해주겠다니 용기를 내야겠군. 얼른 출발해라.",
+  "OnRefuse": "이런, 너마저 거절한다면 우리의 상황은 더욱 암담해질 것이다. 다시 한번 생각해보길 바란다.",
+  "OnProcess": "어떤가? 변이체들로부터 뭔가 유용한 정보를 얻을 수 있었나?",
+  "OnClear": "이 정보들이야말로 우리가 찾던 결정적인 단서들이야. 잘했다."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6개의 연계되는 퀘스트 생성. 각 퀘스트 타입은 Fight,Get, Deliver, Finsih, Fight, Get 으로 생성. Deliver퀘스트 뒤에는 Finish퀘스트를 넣어야 해.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리자드럴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이체의 원인을 찾아서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크리머/부머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이제 이 CCTV 파일들을 닉에게 전달해야 한다. * 닉은 우리 캠프의 생존자로, 멸망 전 군부대에서 암호 해독관으로 일했었다. * 그의 능력이라면 이 파일들 속에 숨겨진 단서를 찾아낼 수 있을 거야. * 이 정보가 바로 그 변이체의 정체를 밝혀줄 열쇠가 될 것이다. * 닉에게 이 파일들을 빠르게 전해주고, 그의 분석 결과를 기다려라. * 우리의 다음 행동은 그 결과에 달려있다. * 조심해, 이 정보는 매우 중요하다. 절대로 잃어버리지 마라.",
+  "OnAccept": "닉이 이 정보를 어떻게 분석할지, 나도 궁금하군. 얼른 전달해주길 바란다.",
+  "OnRefuse": "이 말을 듣고도 거절한다면, 너는 큰 그림을 보지 못하는 것이다.",
+  "OnProcess": "닉에게 파일을 전달했나? 시간이 없다. 서둘러.",
+  "OnClear": "이제 닉이 뭔가를 알아내기를 기다려야겠군."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃어버린 CCTV 파일 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉의 분석 결과 기다리기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "자료를 잘 전달받았어. 분석하는데 시간이 좀 걸릴 것 같으니 기다려줘."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이체의 최후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "닉의 분석 결과에 따르면, 이 변이체는 우리가 알던 것들과는 다르다. * 강력한 맷집을 가지고 있으며, 이번에 목격된 거대한 물체와 연관이 있는 것으로 보인다. * 이대로 두면 더 많은 변이체들이 생겨날 것이다. * 리자드럴, 그것의 이름이다. 이 변이체를 제거하는 것이 우리의 목표다. * 너에게 이 중요한 임무를 맡긴다. * 리자드럴을 찾아서 제거하고 돌아오도록 해라. * 이것이 끝나면, 우리는 더 큰 목표를 향해 나아갈 수 있을 것이다.",
+  "OnAccept": "이번 임무는 매우 위험하니, 준비를 철저히 하고 나서야 한다.",
+  "OnRefuse": "이 임무가 왜 중요한지 이해 못하는 건가? 다시 한번 생각해보길 바란다.",
+  "OnProcess": "리자드럴을 찾아 헤매고 있나? 놈은 아주 강력하다. 조심해라.",
+  "OnClear": "리자드럴을 처치했다고? 대단하군. 이제 우리는 한층 더 나아갈 수 있다."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "이제 변이체들의 생성을 막기 위한 최종 단계에 접어들었다. * 연구소를 폭파시키는 것이다. * 이 작업을 위해 필요한 폭탄을 구해와야 한다. * 네가 이미 많은 임무를 수행했다는 걸 알고 있지만, 이 임무는 특히 중요하다. * 폭탄을 3개 구해와라. * 이 폭탄들이 연구소의 종말을 가져올 것이다. * 위험한 임무지만, 너라면 해낼 수 있을 것이라 믿는다. * 준비가 되면 바로 행동에 옮겨라.",
+  "OnAccept": "필요한 물건을 구하기 위해 떠나는 거구나. 조심하고, 무사히 돌아오길 바란다.",
+  "OnRefuse": "이 임무는 우리 모두에게 중요해. 네 결정을 다시 한번 생각해봐.",
+  "OnProcess": "폭탄을 구하는 데 어려움은 없나?",
+  "OnClear": "폭탄을 모두 구했다니, 이제 우리의 계획을 진행할 수 있겠군."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉에게의 중요한 전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "주변 CCTV 정보를 모아오는 임무를 맡아줘서 고맙다. * 이 정보들이 없다면 우리는 아무것도 할 수 없는 상태야. * CCTV 파일들은 연구소 주변에서 발견되었다고 하니, 그 지역을 중점적으로 뒤져주길 바란다. * 조심해, 그곳엔 아직 많은 변이체들이 돌아다니고 있을 거야. * 어떤 위험이 있더라도 이 임무는 반드시 완수되어야 해. * CCTV 파일을 모두 수집하면 나에게 직접 가져와라. * 우리의 다음 행동은 이 정보에 크게 좌우될 것이다.",
+  "OnAccept": "신속하게 행동해주기 바란다. 시간이 없다.",
+  "OnRefuse": "참으로 안타깝군. 다른 방법을 찾아봐야 할 것 같다.",
+  "OnProcess": "CCTV 파일을 찾는 데 어려움은 없는가?",
+  "OnClear": "이 파일들 덕분에 무언가를 알 수 있을 거야. 고맙다."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token : 4200 
+ Cost : 0.09166$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계 퀘스트 생성. 퀘스트 타입은 Fight, Get. 거대한 물체의 목격은 2번째 퀘스트 내용에 포함시킬 것.</t>
+  </si>
+  <si>
+    <t>Token : 1359 
+ Cost : 0.01359$</t>
+  </si>
+  <si>
+    <t>Token : 916 
+ Cost : 0.02748$</t>
+  </si>
+  <si>
+    <t>Token : 2275 
+ Cost : 0.04107$</t>
+  </si>
+  <si>
+    <t>19.9S</t>
+  </si>
+  <si>
+    <t>연계 퀘스트 생성. 퀘스트 타입은 Fight, Get. 거대한 물체의 목격은 2번째 퀘스트 내용에 포함시킬 것.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "여기까지 와줘서 고맙다.*계속해서 이 지역에 변이체가 증가하고 있어.*그 배후에 무엇이 있는지, 원인을 찾아 뿌리 뽑고 싶어.*네가 주변을 정찰하며 변이체들을 해치우고,*특이 사항이 없는지 확인해 줬으면 해.*그 중 변이체1호, 스크리머, 부머를 주의 깊게 봐.*그들을 처치하고 무엇인가 이상한 점을 발견한다면 즉시 보고해줘.",
+  "OnAccept": "좋아, 이 임무를 수락해줘서 고마워. 널 믿어.",
+  "OnRefuse": "알겠어. 이 상황을 이해 못하는 건 아니야. 하지만 도움이 절실해.",
+  "OnProcess": "어떤가? 변이체들을 다 처리했나? 무엇인가 발견한 것이 있다면 나에게 보고해.",
+  "OnClear": "잘 해냈어. 이 정보는 분석해 볼 가치가 있어. 잘 해냈다고."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이체의 증가, 원인을 찾아서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이체1호/스크리머/부머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 물체의 실체</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CCTV파일</t>
-  </si>
-  <si>
-    <t>릭커</t>
-  </si>
-  <si>
-    <t>폭탄</t>
-  </si>
-  <si>
-    <t>변이체의 원인 찾기</t>
-  </si>
-  <si>
-    <t>부머/스캐빈저</t>
-  </si>
-  <si>
-    <t>5/3</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "최근 변이체가 늘어만 가고 있어.*이 문제를 해결하기 위해선 원인을 뿌리뽑아야 해.*주변에 변이체가 자주 목격된다는 보고가 있어.*네가 그 근처를 조사해주길 바라.*부머와 스캐빈저, 두 종류의 변이체를 살펴봐.*적어도 5마리의 부머와 3마리의 스캐빈저를 처리해줘.*주의해, 이들은 상당히 위험하니까.",
-  "OnAccept": "알겠어, 부디 조심해.",
-  "OnRefuse": "아직 준비가 안 됐다면, 언제든지 나중에 말해줘.",
-  "OnProcess": "아직 부머와 스캐빈저를 제대로 처리하지 못한 것 같군. 조사가 끝나면 바로 보고해.",
-  "OnClear": "수고했어. 이제 이 정보를 바탕으로 다음 단계를 준비할 수 있겠어."
-}</t>
-  </si>
-  <si>
-    <t>Token : 1122 
- Cost : 0.01122$</t>
-  </si>
-  <si>
-    <t>Token : 418 
- Cost : 0.01254$</t>
-  </si>
-  <si>
-    <t>Token : 1540 
- Cost : 0.02376$</t>
-  </si>
-  <si>
-    <t>17S</t>
-  </si>
-  <si>
-    <t>지나간 그림자, 남겨진 단서</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "변이체를 소탕해준 건 잘했어. 하지만 그 과정에서 네가 말한 거대한 물체의 존재가 나를 꽤나 걱정하게 만들고 있어.*CCTV 파일을 통해서라도 그 정체가 무엇인지 확인해보려고 해.*주변 지역의 CCTV를 확인해볼 필요가 있어. 우리의 통신 장비로는 접근하기 힘든 상태야.*세 곳의 CCTV에서 파일을 모아와. 그 안에 분명 무언가 단서가 있을 거야.*어떤 위험이 도사리고 있는지, 아니면 우리가 놓친 중요한 정보가 있는지 확인해봐야 해.*시간이 얼마 없어. 가능한 빠르게 움직여줘. 나는 여기서 기다리겠어.*조심하고, 꼭 필요한 파일만 가져와. 불필요한 정보는 우리에게 방해만 될 거야.",
-  "OnAccept": "좋아, 그 정보가 우리에게 많은 걸 가르쳐줄 거야. 빠르게 움직여.",
-  "OnRefuse": "이해해. 하지만 네 결정이 우리 모두에게 어떤 결과를 가져올지 생각해봐.",
-  "OnProcess": "CCTV 파일은 모두 모아왔나? 그 안에 답이 있을 거야.",
-  "OnClear": "이 파일들이 우리에게 필요한 답을 주길 바라. 고마워."
-}</t>
-  </si>
-  <si>
-    <t>Token : 1120 
- Cost : 0.01120$</t>
-  </si>
-  <si>
-    <t>Token : 540 
- Cost : 0.01620$</t>
-  </si>
-  <si>
-    <t>Token : 1660 
- Cost : 0.02740$</t>
-  </si>
-  <si>
-    <t>22.4S</t>
-  </si>
-  <si>
-    <t>찰리 중령의 요청: CCTV 자료 전달</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "이 CCTV 영상들을 자세히 봤어. 우리가 최근 들었던 그 무전과 연결된 걸까?*실제로 우리 기지 근처에서 어떤 새로운 변이체의 활동이 포착됐다는 보고가 있었어.*이 자료들을 닉에게 전해줄래? 그는 과거 군부대에서 암호 해독을 담당했었지. 분명히 도움이 될 거야.*영상에 나온 변이체에 대한 정보를 최대한 빨리 알아내야 해. 우리의 안전이 달린 문제니까.*닉은 캠프 내에서 쉽게 찾을 수 있을 거야. 그가 이 자료를 확인하고 뭔가 알아낼 수 있기를 바란다.*시간이 얼마 없어. 빨리 움직여줘. 닉이 이 자료를 보고 뭔가 알아내길 바라.*너의 도움으로 더 큰 위기를 막을 수 있을 거라 믿어.",
-  "OnAccept": "잘 했어. 신속하게 움직이는 건 지금 우리에게 가장 중요한 일이니까.",
-  "OnRefuse": "이건 우리 모두의 안전을 위한 일이야. 다시 한번 생각해보게.",
-  "OnProcess": "CCTV 자료를 닉에게 전달했나? 우리에게는 시간이 없어.",
-  "OnClear": "자료를 닉에게 전달했군. 이제 그 결과를 기다릴 때야. 고마워."
-}</t>
-  </si>
-  <si>
-    <t>Token : 1203 
- Cost : 0.01203$</t>
-  </si>
-  <si>
-    <t>Token : 749 
- Cost : 0.02247$</t>
-  </si>
-  <si>
-    <t>Token : 1952 
- Cost : 0.03450$</t>
-  </si>
-  <si>
-    <t>닉의 분석: 변이체의 실체</t>
-  </si>
-  <si>
-    <t>{
-  "OnClear": "찰리 중령에게 받은 자료를 바탕으로, 이 변이체가 실제로 우리가 무전에서 들었던 새로운 종류라는 걸 확인했어. 이 정보는 우리가 앞으로 나아가는 데 큰 도움이 될 거야. 수고했어."
-}</t>
-  </si>
-  <si>
-    <t>변이체 릭커 처치 명령</t>
-  </si>
-  <si>
-    <t>Token : 1088 
- Cost : 0.01088$</t>
-  </si>
-  <si>
-    <t>Token : 553 
- Cost : 0.01659$</t>
-  </si>
-  <si>
-    <t>Token : 1641 
- Cost : 0.02747$</t>
-  </si>
-  <si>
-    <t>21.5S</t>
-  </si>
-  <si>
-    <t>연구소 폭파를 위한 준비</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "변이체 제거는 단기적인 해결책에 불과해. 우린 더 근본적인 조치를 취해야만 해.*연구소... 그곳이 모든 문제의 원흉이야. 그곳을 파괴하면, 변이체의 확산도 막을 수 있겠지.*폭탄을 구해와야 해. 동쪽 D1 구역에 폭탄이 숨겨져 있다는 정보를 입수했어.*넌 이미 여러 번 우리를 위험에서 구해냈지. 이번에도 너에게 부탁하고 싶어.*시간이 없어. 빠르게 움직여야 해. 폭탄을 얻어 우리가 연구소를 폭파할 준비를 할 수 있도록 도와줘.*이번 임무는 쉽지 않겠지만, 네가 아니면 누구도 할 수 없는 일이야. 우리 모두를 위해 부탁해.*조심히 다녀와. 그리고 무엇보다, 너 자신을 보호해.",
-  "OnAccept": "좋아, 빠르게 움직여. 시간이 없어. 폭탄을 구해서 돌아오는 걸 기다리겠어.",
-  "OnRefuse": "이해해. 하지만 우리는 다른 선택지가 없어. 다시 생각해보고 준비가 되면 말해줘.",
-  "OnProcess": "아직 폭탄을 구하지 못했나? 동쪽 D1 구역에 있어. 서둘러줘.",
-  "OnClear": "폭탄을 구해왔군. 잘했어. 이제 우리는 다음 단계로 나아갈 준비가 됐어."
-}</t>
-  </si>
-  <si>
-    <t>Token : 1111 
- Cost : 0.01111$</t>
-  </si>
-  <si>
-    <t>Token : 593 
- Cost : 0.01779$</t>
-  </si>
-  <si>
-    <t>Token : 1704 
- Cost : 0.02890$</t>
-  </si>
-  <si>
-    <t>25.2S</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "닉이 넘겨준 CCTV 분석 결과를 보니, 그 변이체가 우리의 안전을 심각하게 위협하고 있어.*이 릭커라 불리는 변이체, 오른손의 공격은 상당히 치명적이야. 이대로 둘 수만은 없어.*내 명령이다. 릭커를 찾아 처치하고 돌아오도록.*이번 작전은 단순한 사냥이 아니라, 우리 모두를 위한 필수적인 작업이야.*조심하고, 최선을 다해. 네가 얼마나 뛰어난지 잘 알고 있으니, 분명 이 임무도 해낼 거야.*모두의 안전을 위해, 실패는 용납할 수 없어. 무사히 돌아와.*가서 그 괴물을 끝장내고 오도록.",
-  "OnAccept": "그래, 그 결정을 내린 것을 환영한다. 조심하고, 무사히 돌아와.",
-  "OnRefuse": "모두의 안녕을 위해 너의 힘이 필요한데, 이런 결정이 유감이다.",
-  "OnProcess": "릭커를 아직 못 찾았나? 시간이 없어, 우리 모두의 안전을 위해 서둘러야 해.",
-  "OnClear": "릭커를 처치했다고? 잘 했어, 정말 자랑스럽다. 이제 우리 모두 좀 더 안심할 수 있겠어."
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 NPC의 이름을 포함하여 삭제.
-리아, 닉이 넘겨준 … 여기서 리아 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리아의 고양이를 위한 치료제 찾기</t>
-  </si>
-  <si>
-    <t>항생제</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "어서 오십시오. 제게 중요한 부탁이 있어요.*리아 중령의 딸, 리아가 최근에 저에게 자신이 키우는 고양이에 대해 걱정을 털어놓았습니다.*불쌍한 녀석이 감기에 걸려 상태가 좋지 않다고 해요.*이 지역에서는 치료할 약을 구하기가 쉽지 않지만, 서쪽 D1 구역에서 항생제를 찾을 수 있을 겁니다.*리아도 저도 이 상황에서 별 도움이 되지 못해 마음이 무겁습니다.*당신이라면 그 약을 찾아낼 수 있을 것 같습니다. 리아의 고양이를 위해 항생제를 얻어 올 수 있겠습니까?*부탁드립니다.",
-  "OnAccept": "감사합니다. 서쪽 D1 구역에서 약을 찾아주세요.",
-  "OnRefuse": "그렇군요, 이해합니다. 혹시 마음이 바뀌면 다시 말씀해주세요.",
-  "OnProcess": "항생제를 찾으셨나요? 리아의 고양이가 기다리고 있어요.",
-  "OnClear": "이 약으로 고양이가 꼭 나아주기를 바랍니다. 고생 많으셨습니다."
-}</t>
-  </si>
-  <si>
-    <t>연계 퀘스트 생성. 퀘스트 타입은 Get, Deliver.</t>
-  </si>
-  <si>
-    <t>Token : 1376 
- Cost : 0.01376$</t>
-  </si>
-  <si>
-    <t>Token : 974 
- Cost : 0.02922$</t>
-  </si>
-  <si>
-    <t>Token : 2350 
- Cost : 0.04298$</t>
-  </si>
-  <si>
-    <t>38.4S</t>
-  </si>
-  <si>
-    <t>리아에게 약 전달하기</t>
-  </si>
-  <si>
-    <t>{
-  "OnStart": "지금 당신이 가지고 있는 약을 리아에게 전달해주시겠습니까?*리아가 당신에게 직접 고마움을 전할 수 있을 겁니다.*당신이 직접 전해준다면 리아도 분명히 기뻐할 겁니다.*고양이를 위해 어려운 일을 맡아준 당신에게 리아가 얼마나 고마워할지 상상이 됩니다.*부디 리아에게 약을 전달해주십시오.",
-  "OnAccept": "리아를 찾아 약을 전달해주셔서 감사합니다. 리아는 이 캠프 안에 있을 겁니다.",
-  "OnRefuse": "아, 알겠습니다. 그렇게 결정하셨다면...",
-  "OnProcess": "리아에게 아직 약을 전달하지 않으셨나요? 시간이 없습니다.",
-  "OnClear": "정말 고맙습니다. 이제 리아의 고양이도 빨리 나을 수 있을 겁니다."
-}</t>
-  </si>
-  <si>
-    <t>리아의 감사 인사 받기</t>
-  </si>
-  <si>
-    <t>{
-  "OnClear": "고맙습니다, 언니! 고양이가 더욱 건강해질 수 있을 거에요. 당신 덕분이에요!"
-}</t>
-  </si>
-  <si>
-    <t>리아</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 타겟 설정 오류. Deliver 퀘스트는 TargetNPC만 생성해야 하지만 "항생제"라는 아이템 까지 타겟에 포함시킴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "네가 변이체들을 처치하는 동안 거대한 물체가 연구소 부근을 지나간 것을 목격했다고?*이 정보는 매우 중요해. 만약 이것이 변이체 증가의 원인이라면,*우리는 더 큰 문제에 직면해 있을지도 몰라.*주변의 CCTV 파일을 모아와. 그 안에 단서가 있을 거야.*이번 임무는 쉽지 않을 거야. 하지만 너라면 할 수 있을 거라 믿어.*빠르게 움직여야 해. 우리에게는 시간이 많지 않아.",
+  "OnAccept": "그래, 이 일을 너에게 맡길 수 있어서 다행이야. 조심해.",
+  "OnRefuse": "아직 준비가 안 됐다고? 시간이 없다는 걸 이해해줘. 필요할 때 네가 여기 있길 바라.",
+  "OnProcess": "CCTV 파일을 모두 모았나? 그 파일들이 우리가 찾던 답일 수 있어.",
+  "OnClear": "이 파일들로 우리는 거대한 물체의 정체를 분석할 수 있을 거야. 고마워, 정말 큰 도움이 됐어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계 퀘스트 생성. 퀘스트 타입은 Deliver, Finish, Fight, Get으로 생성해.</t>
+  </si>
+  <si>
+    <t>Token : 1469 
+ Cost : 0.01469$</t>
+  </si>
+  <si>
+    <t>Token : 1513 
+ Cost : 0.04539$</t>
+  </si>
+  <si>
+    <t>Token : 2982 
+ Cost : 0.06008$</t>
+  </si>
+  <si>
+    <t>41.6S</t>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "잘 왔어. 지난번에 네가 모아온 CCTV 자료가 여기있어.*이걸 닉에게 전달해줄 수 있겠니?*닉이라면 이 자료 분석을 할 수 있을 거야.*분석 결과가 어떻게 나오든, 우리는 준비가 되어 있어야 해.*이 자료가 변이체에 대한 중요한 단서가 될 수도 있으니 신중히 다뤄줘.*나는 당신을 신뢰해. 꼭, 닉에게 안전하게 전달해줘.*시간이 없어, 서두르자.",
+  "OnAccept": "좋아, 빠르게 움직여. 닉에게 무사히 전달하길 바라.",
+  "OnRefuse": "시간이 없다고 했잖아. 다시 생각해봐.",
+  "OnProcess": "CCTV 자료, 닉에게 전달했어?",
+  "OnClear": "자료를 무사히 전달했다고? 수고했어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV 결과 전달하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV 분석 결과 받기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnClear": "아, 네가 찰리 중령에게서 온 사람이군. CCTV 자료 분석이 완료됐어. 결과는 확실히 놀라워. 변이체가 베이스 캠프에 큰 위협이 될 수 있어. 찰리 중령에게 빨리 알려야겠어."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리자드럴 제거 작전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "네가 가져온 분석 결과를 본 바로는, 그 변이체는 베이스 캠프에 큰 위협이 될 수 있어.*리자드럴, 이 녀석을 제거하지 않는다면 우리는 큰 위험에 노출될 거야.*너라면 이 임무를 완수할 수 있을 거라 믿어. 준비가 됐다면 바로 출발하자.*리자드럴은 매우 강하니 최대한 조심해서 접근해.*이 몬스터를 제거한다면 우리 베이스는 한층 더 안전해질 거야.*자네가 이 임무를 완수하는 걸 믿어.*모두의 안전을 위해, 행운을 빈다.",
+  "OnAccept": "신중히 행동하고, 리자드럴을 반드시 제거해야 해.",
+  "OnRefuse": "이 임무는 무거운 책임감을 요한다. 준비가 되지 않았다면, 다시 생각해.",
+  "OnProcess": "리자드럴, 제거했나?",
+  "OnClear": "리자드럴을 제거했다고? 정말 대단해! 이제 우리 베이스는 보다 안전해질 거야."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소 폭파용 폭탄 구하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "OnStart": "리자드럴을 제거한 것은 좋은 성과야. 하지만 근본적인 위험을 제거하기 위해선 더 나아가야 해.*연구소에는 이 변이체를 만든 근본적인 원인들이 있어. 그걸 제거하지 않으면, 또 다른 위험이 우리를 찾아올 거야.*내가 듣기로는 근처에 폭탄이 있다고 해. 우리는 그 폭탄을 구해 연구소를 폭파시켜야 해.*시간이 없어. 네가 할 수 있다는 걸 알아, 그 폭탄을 구해와 줘.*너에게 맡길 수밖에 없어. 우리의 미래가 달린 중요한 임무야.*빠르게 움직여. 성공을 기원하마.",
+  "OnAccept": "폭탄을 구하러 가는군. 조심히 행동해.",
+  "OnRefuse": "이 임무는 매우 중요해. 다시 한번 고민해봐.",
+  "OnProcess": "폭탄, 구해왔나?",
+  "OnClear": "폭탄을 구하는 데 성공했다고? 정말 대단한 성과야. 이제 연구소 폭파 계획을 진행할 수 있겠군."
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1030,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,6 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
@@ -1327,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1388,15 +1682,15 @@
         <v>11</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1405,74 +1699,74 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="297" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="330" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1481,267 +1775,267 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="330" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="N5" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="M10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" t="s">
-        <v>58</v>
-      </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="330" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1750,80 +2044,80 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -1832,150 +2126,150 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="N14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="396" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="L15" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" t="s">
-        <v>102</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1984,279 +2278,279 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="M17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N17" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="330" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L18" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="363" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M19" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="N19" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M20" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="N20" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M21" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="N21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L22" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N22" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M23" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N23" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="297" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -2265,150 +2559,150 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K24" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="396" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" t="s">
         <v>154</v>
       </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" t="s">
-        <v>168</v>
-      </c>
       <c r="M25" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="N25" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="396" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N26" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N27" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -2417,180 +2711,636 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="M28" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="N28" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M29" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="N29" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N30" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="297" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K31" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N31" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="H32" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N32" t="s">
-        <v>198</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="363" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" t="s">
+        <v>220</v>
+      </c>
+      <c r="L33" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" t="s">
+        <v>222</v>
+      </c>
+      <c r="N33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H35" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" t="s">
+        <v>220</v>
+      </c>
+      <c r="L35" t="s">
+        <v>221</v>
+      </c>
+      <c r="M35" t="s">
+        <v>222</v>
+      </c>
+      <c r="N35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" t="s">
+        <v>219</v>
+      </c>
+      <c r="K36" t="s">
+        <v>220</v>
+      </c>
+      <c r="L36" t="s">
+        <v>221</v>
+      </c>
+      <c r="M36" t="s">
+        <v>222</v>
+      </c>
+      <c r="N36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" t="s">
+        <v>219</v>
+      </c>
+      <c r="K37" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" t="s">
+        <v>221</v>
+      </c>
+      <c r="M37" t="s">
+        <v>222</v>
+      </c>
+      <c r="N37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H38" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" t="s">
+        <v>220</v>
+      </c>
+      <c r="L38" t="s">
+        <v>221</v>
+      </c>
+      <c r="M38" t="s">
+        <v>222</v>
+      </c>
+      <c r="N38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" s="6">
+        <v>38413</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K39" t="s">
+        <v>246</v>
+      </c>
+      <c r="L39" t="s">
+        <v>247</v>
+      </c>
+      <c r="M39" t="s">
+        <v>248</v>
+      </c>
+      <c r="N39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" t="s">
+        <v>246</v>
+      </c>
+      <c r="L40" t="s">
+        <v>247</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="297" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K41" t="s">
+        <v>258</v>
+      </c>
+      <c r="L41" t="s">
+        <v>259</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="N41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" t="s">
+        <v>258</v>
+      </c>
+      <c r="L42" t="s">
+        <v>259</v>
+      </c>
+      <c r="M42" t="s">
+        <v>260</v>
+      </c>
+      <c r="N42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K43" t="s">
+        <v>258</v>
+      </c>
+      <c r="L43" t="s">
+        <v>259</v>
+      </c>
+      <c r="M43" t="s">
+        <v>260</v>
+      </c>
+      <c r="N43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" t="s">
+        <v>258</v>
+      </c>
+      <c r="L44" t="s">
+        <v>259</v>
+      </c>
+      <c r="M44" t="s">
+        <v>260</v>
+      </c>
+      <c r="N44" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
